--- a/0755 Fantasy Football 2024.xlsx
+++ b/0755 Fantasy Football 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="48">
   <si>
     <t>Stone Harbor Parking Authority</t>
   </si>
@@ -40,7 +40,7 @@
     <t>Patrick's Stars</t>
   </si>
   <si>
-    <t>Arm Pitts</t>
+    <t>Dak Stinks</t>
   </si>
   <si>
     <t>Division iPad</t>
@@ -52,10 +52,13 @@
     <t xml:space="preserve">Baby Chark, Juju Juju </t>
   </si>
   <si>
-    <t>0-1-0</t>
-  </si>
-  <si>
-    <t>1-0-0</t>
+    <t>0-2-0</t>
+  </si>
+  <si>
+    <t>1-1-0</t>
+  </si>
+  <si>
+    <t>2-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -115,7 +118,31 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
     <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
   </si>
   <si>
     <t>Week</t>
@@ -572,34 +599,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -610,22 +637,22 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
         <v>11</v>
@@ -634,7 +661,7 @@
         <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -645,22 +672,22 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
         <v>11</v>
@@ -669,7 +696,7 @@
         <v>11</v>
       </c>
       <c r="K5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -677,34 +704,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
       </c>
       <c r="K6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -715,22 +742,22 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
@@ -750,7 +777,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -759,7 +786,7 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
@@ -785,31 +812,31 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -829,7 +856,7 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -855,7 +882,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -864,10 +891,10 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
         <v>11</v>
@@ -897,13 +924,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -911,10 +938,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -925,13 +952,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -939,13 +966,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -956,10 +983,10 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -967,10 +994,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
         <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0.5</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -981,13 +1008,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -995,13 +1022,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1009,13 +1036,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1023,13 +1050,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1037,13 +1064,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1061,16 +1088,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1078,16 +1105,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1095,13 +1122,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="D3">
-        <v>-0.09999999999999998</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -1112,13 +1139,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="D4">
-        <v>-0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -1129,16 +1156,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="D5">
-        <v>0.7</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1146,13 +1173,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="D6">
-        <v>-0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -1163,13 +1190,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -1180,16 +1207,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="D8">
-        <v>0.4</v>
+        <v>-1.1</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1200,10 +1227,10 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D9">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -1217,10 +1244,10 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -1258,69 +1285,69 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>74.33</v>
+        <v>34.94</v>
       </c>
       <c r="C2">
-        <v>25.08</v>
+        <v>24.44</v>
       </c>
       <c r="D2">
-        <v>0.59</v>
+        <v>17.9</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>12.75</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>7.290000000000001</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1329,36 +1356,36 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>100</v>
+        <v>99.58000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>21.13</v>
+        <v>21.82</v>
       </c>
       <c r="C3">
-        <v>40.36</v>
+        <v>25.65</v>
       </c>
       <c r="D3">
-        <v>27.99</v>
+        <v>22.24</v>
       </c>
       <c r="E3">
-        <v>8.630000000000001</v>
+        <v>16.59</v>
       </c>
       <c r="F3">
-        <v>1.71</v>
+        <v>9.950000000000001</v>
       </c>
       <c r="G3">
-        <v>0.17</v>
+        <v>3.06</v>
       </c>
       <c r="H3">
-        <v>0.01</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1367,121 +1394,121 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>99.98999999999998</v>
+        <v>99.31</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>3.97</v>
+        <v>17.32</v>
       </c>
       <c r="C4">
-        <v>22.56</v>
+        <v>17.56</v>
       </c>
       <c r="D4">
-        <v>34.62</v>
+        <v>18.92</v>
       </c>
       <c r="E4">
-        <v>25.04</v>
+        <v>17.84</v>
       </c>
       <c r="F4">
-        <v>10.3</v>
+        <v>16.68</v>
       </c>
       <c r="G4">
-        <v>3.02</v>
+        <v>8.24</v>
       </c>
       <c r="H4">
-        <v>0.44</v>
+        <v>2.73</v>
       </c>
       <c r="I4">
-        <v>0.05</v>
+        <v>0.65</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>99.50999999999999</v>
+        <v>96.55999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>0.54</v>
+        <v>15.37</v>
       </c>
       <c r="C5">
-        <v>8.949999999999999</v>
+        <v>16.86</v>
       </c>
       <c r="D5">
-        <v>22.98</v>
+        <v>18.86</v>
       </c>
       <c r="E5">
-        <v>29.57</v>
+        <v>19.62</v>
       </c>
       <c r="F5">
-        <v>23.75</v>
+        <v>17.22</v>
       </c>
       <c r="G5">
-        <v>10.59</v>
+        <v>8.450000000000001</v>
       </c>
       <c r="H5">
-        <v>3.19</v>
+        <v>2.96</v>
       </c>
       <c r="I5">
-        <v>0.42</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="J5">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>96.38</v>
+        <v>96.38000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.03</v>
+        <v>9.610000000000001</v>
       </c>
       <c r="C6">
-        <v>2.49</v>
+        <v>13.25</v>
       </c>
       <c r="D6">
-        <v>10.06</v>
+        <v>16.24</v>
       </c>
       <c r="E6">
-        <v>22.43</v>
+        <v>20.13</v>
       </c>
       <c r="F6">
-        <v>28.73</v>
+        <v>19.83</v>
       </c>
       <c r="G6">
-        <v>21.9</v>
+        <v>13.18</v>
       </c>
       <c r="H6">
-        <v>10.74</v>
+        <v>6.09</v>
       </c>
       <c r="I6">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="J6">
-        <v>0.52</v>
+        <v>0.27</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>85.63999999999999</v>
+        <v>92.23999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1489,37 +1516,37 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>1.68</v>
       </c>
       <c r="D7">
-        <v>3.22</v>
+        <v>4.26</v>
       </c>
       <c r="E7">
-        <v>10.73</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="F7">
-        <v>22.05</v>
+        <v>15.83</v>
       </c>
       <c r="G7">
-        <v>29.48</v>
+        <v>26.37</v>
       </c>
       <c r="H7">
-        <v>21.9</v>
+        <v>23.9</v>
       </c>
       <c r="I7">
-        <v>9.99</v>
+        <v>13.13</v>
       </c>
       <c r="J7">
-        <v>2.09</v>
+        <v>5.45</v>
       </c>
       <c r="K7">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="L7">
-        <v>65.98</v>
+        <v>57.39</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1527,37 +1554,37 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="C8">
-        <v>0.06</v>
+        <v>0.5499999999999999</v>
       </c>
       <c r="D8">
-        <v>0.53</v>
+        <v>1.41</v>
       </c>
       <c r="E8">
-        <v>3.18</v>
+        <v>3.88</v>
       </c>
       <c r="F8">
-        <v>10.39</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="G8">
-        <v>23.28</v>
+        <v>23.69</v>
       </c>
       <c r="H8">
-        <v>30.92</v>
+        <v>28.04</v>
       </c>
       <c r="I8">
-        <v>22.23</v>
+        <v>20.31</v>
       </c>
       <c r="J8">
-        <v>8.85</v>
+        <v>11.55</v>
       </c>
       <c r="K8">
-        <v>0.5599999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="L8">
-        <v>37.44</v>
+        <v>39.63</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1565,37 +1592,37 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D9">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="E9">
-        <v>0.42</v>
+        <v>0.51</v>
       </c>
       <c r="F9">
-        <v>2.83</v>
+        <v>2.28</v>
       </c>
       <c r="G9">
-        <v>10.11</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="H9">
-        <v>24.58</v>
+        <v>19.79</v>
       </c>
       <c r="I9">
-        <v>35.16</v>
+        <v>30.52</v>
       </c>
       <c r="J9">
-        <v>23.04</v>
+        <v>32.91</v>
       </c>
       <c r="K9">
-        <v>3.85</v>
+        <v>4.29</v>
       </c>
       <c r="L9">
-        <v>13.37</v>
+        <v>12.49</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1609,31 +1636,31 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="F10">
-        <v>0.24</v>
+        <v>1.03</v>
       </c>
       <c r="G10">
-        <v>1.45</v>
+        <v>5.21</v>
       </c>
       <c r="H10">
-        <v>8.219999999999999</v>
+        <v>15.52</v>
       </c>
       <c r="I10">
-        <v>28.43</v>
+        <v>32.78</v>
       </c>
       <c r="J10">
-        <v>40.96</v>
+        <v>36.08</v>
       </c>
       <c r="K10">
-        <v>20.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L10">
-        <v>1.69</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1659,16 +1686,16 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I11">
-        <v>0.62</v>
+        <v>0.49</v>
       </c>
       <c r="J11">
-        <v>24.53</v>
+        <v>13.59</v>
       </c>
       <c r="K11">
-        <v>74.85000000000001</v>
+        <v>85.91</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1689,16 +1716,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1709,13 +1736,13 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2">
-        <v>0</v>
+      <c r="E2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1729,10 +1756,10 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1743,13 +1770,13 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1757,16 +1784,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1774,16 +1801,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1791,16 +1818,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="E7">
-        <v>0</v>
+      <c r="E7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1811,13 +1838,13 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="E8">
-        <v>0</v>
+      <c r="E8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1825,16 +1852,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1842,16 +1869,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1859,16 +1886,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="E11">
-        <v>0</v>
+      <c r="E11" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1878,21 +1905,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1900,10 +1930,13 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1911,10 +1944,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1922,43 +1958,55 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="B7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1966,40 +2014,52 @@
         <v>-2</v>
       </c>
       <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>-5</v>
+      </c>
+      <c r="C9">
+        <v>-7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>-7</v>
+      </c>
+      <c r="C10">
+        <v>-7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="B11">
         <v>-4</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>-5</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>-7</v>
-      </c>
       <c r="C11">
-        <v>0</v>
+        <v>-8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2009,33 +2069,59 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/0755 Fantasy Football 2024.xlsx
+++ b/0755 Fantasy Football 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="50">
   <si>
     <t>Stone Harbor Parking Authority</t>
   </si>
@@ -52,13 +52,16 @@
     <t xml:space="preserve">Baby Chark, Juju Juju </t>
   </si>
   <si>
-    <t>0-2-0</t>
-  </si>
-  <si>
-    <t>1-1-0</t>
-  </si>
-  <si>
-    <t>2-0-0</t>
+    <t>0-3-0</t>
+  </si>
+  <si>
+    <t>1-2-0</t>
+  </si>
+  <si>
+    <t>2-1-0</t>
+  </si>
+  <si>
+    <t>3-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -118,31 +121,34 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑6</t>
+  </si>
+  <si>
     <t>↓3</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓4</t>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓1</t>
   </si>
   <si>
     <t>Week 1</t>
   </si>
   <si>
     <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
   </si>
   <si>
     <t>Week</t>
@@ -576,13 +582,13 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
@@ -591,7 +597,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -611,7 +617,7 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -637,31 +643,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -669,34 +675,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -707,31 +713,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
       </c>
       <c r="K6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -739,34 +745,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -777,31 +783,31 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -856,7 +862,7 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -871,7 +877,7 @@
         <v>10</v>
       </c>
       <c r="K10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -882,22 +888,22 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
         <v>11</v>
@@ -906,7 +912,7 @@
         <v>11</v>
       </c>
       <c r="K11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -924,13 +930,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -941,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -952,13 +958,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -966,13 +972,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -980,13 +986,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -994,13 +1000,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1008,10 +1014,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -1022,13 +1028,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1036,10 +1042,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -1053,7 +1059,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -1064,10 +1070,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1088,16 +1094,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1105,13 +1111,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="D2">
-        <v>-0.3</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1122,13 +1128,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="D3">
-        <v>0.6000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -1139,16 +1145,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="D4">
-        <v>0.5</v>
+        <v>-1.1</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1156,13 +1162,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="D5">
-        <v>-0.6000000000000001</v>
+        <v>-0.1000000000000001</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1173,16 +1179,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="D6">
-        <v>0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1190,16 +1196,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1207,13 +1213,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="D8">
-        <v>-1.1</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -1227,13 +1233,13 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="D9">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1244,10 +1250,10 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D10">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -1261,10 +1267,10 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -1285,40 +1291,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1326,265 +1332,265 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>34.94</v>
+        <v>38.67</v>
       </c>
       <c r="C2">
-        <v>24.44</v>
+        <v>24.03</v>
       </c>
       <c r="D2">
-        <v>17.9</v>
+        <v>15.73</v>
       </c>
       <c r="E2">
-        <v>12.75</v>
+        <v>9.41</v>
       </c>
       <c r="F2">
-        <v>7.290000000000001</v>
+        <v>5.99</v>
       </c>
       <c r="G2">
-        <v>2.26</v>
+        <v>3.58</v>
       </c>
       <c r="H2">
-        <v>0.39</v>
+        <v>1.77</v>
       </c>
       <c r="I2">
-        <v>0.03</v>
+        <v>0.74</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>99.58000000000001</v>
+        <v>97.41</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>21.82</v>
+        <v>22.23</v>
       </c>
       <c r="C3">
-        <v>25.65</v>
+        <v>20.22</v>
       </c>
       <c r="D3">
-        <v>22.24</v>
+        <v>16.14</v>
       </c>
       <c r="E3">
-        <v>16.59</v>
+        <v>13.87</v>
       </c>
       <c r="F3">
-        <v>9.950000000000001</v>
+        <v>11.33</v>
       </c>
       <c r="G3">
-        <v>3.06</v>
+        <v>7.94</v>
       </c>
       <c r="H3">
-        <v>0.5700000000000001</v>
+        <v>5.31</v>
       </c>
       <c r="I3">
-        <v>0.12</v>
+        <v>2.54</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>99.31</v>
+        <v>91.73</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>17.32</v>
+        <v>10.94</v>
       </c>
       <c r="C4">
-        <v>17.56</v>
+        <v>13.27</v>
       </c>
       <c r="D4">
-        <v>18.92</v>
+        <v>14.16</v>
       </c>
       <c r="E4">
-        <v>17.84</v>
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>16.68</v>
+        <v>13.55</v>
       </c>
       <c r="G4">
-        <v>8.24</v>
+        <v>12.87</v>
       </c>
       <c r="H4">
-        <v>2.73</v>
+        <v>10.71</v>
       </c>
       <c r="I4">
-        <v>0.65</v>
+        <v>7.86</v>
       </c>
       <c r="J4">
-        <v>0.06</v>
+        <v>1.56</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="L4">
-        <v>96.55999999999999</v>
+        <v>79.79000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>15.37</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="C5">
-        <v>16.86</v>
+        <v>12.21</v>
       </c>
       <c r="D5">
-        <v>18.86</v>
+        <v>13.41</v>
       </c>
       <c r="E5">
-        <v>19.62</v>
+        <v>13.85</v>
       </c>
       <c r="F5">
-        <v>17.22</v>
+        <v>14.16</v>
       </c>
       <c r="G5">
-        <v>8.450000000000001</v>
+        <v>13.64</v>
       </c>
       <c r="H5">
-        <v>2.96</v>
+        <v>11.81</v>
       </c>
       <c r="I5">
-        <v>0.5700000000000001</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="J5">
-        <v>0.09</v>
+        <v>2.46</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="L5">
-        <v>96.38000000000001</v>
+        <v>76.16000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>9.610000000000001</v>
+        <v>7.870000000000001</v>
       </c>
       <c r="C6">
-        <v>13.25</v>
+        <v>11.22</v>
       </c>
       <c r="D6">
-        <v>16.24</v>
+        <v>12.81</v>
       </c>
       <c r="E6">
-        <v>20.13</v>
+        <v>14.17</v>
       </c>
       <c r="F6">
-        <v>19.83</v>
+        <v>13.86</v>
       </c>
       <c r="G6">
-        <v>13.18</v>
+        <v>14.05</v>
       </c>
       <c r="H6">
-        <v>6.09</v>
+        <v>12.68</v>
       </c>
       <c r="I6">
-        <v>1.4</v>
+        <v>10.79</v>
       </c>
       <c r="J6">
-        <v>0.27</v>
+        <v>2.36</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="L6">
-        <v>92.23999999999998</v>
+        <v>73.98</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>0.72</v>
+        <v>6.68</v>
       </c>
       <c r="C7">
-        <v>1.68</v>
+        <v>10.08</v>
       </c>
       <c r="D7">
-        <v>4.26</v>
+        <v>12.79</v>
       </c>
       <c r="E7">
-        <v>8.529999999999999</v>
+        <v>13.92</v>
       </c>
       <c r="F7">
-        <v>15.83</v>
+        <v>14.38</v>
       </c>
       <c r="G7">
-        <v>26.37</v>
+        <v>14.09</v>
       </c>
       <c r="H7">
-        <v>23.9</v>
+        <v>13.53</v>
       </c>
       <c r="I7">
-        <v>13.13</v>
+        <v>10.64</v>
       </c>
       <c r="J7">
-        <v>5.45</v>
+        <v>3.47</v>
       </c>
       <c r="K7">
-        <v>0.13</v>
+        <v>0.42</v>
       </c>
       <c r="L7">
-        <v>57.39</v>
+        <v>71.94</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>0.21</v>
+        <v>3.07</v>
       </c>
       <c r="C8">
-        <v>0.5499999999999999</v>
+        <v>5.46</v>
       </c>
       <c r="D8">
-        <v>1.41</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="E8">
-        <v>3.88</v>
+        <v>10.96</v>
       </c>
       <c r="F8">
-        <v>9.890000000000001</v>
+        <v>14.28</v>
       </c>
       <c r="G8">
-        <v>23.69</v>
+        <v>16.67</v>
       </c>
       <c r="H8">
-        <v>28.04</v>
+        <v>18.54</v>
       </c>
       <c r="I8">
-        <v>20.31</v>
+        <v>14.78</v>
       </c>
       <c r="J8">
-        <v>11.55</v>
+        <v>6.68</v>
       </c>
       <c r="K8">
-        <v>0.47</v>
+        <v>1.2</v>
       </c>
       <c r="L8">
-        <v>39.63</v>
+        <v>58.8</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1592,37 +1598,37 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>0.01</v>
+        <v>1.64</v>
       </c>
       <c r="C9">
-        <v>0.01</v>
+        <v>3.44</v>
       </c>
       <c r="D9">
-        <v>0.14</v>
+        <v>6.48</v>
       </c>
       <c r="E9">
-        <v>0.51</v>
+        <v>8.23</v>
       </c>
       <c r="F9">
-        <v>2.28</v>
+        <v>11.39</v>
       </c>
       <c r="G9">
-        <v>9.539999999999999</v>
+        <v>14.46</v>
       </c>
       <c r="H9">
-        <v>19.79</v>
+        <v>18.49</v>
       </c>
       <c r="I9">
-        <v>30.52</v>
+        <v>23.22</v>
       </c>
       <c r="J9">
-        <v>32.91</v>
+        <v>10.93</v>
       </c>
       <c r="K9">
-        <v>4.29</v>
+        <v>1.72</v>
       </c>
       <c r="L9">
-        <v>12.49</v>
+        <v>45.64</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1630,37 +1636,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="D10">
-        <v>0.03</v>
+        <v>0.11</v>
       </c>
       <c r="E10">
-        <v>0.15</v>
+        <v>0.59</v>
       </c>
       <c r="F10">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="G10">
-        <v>5.21</v>
+        <v>2.63</v>
       </c>
       <c r="H10">
-        <v>15.52</v>
+        <v>6.67</v>
       </c>
       <c r="I10">
-        <v>32.78</v>
+        <v>17.31</v>
       </c>
       <c r="J10">
-        <v>36.08</v>
+        <v>45.26</v>
       </c>
       <c r="K10">
-        <v>9.199999999999999</v>
+        <v>26.29</v>
       </c>
       <c r="L10">
-        <v>6.42</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1674,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1683,22 +1689,22 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="H11">
-        <v>0.01</v>
+        <v>0.49</v>
       </c>
       <c r="I11">
-        <v>0.49</v>
+        <v>2.73</v>
       </c>
       <c r="J11">
-        <v>13.59</v>
+        <v>26.78</v>
       </c>
       <c r="K11">
-        <v>85.91</v>
+        <v>69.92</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.07999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1716,16 +1722,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1733,16 +1739,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1750,16 +1756,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1767,10 +1773,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1784,10 +1790,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -1801,13 +1807,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
@@ -1818,16 +1824,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1835,16 +1841,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1852,16 +1858,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1869,16 +1875,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>-7</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1886,7 +1892,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>-8</v>
@@ -1895,7 +1901,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1905,161 +1911,194 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="B3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-5</v>
+      </c>
+      <c r="C6">
+        <v>-7</v>
+      </c>
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C7">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B8">
         <v>-1</v>
       </c>
-      <c r="C5">
+      <c r="C8">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
+      <c r="B9">
         <v>-2</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>-5</v>
       </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>-5</v>
-      </c>
-      <c r="C9">
+      <c r="D9">
+        <v>-4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>-4</v>
+      </c>
+      <c r="C10">
+        <v>-8</v>
+      </c>
+      <c r="D10">
         <v>-7</v>
       </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>-7</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>-7</v>
       </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>-4</v>
-      </c>
-      <c r="C11">
+      <c r="D11">
         <v>-8</v>
       </c>
-      <c r="D11" t="s">
-        <v>38</v>
+      <c r="E11" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2069,7 +2108,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2077,25 +2116,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2103,24 +2142,50 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>7</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/0755 Fantasy Football 2024.xlsx
+++ b/0755 Fantasy Football 2024.xlsx
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="50">
-  <si>
-    <t>Stone Harbor Parking Authority</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="53">
+  <si>
+    <t>Metcalves of Steele</t>
   </si>
   <si>
     <t>I'm Batman</t>
@@ -49,19 +49,22 @@
     <t>Chicken Fried Chicken Meal</t>
   </si>
   <si>
-    <t xml:space="preserve">Baby Chark, Juju Juju </t>
-  </si>
-  <si>
-    <t>0-3-0</t>
-  </si>
-  <si>
-    <t>1-2-0</t>
-  </si>
-  <si>
-    <t>2-1-0</t>
-  </si>
-  <si>
-    <t>3-0-0</t>
+    <t>It's Britney's Bench</t>
+  </si>
+  <si>
+    <t>0-4-0</t>
+  </si>
+  <si>
+    <t>1-3-0</t>
+  </si>
+  <si>
+    <t>2-2-0</t>
+  </si>
+  <si>
+    <t>3-1-0</t>
+  </si>
+  <si>
+    <t>4-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -121,27 +124,30 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
     <t>↑6</t>
   </si>
   <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
     <t>↓3</t>
   </si>
   <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -149,6 +155,9 @@
   </si>
   <si>
     <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
   </si>
   <si>
     <t>Week</t>
@@ -573,13 +582,13 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -588,7 +597,7 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
@@ -608,13 +617,13 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -623,7 +632,7 @@
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
         <v>12</v>
@@ -643,31 +652,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -678,13 +687,13 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -693,16 +702,16 @@
         <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -710,34 +719,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -748,13 +757,13 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -763,16 +772,16 @@
         <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -786,10 +795,10 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -859,7 +868,7 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
@@ -885,34 +894,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -930,13 +939,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -947,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -961,7 +970,7 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -972,13 +981,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -989,7 +998,7 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -1003,10 +1012,10 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1014,10 +1023,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -1028,10 +1037,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -1042,13 +1051,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1056,13 +1065,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1070,13 +1079,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1094,16 +1103,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1114,13 +1123,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="D2">
         <v>0.2000000000000002</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1131,13 +1140,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="D3">
-        <v>1.1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1145,13 +1154,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="D4">
-        <v>-1.1</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -1165,13 +1174,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="D5">
-        <v>-0.1000000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1179,16 +1188,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="D6">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1196,16 +1205,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="D7">
-        <v>-0.2</v>
+        <v>-0.7999999999999998</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1233,10 +1242,10 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="D9">
-        <v>0.2</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -1247,13 +1256,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="D10">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -1264,13 +1273,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="D11">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -1291,40 +1300,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1332,37 +1341,37 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>38.67</v>
+        <v>40.86</v>
       </c>
       <c r="C2">
-        <v>24.03</v>
+        <v>27.63</v>
       </c>
       <c r="D2">
-        <v>15.73</v>
+        <v>16.05</v>
       </c>
       <c r="E2">
-        <v>9.41</v>
+        <v>8.94</v>
       </c>
       <c r="F2">
-        <v>5.99</v>
+        <v>4.05</v>
       </c>
       <c r="G2">
-        <v>3.58</v>
+        <v>1.74</v>
       </c>
       <c r="H2">
-        <v>1.77</v>
+        <v>0.65</v>
       </c>
       <c r="I2">
-        <v>0.74</v>
+        <v>0.06</v>
       </c>
       <c r="J2">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>97.41</v>
+        <v>99.26999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1370,113 +1379,113 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>22.23</v>
+        <v>23.39</v>
       </c>
       <c r="C3">
-        <v>20.22</v>
+        <v>21.56</v>
       </c>
       <c r="D3">
-        <v>16.14</v>
+        <v>19.11</v>
       </c>
       <c r="E3">
-        <v>13.87</v>
+        <v>15.17</v>
       </c>
       <c r="F3">
-        <v>11.33</v>
+        <v>11.09</v>
       </c>
       <c r="G3">
-        <v>7.94</v>
+        <v>5.66</v>
       </c>
       <c r="H3">
-        <v>5.31</v>
+        <v>2.9</v>
       </c>
       <c r="I3">
-        <v>2.54</v>
+        <v>1.01</v>
       </c>
       <c r="J3">
-        <v>0.42</v>
+        <v>0.11</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>91.73</v>
+        <v>95.98</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>10.94</v>
+        <v>15.91</v>
       </c>
       <c r="C4">
-        <v>13.27</v>
+        <v>16.97</v>
       </c>
       <c r="D4">
-        <v>14.16</v>
+        <v>18.86</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>16.7</v>
       </c>
       <c r="F4">
-        <v>13.55</v>
+        <v>13.6</v>
       </c>
       <c r="G4">
-        <v>12.87</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="H4">
-        <v>10.71</v>
+        <v>5.53</v>
       </c>
       <c r="I4">
-        <v>7.86</v>
+        <v>2.17</v>
       </c>
       <c r="J4">
-        <v>1.56</v>
+        <v>0.5</v>
       </c>
       <c r="K4">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="L4">
-        <v>79.79000000000001</v>
+        <v>91.67999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>8.890000000000001</v>
+        <v>10.94</v>
       </c>
       <c r="C5">
-        <v>12.21</v>
+        <v>15.28</v>
       </c>
       <c r="D5">
-        <v>13.41</v>
+        <v>16.27</v>
       </c>
       <c r="E5">
-        <v>13.85</v>
+        <v>16.24</v>
       </c>
       <c r="F5">
-        <v>14.16</v>
+        <v>15.24</v>
       </c>
       <c r="G5">
-        <v>13.64</v>
+        <v>12.17</v>
       </c>
       <c r="H5">
-        <v>11.81</v>
+        <v>8.25</v>
       </c>
       <c r="I5">
-        <v>9.390000000000001</v>
+        <v>4.25</v>
       </c>
       <c r="J5">
-        <v>2.46</v>
+        <v>1.11</v>
       </c>
       <c r="K5">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="L5">
-        <v>76.16000000000001</v>
+        <v>86.13999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1484,37 +1493,37 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>7.870000000000001</v>
+        <v>5.34</v>
       </c>
       <c r="C6">
-        <v>11.22</v>
+        <v>9.4</v>
       </c>
       <c r="D6">
-        <v>12.81</v>
+        <v>12.84</v>
       </c>
       <c r="E6">
-        <v>14.17</v>
+        <v>15.96</v>
       </c>
       <c r="F6">
-        <v>13.86</v>
+        <v>16.51</v>
       </c>
       <c r="G6">
-        <v>14.05</v>
+        <v>15.84</v>
       </c>
       <c r="H6">
-        <v>12.68</v>
+        <v>12.55</v>
       </c>
       <c r="I6">
-        <v>10.79</v>
+        <v>7.71</v>
       </c>
       <c r="J6">
-        <v>2.36</v>
+        <v>2.94</v>
       </c>
       <c r="K6">
-        <v>0.19</v>
+        <v>0.91</v>
       </c>
       <c r="L6">
-        <v>73.98</v>
+        <v>75.89</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1522,37 +1531,37 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>6.68</v>
+        <v>2.74</v>
       </c>
       <c r="C7">
-        <v>10.08</v>
+        <v>6.18</v>
       </c>
       <c r="D7">
-        <v>12.79</v>
+        <v>9.76</v>
       </c>
       <c r="E7">
-        <v>13.92</v>
+        <v>12.84</v>
       </c>
       <c r="F7">
-        <v>14.38</v>
+        <v>15.3</v>
       </c>
       <c r="G7">
-        <v>14.09</v>
+        <v>17.88</v>
       </c>
       <c r="H7">
-        <v>13.53</v>
+        <v>15.35</v>
       </c>
       <c r="I7">
-        <v>10.64</v>
+        <v>12.08</v>
       </c>
       <c r="J7">
-        <v>3.47</v>
+        <v>5.55</v>
       </c>
       <c r="K7">
-        <v>0.42</v>
+        <v>2.32</v>
       </c>
       <c r="L7">
-        <v>71.94</v>
+        <v>64.69999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1560,37 +1569,37 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>3.07</v>
+        <v>0.51</v>
       </c>
       <c r="C8">
-        <v>5.46</v>
+        <v>1.76</v>
       </c>
       <c r="D8">
-        <v>8.359999999999999</v>
+        <v>4.35</v>
       </c>
       <c r="E8">
-        <v>10.96</v>
+        <v>7.920000000000001</v>
       </c>
       <c r="F8">
-        <v>14.28</v>
+        <v>13.37</v>
       </c>
       <c r="G8">
-        <v>16.67</v>
+        <v>17.2</v>
       </c>
       <c r="H8">
-        <v>18.54</v>
+        <v>20.68</v>
       </c>
       <c r="I8">
-        <v>14.78</v>
+        <v>16.85</v>
       </c>
       <c r="J8">
-        <v>6.68</v>
+        <v>10.94</v>
       </c>
       <c r="K8">
-        <v>1.2</v>
+        <v>6.419999999999999</v>
       </c>
       <c r="L8">
-        <v>58.8</v>
+        <v>45.11</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1598,37 +1607,37 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>1.64</v>
+        <v>0.31</v>
       </c>
       <c r="C9">
-        <v>3.44</v>
+        <v>1.2</v>
       </c>
       <c r="D9">
-        <v>6.48</v>
+        <v>2.69</v>
       </c>
       <c r="E9">
-        <v>8.23</v>
+        <v>5.73</v>
       </c>
       <c r="F9">
-        <v>11.39</v>
+        <v>8.98</v>
       </c>
       <c r="G9">
-        <v>14.46</v>
+        <v>14.13</v>
       </c>
       <c r="H9">
-        <v>18.49</v>
+        <v>19.28</v>
       </c>
       <c r="I9">
-        <v>23.22</v>
+        <v>23.12</v>
       </c>
       <c r="J9">
-        <v>10.93</v>
+        <v>15.05</v>
       </c>
       <c r="K9">
-        <v>1.72</v>
+        <v>9.51</v>
       </c>
       <c r="L9">
-        <v>45.64</v>
+        <v>33.04</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1636,37 +1645,37 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.02</v>
+      </c>
+      <c r="D10">
         <v>0.01</v>
       </c>
-      <c r="C10">
-        <v>0.06999999999999999</v>
-      </c>
-      <c r="D10">
-        <v>0.11</v>
-      </c>
       <c r="E10">
-        <v>0.59</v>
+        <v>0.26</v>
       </c>
       <c r="F10">
-        <v>1.06</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="G10">
-        <v>2.63</v>
+        <v>2.99</v>
       </c>
       <c r="H10">
-        <v>6.67</v>
+        <v>7.12</v>
       </c>
       <c r="I10">
-        <v>17.31</v>
+        <v>14.62</v>
       </c>
       <c r="J10">
-        <v>45.26</v>
+        <v>26.14</v>
       </c>
       <c r="K10">
-        <v>26.29</v>
+        <v>47.99</v>
       </c>
       <c r="L10">
-        <v>4.47</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1680,31 +1689,31 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="G11">
-        <v>0.06999999999999999</v>
+        <v>2.75</v>
       </c>
       <c r="H11">
-        <v>0.49</v>
+        <v>7.69</v>
       </c>
       <c r="I11">
-        <v>2.73</v>
+        <v>18.13</v>
       </c>
       <c r="J11">
-        <v>26.78</v>
+        <v>37.64</v>
       </c>
       <c r="K11">
-        <v>69.92</v>
+        <v>32.48</v>
       </c>
       <c r="L11">
-        <v>0.07999999999999999</v>
+        <v>4.06</v>
       </c>
     </row>
   </sheetData>
@@ -1722,16 +1731,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1739,16 +1748,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1756,16 +1765,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1773,16 +1782,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1790,16 +1799,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1807,16 +1816,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1824,16 +1833,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>-1</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1841,16 +1850,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1858,16 +1867,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1875,16 +1884,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1892,16 +1901,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>-8</v>
+        <v>-13</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1911,66 +1920,75 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>4</v>
       </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="B4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -1978,67 +1996,79 @@
       <c r="D4">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>-5</v>
+      </c>
+      <c r="C5">
+        <v>-7</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>0</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>-2</v>
+      </c>
+      <c r="C7">
         <v>-5</v>
       </c>
-      <c r="C6">
-        <v>-7</v>
-      </c>
-      <c r="D6">
+      <c r="D7">
+        <v>-4</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7">
+      <c r="B8">
         <v>2</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>-1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>-1</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -2046,59 +2076,71 @@
       <c r="D8">
         <v>-1</v>
       </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8">
+        <v>-5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="C9">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="D9">
+        <v>-1</v>
+      </c>
+      <c r="E9">
+        <v>-7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>-7</v>
+      </c>
+      <c r="C10">
+        <v>-7</v>
+      </c>
+      <c r="D10">
+        <v>-8</v>
+      </c>
+      <c r="E10">
+        <v>-11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
         <v>-4</v>
       </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>-4</v>
-      </c>
-      <c r="C10">
+      <c r="C11">
         <v>-8</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>-7</v>
       </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>-7</v>
-      </c>
-      <c r="C11">
-        <v>-7</v>
-      </c>
-      <c r="D11">
-        <v>-8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
+      <c r="E11">
+        <v>-13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2116,25 +2158,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/0755 Fantasy Football 2024.xlsx
+++ b/0755 Fantasy Football 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="53">
   <si>
     <t>Metcalves of Steele</t>
   </si>
@@ -52,19 +52,22 @@
     <t>It's Britney's Bench</t>
   </si>
   <si>
-    <t>0-4-0</t>
-  </si>
-  <si>
-    <t>1-3-0</t>
-  </si>
-  <si>
-    <t>2-2-0</t>
-  </si>
-  <si>
-    <t>3-1-0</t>
-  </si>
-  <si>
-    <t>4-0-0</t>
+    <t>0-5-0</t>
+  </si>
+  <si>
+    <t>2-3-0</t>
+  </si>
+  <si>
+    <t>1-4-0</t>
+  </si>
+  <si>
+    <t>4-1-0</t>
+  </si>
+  <si>
+    <t>5-0-0</t>
+  </si>
+  <si>
+    <t>3-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -124,28 +127,22 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
     <t>↑8</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↓3</t>
+    <t>↑1</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -158,6 +155,9 @@
   </si>
   <si>
     <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
   </si>
   <si>
     <t>Week</t>
@@ -582,31 +582,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
       <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
         <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -620,28 +620,28 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
         <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -655,7 +655,7 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -664,19 +664,19 @@
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
         <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -690,13 +690,13 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -708,10 +708,10 @@
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -719,13 +719,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -734,19 +734,19 @@
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
         <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -754,34 +754,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -789,22 +789,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
         <v>11</v>
@@ -824,13 +824,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -839,13 +839,13 @@
         <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -862,16 +862,16 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -880,13 +880,13 @@
         <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
         <v>10</v>
       </c>
       <c r="K10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -894,34 +894,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -939,13 +939,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -970,7 +970,7 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -981,13 +981,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -995,13 +995,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1012,10 +1012,10 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1023,13 +1023,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1037,13 +1037,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1051,13 +1051,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1065,13 +1065,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1079,10 +1079,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -1103,16 +1103,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1123,10 +1123,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D2">
-        <v>0.2000000000000002</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -1140,13 +1140,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="D3">
-        <v>0.8999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1154,13 +1154,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D4">
-        <v>-0.2999999999999998</v>
+        <v>-0.7000000000000002</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -1171,13 +1171,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="D5">
-        <v>-0.5</v>
+        <v>-1.2</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -1188,16 +1188,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="D6">
-        <v>-0.5</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1205,16 +1205,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="D7">
-        <v>-0.7999999999999998</v>
+        <v>-0.5</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1222,16 +1222,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="D8">
-        <v>-0.6000000000000001</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1239,16 +1239,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="D9">
-        <v>0.3999999999999999</v>
+        <v>-0.7000000000000002</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="D10">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -1276,10 +1276,10 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D11">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -1300,40 +1300,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1341,37 +1341,37 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>40.86</v>
+        <v>33.47</v>
       </c>
       <c r="C2">
-        <v>27.63</v>
+        <v>27.22</v>
       </c>
       <c r="D2">
-        <v>16.05</v>
+        <v>16.62</v>
       </c>
       <c r="E2">
-        <v>8.94</v>
+        <v>10.78</v>
       </c>
       <c r="F2">
-        <v>4.05</v>
+        <v>5.65</v>
       </c>
       <c r="G2">
-        <v>1.74</v>
+        <v>3.53</v>
       </c>
       <c r="H2">
-        <v>0.65</v>
+        <v>1.72</v>
       </c>
       <c r="I2">
-        <v>0.06</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="J2">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>99.26999999999998</v>
+        <v>97.27000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1379,265 +1379,265 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>23.39</v>
+        <v>31.51</v>
       </c>
       <c r="C3">
-        <v>21.56</v>
+        <v>22.7</v>
       </c>
       <c r="D3">
-        <v>19.11</v>
+        <v>16.07</v>
       </c>
       <c r="E3">
-        <v>15.17</v>
+        <v>11.78</v>
       </c>
       <c r="F3">
-        <v>11.09</v>
+        <v>7.73</v>
       </c>
       <c r="G3">
-        <v>5.66</v>
+        <v>5.149999999999999</v>
       </c>
       <c r="H3">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="I3">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="J3">
-        <v>0.11</v>
+        <v>0.36</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="L3">
-        <v>95.98</v>
+        <v>94.94000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>15.91</v>
+        <v>13.38</v>
       </c>
       <c r="C4">
-        <v>16.97</v>
+        <v>13.64</v>
       </c>
       <c r="D4">
-        <v>18.86</v>
+        <v>14.83</v>
       </c>
       <c r="E4">
-        <v>16.7</v>
+        <v>14.22</v>
       </c>
       <c r="F4">
-        <v>13.6</v>
+        <v>13.47</v>
       </c>
       <c r="G4">
-        <v>9.640000000000001</v>
+        <v>11.59</v>
       </c>
       <c r="H4">
-        <v>5.53</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="I4">
-        <v>2.17</v>
+        <v>6.63</v>
       </c>
       <c r="J4">
-        <v>0.5</v>
+        <v>2.48</v>
       </c>
       <c r="K4">
-        <v>0.12</v>
+        <v>0.65</v>
       </c>
       <c r="L4">
-        <v>91.67999999999999</v>
+        <v>81.13</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>10.94</v>
+        <v>6.99</v>
       </c>
       <c r="C5">
-        <v>15.28</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>16.27</v>
+        <v>11.76</v>
       </c>
       <c r="E5">
-        <v>16.24</v>
+        <v>12.38</v>
       </c>
       <c r="F5">
-        <v>15.24</v>
+        <v>14.03</v>
       </c>
       <c r="G5">
-        <v>12.17</v>
+        <v>13.09</v>
       </c>
       <c r="H5">
-        <v>8.25</v>
+        <v>13.56</v>
       </c>
       <c r="I5">
-        <v>4.25</v>
+        <v>10.77</v>
       </c>
       <c r="J5">
-        <v>1.11</v>
+        <v>5.52</v>
       </c>
       <c r="K5">
-        <v>0.25</v>
+        <v>1.9</v>
       </c>
       <c r="L5">
-        <v>86.13999999999999</v>
+        <v>68.25</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>5.34</v>
+        <v>4.49</v>
       </c>
       <c r="C6">
-        <v>9.4</v>
+        <v>7.02</v>
       </c>
       <c r="D6">
-        <v>12.84</v>
+        <v>10.89</v>
       </c>
       <c r="E6">
-        <v>15.96</v>
+        <v>11.66</v>
       </c>
       <c r="F6">
-        <v>16.51</v>
+        <v>13.36</v>
       </c>
       <c r="G6">
-        <v>15.84</v>
+        <v>13.95</v>
       </c>
       <c r="H6">
-        <v>12.55</v>
+        <v>14.5</v>
       </c>
       <c r="I6">
-        <v>7.71</v>
+        <v>13.15</v>
       </c>
       <c r="J6">
-        <v>2.94</v>
+        <v>7.19</v>
       </c>
       <c r="K6">
-        <v>0.91</v>
+        <v>3.79</v>
       </c>
       <c r="L6">
-        <v>75.89</v>
+        <v>61.37</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>2.74</v>
+        <v>3.75</v>
       </c>
       <c r="C7">
-        <v>6.18</v>
+        <v>7.24</v>
       </c>
       <c r="D7">
-        <v>9.76</v>
+        <v>10.54</v>
       </c>
       <c r="E7">
-        <v>12.84</v>
+        <v>12.87</v>
       </c>
       <c r="F7">
-        <v>15.3</v>
+        <v>13.12</v>
       </c>
       <c r="G7">
-        <v>17.88</v>
+        <v>14.27</v>
       </c>
       <c r="H7">
-        <v>15.35</v>
+        <v>14.02</v>
       </c>
       <c r="I7">
-        <v>12.08</v>
+        <v>12.7</v>
       </c>
       <c r="J7">
-        <v>5.55</v>
+        <v>7.9</v>
       </c>
       <c r="K7">
-        <v>2.32</v>
+        <v>3.59</v>
       </c>
       <c r="L7">
-        <v>64.69999999999999</v>
+        <v>61.79000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>0.51</v>
+        <v>3.48</v>
       </c>
       <c r="C8">
-        <v>1.76</v>
+        <v>6.069999999999999</v>
       </c>
       <c r="D8">
-        <v>4.35</v>
+        <v>9.56</v>
       </c>
       <c r="E8">
-        <v>7.920000000000001</v>
+        <v>12.02</v>
       </c>
       <c r="F8">
-        <v>13.37</v>
+        <v>13.71</v>
       </c>
       <c r="G8">
-        <v>17.2</v>
+        <v>14.99</v>
       </c>
       <c r="H8">
-        <v>20.68</v>
+        <v>15.1</v>
       </c>
       <c r="I8">
-        <v>16.85</v>
+        <v>12.29</v>
       </c>
       <c r="J8">
-        <v>10.94</v>
+        <v>8.16</v>
       </c>
       <c r="K8">
-        <v>6.419999999999999</v>
+        <v>4.62</v>
       </c>
       <c r="L8">
-        <v>45.11</v>
+        <v>59.83000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>0.31</v>
+        <v>2.87</v>
       </c>
       <c r="C9">
-        <v>1.2</v>
+        <v>5.970000000000001</v>
       </c>
       <c r="D9">
-        <v>2.69</v>
+        <v>9.1</v>
       </c>
       <c r="E9">
-        <v>5.73</v>
+        <v>12.42</v>
       </c>
       <c r="F9">
-        <v>8.98</v>
+        <v>14.6</v>
       </c>
       <c r="G9">
-        <v>14.13</v>
+        <v>15.67</v>
       </c>
       <c r="H9">
-        <v>19.28</v>
+        <v>13.87</v>
       </c>
       <c r="I9">
-        <v>23.12</v>
+        <v>11.65</v>
       </c>
       <c r="J9">
-        <v>15.05</v>
+        <v>8.799999999999999</v>
       </c>
       <c r="K9">
-        <v>9.51</v>
+        <v>5.050000000000001</v>
       </c>
       <c r="L9">
-        <v>33.04</v>
+        <v>60.63</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1645,37 +1645,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="C10">
-        <v>0.02</v>
+        <v>0.13</v>
       </c>
       <c r="D10">
-        <v>0.01</v>
+        <v>0.45</v>
       </c>
       <c r="E10">
-        <v>0.26</v>
+        <v>1.24</v>
       </c>
       <c r="F10">
-        <v>0.8500000000000001</v>
+        <v>2.82</v>
       </c>
       <c r="G10">
-        <v>2.99</v>
+        <v>4.68</v>
       </c>
       <c r="H10">
-        <v>7.12</v>
+        <v>8.51</v>
       </c>
       <c r="I10">
-        <v>14.62</v>
+        <v>14.98</v>
       </c>
       <c r="J10">
-        <v>26.14</v>
+        <v>25.4</v>
       </c>
       <c r="K10">
-        <v>47.99</v>
+        <v>41.76000000000001</v>
       </c>
       <c r="L10">
-        <v>4.13</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1683,37 +1683,37 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D11">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="E11">
-        <v>0.24</v>
+        <v>0.63</v>
       </c>
       <c r="F11">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="G11">
-        <v>2.75</v>
+        <v>3.08</v>
       </c>
       <c r="H11">
-        <v>7.69</v>
+        <v>6.67</v>
       </c>
       <c r="I11">
-        <v>18.13</v>
+        <v>15.24</v>
       </c>
       <c r="J11">
-        <v>37.64</v>
+        <v>34.1</v>
       </c>
       <c r="K11">
-        <v>32.48</v>
+        <v>38.55</v>
       </c>
       <c r="L11">
-        <v>4.06</v>
+        <v>5.44</v>
       </c>
     </row>
   </sheetData>
@@ -1731,16 +1731,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1748,16 +1748,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1765,16 +1765,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1785,10 +1785,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>36</v>
@@ -1802,10 +1802,10 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>37</v>
@@ -1819,13 +1819,13 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1836,13 +1836,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1850,16 +1850,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>-5</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1867,16 +1867,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1884,16 +1884,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1901,16 +1901,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1920,70 +1920,79 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>7</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>4</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1999,11 +2008,14 @@
       <c r="E4">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2019,11 +2031,14 @@
       <c r="E5">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2039,11 +2054,14 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6">
+        <v>-1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -2059,36 +2077,42 @@
       <c r="E7">
         <v>-1</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7">
+        <v>-5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>-4</v>
+      </c>
+      <c r="C8">
+        <v>-8</v>
+      </c>
+      <c r="D8">
+        <v>-7</v>
+      </c>
+      <c r="E8">
+        <v>-13</v>
+      </c>
+      <c r="F8">
+        <v>-5</v>
+      </c>
+      <c r="G8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>2</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>-1</v>
-      </c>
-      <c r="E8">
-        <v>-5</v>
-      </c>
-      <c r="F8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>-1</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -2097,50 +2121,59 @@
         <v>-1</v>
       </c>
       <c r="E9">
+        <v>-5</v>
+      </c>
+      <c r="F9">
+        <v>-6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>-1</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>-1</v>
+      </c>
+      <c r="E10">
         <v>-7</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10">
+        <v>-6</v>
+      </c>
+      <c r="G10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>-7</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>-7</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>-8</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>-11</v>
       </c>
-      <c r="F10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>-4</v>
-      </c>
-      <c r="C11">
-        <v>-8</v>
-      </c>
-      <c r="D11">
-        <v>-7</v>
-      </c>
-      <c r="E11">
-        <v>-13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>40</v>
+      <c r="F11">
+        <v>-14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2150,7 +2183,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2184,25 +2217,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2210,25 +2243,129 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>7</v>
       </c>
       <c r="F3">
+        <v>-6</v>
+      </c>
+      <c r="G3">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="G5">
         <v>7</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H5" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>-5</v>
+      </c>
+      <c r="F7">
+        <v>-6</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/0755 Fantasy Football 2024.xlsx
+++ b/0755 Fantasy Football 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="56">
   <si>
     <t>Metcalves of Steele</t>
   </si>
@@ -52,22 +52,25 @@
     <t>It's Britney's Bench</t>
   </si>
   <si>
-    <t>0-5-0</t>
-  </si>
-  <si>
-    <t>2-3-0</t>
-  </si>
-  <si>
-    <t>1-4-0</t>
-  </si>
-  <si>
-    <t>4-1-0</t>
-  </si>
-  <si>
-    <t>5-0-0</t>
-  </si>
-  <si>
-    <t>3-2-0</t>
+    <t>0-6-0</t>
+  </si>
+  <si>
+    <t>3-3-0</t>
+  </si>
+  <si>
+    <t>2-4-0</t>
+  </si>
+  <si>
+    <t>1-5-0</t>
+  </si>
+  <si>
+    <t>5-1-0</t>
+  </si>
+  <si>
+    <t>6-0-0</t>
+  </si>
+  <si>
+    <t>4-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -127,22 +130,25 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
     <t>↑6</t>
   </si>
   <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↑1</t>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↓11</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -158,6 +164,9 @@
   </si>
   <si>
     <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
   </si>
   <si>
     <t>Week</t>
@@ -582,31 +591,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -617,31 +626,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -655,28 +664,28 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -687,31 +696,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -722,31 +731,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -757,25 +766,25 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -792,31 +801,31 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -827,31 +836,31 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -859,7 +868,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -874,19 +883,19 @@
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
         <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -897,31 +906,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I11" t="s">
         <v>11</v>
       </c>
       <c r="J11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -939,13 +948,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -956,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -967,13 +976,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -981,13 +990,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -995,13 +1004,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1009,13 +1018,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1023,13 +1032,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1037,13 +1046,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1051,13 +1060,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1065,13 +1074,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1079,13 +1088,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1103,16 +1112,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1123,13 +1132,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="D2">
-        <v>-0.2999999999999998</v>
+        <v>-0.5</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1140,13 +1149,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D3">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1157,13 +1166,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D4">
-        <v>-0.7000000000000002</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1174,13 +1183,13 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="D5">
-        <v>-1.2</v>
+        <v>-1.5</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1188,16 +1197,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="D6">
-        <v>-0.2000000000000002</v>
+        <v>-0.5</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1205,16 +1214,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1225,13 +1234,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="D8">
-        <v>0.3999999999999999</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1242,13 +1251,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="D9">
-        <v>-0.7000000000000002</v>
+        <v>-1.5</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1256,16 +1265,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="D10">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1273,13 +1282,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D11">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -1300,40 +1309,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1341,37 +1350,37 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>33.47</v>
+        <v>39.41</v>
       </c>
       <c r="C2">
-        <v>27.22</v>
+        <v>25.18</v>
       </c>
       <c r="D2">
-        <v>16.62</v>
+        <v>16.04</v>
       </c>
       <c r="E2">
-        <v>10.78</v>
+        <v>8.07</v>
       </c>
       <c r="F2">
-        <v>5.65</v>
+        <v>5.93</v>
       </c>
       <c r="G2">
-        <v>3.53</v>
+        <v>2.68</v>
       </c>
       <c r="H2">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="I2">
-        <v>0.9199999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="J2">
-        <v>0.09</v>
+        <v>0.27</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L2">
-        <v>97.27000000000001</v>
+        <v>97.31</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1379,37 +1388,37 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>31.51</v>
+        <v>21.89</v>
       </c>
       <c r="C3">
-        <v>22.7</v>
+        <v>19.34</v>
       </c>
       <c r="D3">
-        <v>16.07</v>
+        <v>15.89</v>
       </c>
       <c r="E3">
-        <v>11.78</v>
+        <v>13.66</v>
       </c>
       <c r="F3">
-        <v>7.73</v>
+        <v>10.65</v>
       </c>
       <c r="G3">
-        <v>5.149999999999999</v>
+        <v>7.33</v>
       </c>
       <c r="H3">
-        <v>2.94</v>
+        <v>6.15</v>
       </c>
       <c r="I3">
-        <v>1.67</v>
+        <v>3.15</v>
       </c>
       <c r="J3">
-        <v>0.36</v>
+        <v>1.72</v>
       </c>
       <c r="K3">
-        <v>0.09</v>
+        <v>0.22</v>
       </c>
       <c r="L3">
-        <v>94.94000000000001</v>
+        <v>88.76000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1417,75 +1426,75 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>13.38</v>
+        <v>11.26</v>
       </c>
       <c r="C4">
-        <v>13.64</v>
+        <v>13.67</v>
       </c>
       <c r="D4">
-        <v>14.83</v>
+        <v>14.29</v>
       </c>
       <c r="E4">
-        <v>14.22</v>
+        <v>14.12</v>
       </c>
       <c r="F4">
-        <v>13.47</v>
+        <v>11.32</v>
       </c>
       <c r="G4">
-        <v>11.59</v>
+        <v>12.13</v>
       </c>
       <c r="H4">
-        <v>9.109999999999999</v>
+        <v>9.15</v>
       </c>
       <c r="I4">
-        <v>6.63</v>
+        <v>7.44</v>
       </c>
       <c r="J4">
-        <v>2.48</v>
+        <v>5.35</v>
       </c>
       <c r="K4">
-        <v>0.65</v>
+        <v>1.27</v>
       </c>
       <c r="L4">
-        <v>81.13</v>
+        <v>76.78999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>6.99</v>
+        <v>9.84</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>12.19</v>
       </c>
       <c r="D5">
-        <v>11.76</v>
+        <v>12.32</v>
       </c>
       <c r="E5">
-        <v>12.38</v>
+        <v>15.14</v>
       </c>
       <c r="F5">
-        <v>14.03</v>
+        <v>12.01</v>
       </c>
       <c r="G5">
-        <v>13.09</v>
+        <v>12.42</v>
       </c>
       <c r="H5">
-        <v>13.56</v>
+        <v>10.52</v>
       </c>
       <c r="I5">
-        <v>10.77</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="J5">
-        <v>5.52</v>
+        <v>5.34</v>
       </c>
       <c r="K5">
-        <v>1.9</v>
+        <v>1.58</v>
       </c>
       <c r="L5">
-        <v>68.25</v>
+        <v>73.92</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1493,75 +1502,75 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>4.49</v>
+        <v>6.09</v>
       </c>
       <c r="C6">
-        <v>7.02</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="D6">
-        <v>10.89</v>
+        <v>10.46</v>
       </c>
       <c r="E6">
-        <v>11.66</v>
+        <v>11.2</v>
       </c>
       <c r="F6">
-        <v>13.36</v>
+        <v>12.19</v>
       </c>
       <c r="G6">
-        <v>13.95</v>
+        <v>13.6</v>
       </c>
       <c r="H6">
-        <v>14.5</v>
+        <v>12.11</v>
       </c>
       <c r="I6">
-        <v>13.15</v>
+        <v>12.5</v>
       </c>
       <c r="J6">
-        <v>7.19</v>
+        <v>9.75</v>
       </c>
       <c r="K6">
-        <v>3.79</v>
+        <v>3.72</v>
       </c>
       <c r="L6">
-        <v>61.37</v>
+        <v>61.92</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>3.75</v>
+        <v>5.04</v>
       </c>
       <c r="C7">
-        <v>7.24</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="D7">
-        <v>10.54</v>
+        <v>10.62</v>
       </c>
       <c r="E7">
-        <v>12.87</v>
+        <v>11.16</v>
       </c>
       <c r="F7">
-        <v>13.12</v>
+        <v>12.75</v>
       </c>
       <c r="G7">
-        <v>14.27</v>
+        <v>13.65</v>
       </c>
       <c r="H7">
-        <v>14.02</v>
+        <v>12.05</v>
       </c>
       <c r="I7">
-        <v>12.7</v>
+        <v>12.17</v>
       </c>
       <c r="J7">
-        <v>7.9</v>
+        <v>9.629999999999999</v>
       </c>
       <c r="K7">
-        <v>3.59</v>
+        <v>4.54</v>
       </c>
       <c r="L7">
-        <v>61.79000000000001</v>
+        <v>61.61</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1569,37 +1578,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.48</v>
+        <v>3.23</v>
       </c>
       <c r="C8">
-        <v>6.069999999999999</v>
+        <v>5.88</v>
       </c>
       <c r="D8">
-        <v>9.56</v>
+        <v>8.649999999999999</v>
       </c>
       <c r="E8">
-        <v>12.02</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F8">
-        <v>13.71</v>
+        <v>12.71</v>
       </c>
       <c r="G8">
-        <v>14.99</v>
+        <v>12.61</v>
       </c>
       <c r="H8">
-        <v>15.1</v>
+        <v>14.04</v>
       </c>
       <c r="I8">
-        <v>12.29</v>
+        <v>14.03</v>
       </c>
       <c r="J8">
-        <v>8.16</v>
+        <v>12.58</v>
       </c>
       <c r="K8">
-        <v>4.62</v>
+        <v>6.47</v>
       </c>
       <c r="L8">
-        <v>59.83000000000001</v>
+        <v>52.88</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1607,37 +1616,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.87</v>
+        <v>2.45</v>
       </c>
       <c r="C9">
-        <v>5.970000000000001</v>
+        <v>5.029999999999999</v>
       </c>
       <c r="D9">
-        <v>9.1</v>
+        <v>7.84</v>
       </c>
       <c r="E9">
-        <v>12.42</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="F9">
-        <v>14.6</v>
+        <v>12.36</v>
       </c>
       <c r="G9">
-        <v>15.67</v>
+        <v>12.3</v>
       </c>
       <c r="H9">
-        <v>13.87</v>
+        <v>14.97</v>
       </c>
       <c r="I9">
-        <v>11.65</v>
+        <v>13.98</v>
       </c>
       <c r="J9">
-        <v>8.799999999999999</v>
+        <v>13.1</v>
       </c>
       <c r="K9">
-        <v>5.050000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="L9">
-        <v>60.63</v>
+        <v>49.84999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1645,37 +1654,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.03</v>
+        <v>0.76</v>
       </c>
       <c r="C10">
-        <v>0.13</v>
+        <v>1.92</v>
       </c>
       <c r="D10">
-        <v>0.45</v>
+        <v>3.79</v>
       </c>
       <c r="E10">
-        <v>1.24</v>
+        <v>6.64</v>
       </c>
       <c r="F10">
-        <v>2.82</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="G10">
-        <v>4.68</v>
+        <v>11.27</v>
       </c>
       <c r="H10">
-        <v>8.51</v>
+        <v>15.51</v>
       </c>
       <c r="I10">
-        <v>14.98</v>
+        <v>17.44</v>
       </c>
       <c r="J10">
-        <v>25.4</v>
+        <v>18.52</v>
       </c>
       <c r="K10">
-        <v>41.76000000000001</v>
+        <v>14.69</v>
       </c>
       <c r="L10">
-        <v>9.35</v>
+        <v>33.84</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1686,34 +1695,34 @@
         <v>0.03</v>
       </c>
       <c r="C11">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D11">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="E11">
-        <v>0.63</v>
+        <v>0.34</v>
       </c>
       <c r="F11">
-        <v>1.51</v>
+        <v>0.62</v>
       </c>
       <c r="G11">
-        <v>3.08</v>
+        <v>2.01</v>
       </c>
       <c r="H11">
-        <v>6.67</v>
+        <v>3.85</v>
       </c>
       <c r="I11">
-        <v>15.24</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="J11">
-        <v>34.1</v>
+        <v>23.74</v>
       </c>
       <c r="K11">
-        <v>38.55</v>
+        <v>59.4</v>
       </c>
       <c r="L11">
-        <v>5.44</v>
+        <v>3.12</v>
       </c>
     </row>
   </sheetData>
@@ -1731,16 +1740,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1754,10 +1763,10 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1768,13 +1777,13 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1785,13 +1794,13 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1802,13 +1811,13 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1819,13 +1828,13 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1833,16 +1842,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1856,10 +1865,10 @@
         <v>-5</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1867,16 +1876,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1887,13 +1896,13 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>-6</v>
+        <v>-14</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1901,16 +1910,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>-14</v>
+        <v>-16</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1920,33 +1929,36 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>48</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1965,11 +1977,14 @@
       <c r="F2">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1988,11 +2003,14 @@
       <c r="F3">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2011,11 +2029,14 @@
       <c r="F4">
         <v>7</v>
       </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2034,11 +2055,14 @@
       <c r="F5">
         <v>4</v>
       </c>
-      <c r="G5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2057,34 +2081,40 @@
       <c r="F6">
         <v>-1</v>
       </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
         <v>-5</v>
       </c>
-      <c r="D7">
+      <c r="F7">
+        <v>-6</v>
+      </c>
+      <c r="G7">
         <v>-4</v>
       </c>
-      <c r="E7">
-        <v>-1</v>
-      </c>
-      <c r="F7">
-        <v>-5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2103,34 +2133,40 @@
       <c r="F8">
         <v>-5</v>
       </c>
-      <c r="G8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8">
+        <v>-5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>-7</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="D9">
-        <v>-1</v>
+        <v>-8</v>
       </c>
       <c r="E9">
-        <v>-5</v>
+        <v>-11</v>
       </c>
       <c r="F9">
-        <v>-6</v>
-      </c>
-      <c r="G9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-14</v>
+      </c>
+      <c r="G9">
+        <v>-8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2149,31 +2185,37 @@
       <c r="F10">
         <v>-6</v>
       </c>
-      <c r="G10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10">
+        <v>-14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="C11">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="D11">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="E11">
-        <v>-11</v>
+        <v>-1</v>
       </c>
       <c r="F11">
-        <v>-14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
+        <v>-5</v>
+      </c>
+      <c r="G11">
+        <v>-16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2183,7 +2225,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2191,25 +2233,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2243,25 +2285,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>-4</v>
       </c>
       <c r="F3">
-        <v>-6</v>
+        <v>16</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2269,25 +2311,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>-6</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2295,25 +2337,25 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
       <c r="F5">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2321,25 +2363,25 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
       <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
         <v>5</v>
-      </c>
-      <c r="E6">
-        <v>-1</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2347,24 +2389,102 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D10" t="s">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="E10">
         <v>-5</v>
       </c>
-      <c r="F7">
+      <c r="F10">
         <v>-6</v>
       </c>
-      <c r="G7">
+      <c r="G10">
         <v>1</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H10" t="s">
         <v>1</v>
       </c>
     </row>

--- a/0755 Fantasy Football 2024.xlsx
+++ b/0755 Fantasy Football 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="58">
   <si>
     <t>Metcalves of Steele</t>
   </si>
@@ -52,25 +52,25 @@
     <t>It's Britney's Bench</t>
   </si>
   <si>
-    <t>0-6-0</t>
-  </si>
-  <si>
-    <t>3-3-0</t>
-  </si>
-  <si>
-    <t>2-4-0</t>
-  </si>
-  <si>
-    <t>1-5-0</t>
-  </si>
-  <si>
-    <t>5-1-0</t>
-  </si>
-  <si>
-    <t>6-0-0</t>
-  </si>
-  <si>
-    <t>4-2-0</t>
+    <t>0-7-0</t>
+  </si>
+  <si>
+    <t>3-4-0</t>
+  </si>
+  <si>
+    <t>4-3-0</t>
+  </si>
+  <si>
+    <t>1-6-0</t>
+  </si>
+  <si>
+    <t>5-2-0</t>
+  </si>
+  <si>
+    <t>6-1-0</t>
+  </si>
+  <si>
+    <t>2-5-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -130,25 +130,28 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↑2</t>
+    <t>↑3</t>
   </si>
   <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↑3</t>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓7</t>
   </si>
   <si>
     <t>↑6</t>
   </si>
   <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↓11</t>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓6</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -167,6 +170,9 @@
   </si>
   <si>
     <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
   </si>
   <si>
     <t>Week</t>
@@ -597,7 +603,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -606,7 +612,7 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -629,28 +635,28 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -658,34 +664,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -693,34 +699,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -734,7 +740,7 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -743,7 +749,7 @@
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
@@ -752,7 +758,7 @@
         <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
         <v>11</v>
@@ -763,34 +769,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -798,34 +804,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -833,34 +839,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -871,10 +877,10 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -883,19 +889,19 @@
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -906,28 +912,28 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
       <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" t="s">
         <v>16</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" t="s">
-        <v>12</v>
       </c>
       <c r="K11" t="s">
         <v>11</v>
@@ -965,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -979,7 +985,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -993,10 +999,10 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1007,10 +1013,10 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1018,13 +1024,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1032,13 +1038,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1046,10 +1052,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -1063,10 +1069,10 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1074,13 +1080,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1088,10 +1094,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1129,16 +1135,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="D2">
-        <v>-0.5</v>
+        <v>1.9</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1146,16 +1152,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="D3">
-        <v>1.9</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1166,13 +1172,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="D4">
-        <v>-0.2000000000000002</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1180,13 +1186,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="D5">
-        <v>-1.5</v>
+        <v>-0.9000000000000004</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -1197,16 +1203,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D6">
-        <v>-0.5</v>
+        <v>-1.1</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1214,13 +1220,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -1231,16 +1237,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="D8">
-        <v>0.7000000000000002</v>
+        <v>-1.6</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1248,16 +1254,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="D9">
-        <v>-1.5</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1268,13 +1274,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="D10">
-        <v>0.7</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1347,78 +1353,78 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>39.41</v>
+        <v>30.35</v>
       </c>
       <c r="C2">
-        <v>25.18</v>
+        <v>23.95</v>
       </c>
       <c r="D2">
-        <v>16.04</v>
+        <v>17.22</v>
       </c>
       <c r="E2">
-        <v>8.07</v>
+        <v>11.41</v>
       </c>
       <c r="F2">
-        <v>5.93</v>
+        <v>6.619999999999999</v>
       </c>
       <c r="G2">
-        <v>2.68</v>
+        <v>5.43</v>
       </c>
       <c r="H2">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="I2">
-        <v>0.76</v>
+        <v>1.5</v>
       </c>
       <c r="J2">
-        <v>0.27</v>
+        <v>0.65</v>
       </c>
       <c r="K2">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="L2">
-        <v>97.31</v>
+        <v>94.97999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>21.89</v>
+        <v>22.65</v>
       </c>
       <c r="C3">
-        <v>19.34</v>
+        <v>17.45</v>
       </c>
       <c r="D3">
-        <v>15.89</v>
+        <v>17.22</v>
       </c>
       <c r="E3">
-        <v>13.66</v>
+        <v>11.49</v>
       </c>
       <c r="F3">
-        <v>10.65</v>
+        <v>10.69</v>
       </c>
       <c r="G3">
-        <v>7.33</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="H3">
-        <v>6.15</v>
+        <v>4.850000000000001</v>
       </c>
       <c r="I3">
-        <v>3.15</v>
+        <v>3.89</v>
       </c>
       <c r="J3">
-        <v>1.72</v>
+        <v>2.16</v>
       </c>
       <c r="K3">
-        <v>0.22</v>
+        <v>0.38</v>
       </c>
       <c r="L3">
-        <v>88.76000000000001</v>
+        <v>88.72</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1426,37 +1432,37 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>11.26</v>
+        <v>13.71</v>
       </c>
       <c r="C4">
-        <v>13.67</v>
+        <v>13.26</v>
       </c>
       <c r="D4">
-        <v>14.29</v>
+        <v>13.5</v>
       </c>
       <c r="E4">
-        <v>14.12</v>
+        <v>11.14</v>
       </c>
       <c r="F4">
-        <v>11.32</v>
+        <v>14.3</v>
       </c>
       <c r="G4">
-        <v>12.13</v>
+        <v>10.6</v>
       </c>
       <c r="H4">
-        <v>9.15</v>
+        <v>8.51</v>
       </c>
       <c r="I4">
-        <v>7.44</v>
+        <v>8.540000000000001</v>
       </c>
       <c r="J4">
-        <v>5.35</v>
+        <v>5.16</v>
       </c>
       <c r="K4">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="L4">
-        <v>76.78999999999999</v>
+        <v>76.50999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1464,189 +1470,189 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>9.84</v>
+        <v>9.610000000000001</v>
       </c>
       <c r="C5">
-        <v>12.19</v>
+        <v>11.85</v>
       </c>
       <c r="D5">
-        <v>12.32</v>
+        <v>11.94</v>
       </c>
       <c r="E5">
-        <v>15.14</v>
+        <v>11.05</v>
       </c>
       <c r="F5">
-        <v>12.01</v>
+        <v>14.39</v>
       </c>
       <c r="G5">
-        <v>12.42</v>
+        <v>9.93</v>
       </c>
       <c r="H5">
-        <v>10.52</v>
+        <v>11.67</v>
       </c>
       <c r="I5">
-        <v>8.640000000000001</v>
+        <v>10</v>
       </c>
       <c r="J5">
-        <v>5.34</v>
+        <v>7.27</v>
       </c>
       <c r="K5">
-        <v>1.58</v>
+        <v>2.29</v>
       </c>
       <c r="L5">
-        <v>73.92</v>
+        <v>68.77000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>6.09</v>
+        <v>6.370000000000001</v>
       </c>
       <c r="C6">
-        <v>8.380000000000001</v>
+        <v>8.58</v>
       </c>
       <c r="D6">
-        <v>10.46</v>
+        <v>8.870000000000001</v>
       </c>
       <c r="E6">
-        <v>11.2</v>
+        <v>12.34</v>
       </c>
       <c r="F6">
-        <v>12.19</v>
+        <v>11.46</v>
       </c>
       <c r="G6">
-        <v>13.6</v>
+        <v>11.75</v>
       </c>
       <c r="H6">
-        <v>12.11</v>
+        <v>14.79</v>
       </c>
       <c r="I6">
-        <v>12.5</v>
+        <v>11.03</v>
       </c>
       <c r="J6">
-        <v>9.75</v>
+        <v>10.27</v>
       </c>
       <c r="K6">
-        <v>3.72</v>
+        <v>4.54</v>
       </c>
       <c r="L6">
-        <v>61.92</v>
+        <v>59.37</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>5.04</v>
+        <v>6.279999999999999</v>
       </c>
       <c r="C7">
-        <v>8.390000000000001</v>
+        <v>7.93</v>
       </c>
       <c r="D7">
-        <v>10.62</v>
+        <v>8.17</v>
       </c>
       <c r="E7">
-        <v>11.16</v>
+        <v>12.06</v>
       </c>
       <c r="F7">
-        <v>12.75</v>
+        <v>12.49</v>
       </c>
       <c r="G7">
-        <v>13.65</v>
+        <v>10.36</v>
       </c>
       <c r="H7">
-        <v>12.05</v>
+        <v>14.14</v>
       </c>
       <c r="I7">
-        <v>12.17</v>
+        <v>12.81</v>
       </c>
       <c r="J7">
-        <v>9.629999999999999</v>
+        <v>10.63</v>
       </c>
       <c r="K7">
-        <v>4.54</v>
+        <v>5.13</v>
       </c>
       <c r="L7">
-        <v>61.61</v>
+        <v>57.29</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>3.23</v>
+        <v>5.34</v>
       </c>
       <c r="C8">
-        <v>5.88</v>
+        <v>7.69</v>
       </c>
       <c r="D8">
-        <v>8.649999999999999</v>
+        <v>8.82</v>
       </c>
       <c r="E8">
-        <v>9.800000000000001</v>
+        <v>12.7</v>
       </c>
       <c r="F8">
-        <v>12.71</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>12.61</v>
+        <v>13.67</v>
       </c>
       <c r="H8">
-        <v>14.04</v>
+        <v>13.2</v>
       </c>
       <c r="I8">
-        <v>14.03</v>
+        <v>11.85</v>
       </c>
       <c r="J8">
-        <v>12.58</v>
+        <v>10.69</v>
       </c>
       <c r="K8">
-        <v>6.47</v>
+        <v>6.04</v>
       </c>
       <c r="L8">
-        <v>52.88</v>
+        <v>58.22</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>2.45</v>
+        <v>4.66</v>
       </c>
       <c r="C9">
-        <v>5.029999999999999</v>
+        <v>6.92</v>
       </c>
       <c r="D9">
-        <v>7.84</v>
+        <v>9.81</v>
       </c>
       <c r="E9">
-        <v>9.869999999999999</v>
+        <v>11.46</v>
       </c>
       <c r="F9">
-        <v>12.36</v>
+        <v>10.62</v>
       </c>
       <c r="G9">
-        <v>12.3</v>
+        <v>14.87</v>
       </c>
       <c r="H9">
-        <v>14.97</v>
+        <v>12.51</v>
       </c>
       <c r="I9">
-        <v>13.98</v>
+        <v>12.91</v>
       </c>
       <c r="J9">
-        <v>13.1</v>
+        <v>10.4</v>
       </c>
       <c r="K9">
-        <v>8.1</v>
+        <v>5.84</v>
       </c>
       <c r="L9">
-        <v>49.84999999999999</v>
+        <v>58.34</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1654,37 +1660,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.76</v>
+        <v>1.01</v>
       </c>
       <c r="C10">
-        <v>1.92</v>
+        <v>2.36</v>
       </c>
       <c r="D10">
-        <v>3.79</v>
+        <v>4.34</v>
       </c>
       <c r="E10">
-        <v>6.64</v>
+        <v>6.01</v>
       </c>
       <c r="F10">
-        <v>9.460000000000001</v>
+        <v>8.43</v>
       </c>
       <c r="G10">
-        <v>11.27</v>
+        <v>12.43</v>
       </c>
       <c r="H10">
-        <v>15.51</v>
+        <v>13.61</v>
       </c>
       <c r="I10">
-        <v>17.44</v>
+        <v>17.45</v>
       </c>
       <c r="J10">
-        <v>18.52</v>
+        <v>18.03</v>
       </c>
       <c r="K10">
-        <v>14.69</v>
+        <v>16.33</v>
       </c>
       <c r="L10">
-        <v>33.84</v>
+        <v>34.58</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1692,37 +1698,37 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="C11">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D11">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E11">
         <v>0.34</v>
       </c>
       <c r="F11">
-        <v>0.62</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>2.01</v>
+        <v>1.74</v>
       </c>
       <c r="H11">
-        <v>3.85</v>
+        <v>3.97</v>
       </c>
       <c r="I11">
-        <v>9.890000000000001</v>
+        <v>10.02</v>
       </c>
       <c r="J11">
-        <v>23.74</v>
+        <v>24.74</v>
       </c>
       <c r="K11">
-        <v>59.4</v>
+        <v>58.05</v>
       </c>
       <c r="L11">
-        <v>3.12</v>
+        <v>3.22</v>
       </c>
     </row>
   </sheetData>
@@ -1760,10 +1766,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
@@ -1777,7 +1783,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -1791,13 +1797,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>38</v>
@@ -1811,10 +1817,10 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
         <v>39</v>
@@ -1825,16 +1831,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1842,16 +1848,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="C7">
-        <v>-4</v>
-      </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1859,13 +1865,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
@@ -1876,16 +1882,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1893,16 +1899,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1913,13 +1919,13 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>-16</v>
+        <v>-22</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1928,6 +1934,335 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>-1</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>-5</v>
+      </c>
+      <c r="C5">
+        <v>-7</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-4</v>
+      </c>
+      <c r="C7">
+        <v>-8</v>
+      </c>
+      <c r="D7">
+        <v>-7</v>
+      </c>
+      <c r="E7">
+        <v>-13</v>
+      </c>
+      <c r="F7">
+        <v>-5</v>
+      </c>
+      <c r="G7">
+        <v>-5</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8">
+        <v>-5</v>
+      </c>
+      <c r="F8">
+        <v>-6</v>
+      </c>
+      <c r="G8">
+        <v>-4</v>
+      </c>
+      <c r="H8">
+        <v>-1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>-1</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>-1</v>
+      </c>
+      <c r="E9">
+        <v>-7</v>
+      </c>
+      <c r="F9">
+        <v>-6</v>
+      </c>
+      <c r="G9">
+        <v>-14</v>
+      </c>
+      <c r="H9">
+        <v>-10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>-7</v>
+      </c>
+      <c r="C10">
+        <v>-7</v>
+      </c>
+      <c r="D10">
+        <v>-8</v>
+      </c>
+      <c r="E10">
+        <v>-11</v>
+      </c>
+      <c r="F10">
+        <v>-14</v>
+      </c>
+      <c r="G10">
+        <v>-8</v>
+      </c>
+      <c r="H10">
+        <v>-13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>-2</v>
+      </c>
+      <c r="C11">
+        <v>-5</v>
+      </c>
+      <c r="D11">
+        <v>-4</v>
+      </c>
+      <c r="E11">
+        <v>-1</v>
+      </c>
+      <c r="F11">
+        <v>-5</v>
+      </c>
+      <c r="G11">
+        <v>-16</v>
+      </c>
+      <c r="H11">
+        <v>-22</v>
+      </c>
+      <c r="I11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -1937,321 +2272,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>16</v>
-      </c>
-      <c r="G2">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>11</v>
-      </c>
-      <c r="G3">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>8</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
-      </c>
-      <c r="G4">
-        <v>8</v>
-      </c>
-      <c r="H4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>-5</v>
-      </c>
-      <c r="C5">
-        <v>-7</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <v>7</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>-1</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>-1</v>
-      </c>
-      <c r="E7">
-        <v>-5</v>
-      </c>
-      <c r="F7">
-        <v>-6</v>
-      </c>
-      <c r="G7">
-        <v>-4</v>
-      </c>
-      <c r="H7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>-4</v>
-      </c>
-      <c r="C8">
-        <v>-8</v>
-      </c>
-      <c r="D8">
-        <v>-7</v>
-      </c>
-      <c r="E8">
-        <v>-13</v>
-      </c>
-      <c r="F8">
-        <v>-5</v>
-      </c>
-      <c r="G8">
-        <v>-5</v>
-      </c>
-      <c r="H8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>-7</v>
-      </c>
-      <c r="C9">
-        <v>-7</v>
-      </c>
-      <c r="D9">
-        <v>-8</v>
-      </c>
-      <c r="E9">
-        <v>-11</v>
-      </c>
-      <c r="F9">
-        <v>-14</v>
-      </c>
-      <c r="G9">
-        <v>-8</v>
-      </c>
-      <c r="H9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>-1</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>-1</v>
-      </c>
-      <c r="E10">
-        <v>-7</v>
-      </c>
-      <c r="F10">
-        <v>-6</v>
-      </c>
-      <c r="G10">
-        <v>-14</v>
-      </c>
-      <c r="H10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>-2</v>
-      </c>
-      <c r="C11">
-        <v>-5</v>
-      </c>
-      <c r="D11">
-        <v>-4</v>
-      </c>
-      <c r="E11">
-        <v>-1</v>
-      </c>
-      <c r="F11">
-        <v>-5</v>
-      </c>
-      <c r="G11">
-        <v>-16</v>
-      </c>
-      <c r="H11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2311,25 +2350,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>-6</v>
+        <v>-13</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2337,25 +2376,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F5">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2363,25 +2402,25 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
       <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
         <v>2</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
       <c r="F6">
+        <v>-8</v>
+      </c>
+      <c r="G6">
         <v>10</v>
       </c>
-      <c r="G6">
-        <v>9</v>
-      </c>
       <c r="H6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2389,25 +2428,25 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>7</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>7</v>
-      </c>
       <c r="H7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2415,25 +2454,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E8">
+        <v>-10</v>
+      </c>
+      <c r="F8">
         <v>-1</v>
       </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
       <c r="G8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2441,25 +2480,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>7</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2470,22 +2509,48 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>-1</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11">
         <v>1</v>
       </c>
-      <c r="E10">
-        <v>-5</v>
-      </c>
-      <c r="F10">
-        <v>-6</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>1</v>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/0755 Fantasy Football 2024.xlsx
+++ b/0755 Fantasy Football 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="61">
   <si>
     <t>Metcalves of Steele</t>
   </si>
@@ -52,25 +52,28 @@
     <t>It's Britney's Bench</t>
   </si>
   <si>
-    <t>0-7-0</t>
-  </si>
-  <si>
-    <t>3-4-0</t>
-  </si>
-  <si>
-    <t>4-3-0</t>
-  </si>
-  <si>
-    <t>1-6-0</t>
-  </si>
-  <si>
-    <t>5-2-0</t>
-  </si>
-  <si>
-    <t>6-1-0</t>
-  </si>
-  <si>
-    <t>2-5-0</t>
+    <t>0-8-0</t>
+  </si>
+  <si>
+    <t>3-5-0</t>
+  </si>
+  <si>
+    <t>4-4-0</t>
+  </si>
+  <si>
+    <t>2-6-0</t>
+  </si>
+  <si>
+    <t>1-7-0</t>
+  </si>
+  <si>
+    <t>5-3-0</t>
+  </si>
+  <si>
+    <t>6-2-0</t>
+  </si>
+  <si>
+    <t>7-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -130,30 +133,33 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑3</t>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑11</t>
+  </si>
+  <si>
+    <t>↑9</t>
   </si>
   <si>
     <t>↑1</t>
   </si>
   <si>
+    <t>↓6</t>
+  </si>
+  <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↓3</t>
+    <t>↓5</t>
   </si>
   <si>
     <t>↓7</t>
   </si>
   <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -173,6 +179,9 @@
   </si>
   <si>
     <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
   </si>
   <si>
     <t>Week</t>
@@ -597,31 +606,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -632,10 +641,10 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -653,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -667,31 +676,31 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="K4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -702,7 +711,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -711,19 +720,19 @@
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
         <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" t="s">
-        <v>12</v>
       </c>
       <c r="K5" t="s">
         <v>12</v>
@@ -734,31 +743,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K6" t="s">
         <v>11</v>
@@ -769,31 +778,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K7" t="s">
         <v>12</v>
@@ -804,34 +813,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -839,31 +848,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
         <v>16</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
       <c r="J9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K9" t="s">
         <v>11</v>
@@ -877,31 +886,31 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="K10" t="s">
         <v>13</v>
-      </c>
-      <c r="I10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -909,31 +918,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
         <v>11</v>
       </c>
       <c r="I11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" t="s">
         <v>11</v>
-      </c>
-      <c r="J11" t="s">
-        <v>16</v>
       </c>
       <c r="K11" t="s">
         <v>11</v>
@@ -954,13 +963,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -968,13 +977,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -982,13 +991,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -996,13 +1005,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1013,10 +1022,10 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1024,10 +1033,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -1038,13 +1047,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1052,13 +1061,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1066,13 +1075,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1080,13 +1089,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1097,10 +1106,10 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1118,16 +1127,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1135,16 +1144,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="D2">
-        <v>1.9</v>
+        <v>-0.5</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1152,16 +1161,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="D3">
-        <v>-0.2999999999999998</v>
+        <v>1.3</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1169,16 +1178,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="D4">
-        <v>0.4000000000000004</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1186,16 +1195,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="D5">
-        <v>-0.9000000000000004</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1203,16 +1212,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="D6">
-        <v>-1.1</v>
+        <v>0.5</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1220,16 +1229,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>-1.9</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1237,16 +1246,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>-1.6</v>
+        <v>-1</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1257,10 +1266,10 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="D9">
-        <v>0.1000000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -1274,13 +1283,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="D10">
-        <v>0.1000000000000001</v>
+        <v>-0.3999999999999999</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1315,40 +1324,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1356,37 +1365,37 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>30.35</v>
+        <v>26.1</v>
       </c>
       <c r="C2">
-        <v>23.95</v>
+        <v>18.96</v>
       </c>
       <c r="D2">
-        <v>17.22</v>
+        <v>13.74</v>
       </c>
       <c r="E2">
-        <v>11.41</v>
+        <v>14.18</v>
       </c>
       <c r="F2">
-        <v>6.619999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="G2">
-        <v>5.43</v>
+        <v>5.66</v>
       </c>
       <c r="H2">
-        <v>2.75</v>
+        <v>6.2</v>
       </c>
       <c r="I2">
-        <v>1.5</v>
+        <v>4.23</v>
       </c>
       <c r="J2">
-        <v>0.65</v>
+        <v>2.18</v>
       </c>
       <c r="K2">
-        <v>0.12</v>
+        <v>0.35</v>
       </c>
       <c r="L2">
-        <v>94.97999999999999</v>
+        <v>87.04000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1394,75 +1403,75 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>22.65</v>
+        <v>19.3</v>
       </c>
       <c r="C3">
-        <v>17.45</v>
+        <v>20.94</v>
       </c>
       <c r="D3">
-        <v>17.22</v>
+        <v>14.12</v>
       </c>
       <c r="E3">
-        <v>11.49</v>
+        <v>14.95</v>
       </c>
       <c r="F3">
-        <v>10.69</v>
+        <v>11.03</v>
       </c>
       <c r="G3">
-        <v>9.220000000000001</v>
+        <v>5.87</v>
       </c>
       <c r="H3">
-        <v>4.850000000000001</v>
+        <v>7.090000000000001</v>
       </c>
       <c r="I3">
-        <v>3.89</v>
+        <v>4.06</v>
       </c>
       <c r="J3">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="K3">
         <v>0.38</v>
       </c>
       <c r="L3">
-        <v>88.72</v>
+        <v>86.21000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>13.71</v>
+        <v>10.96</v>
       </c>
       <c r="C4">
-        <v>13.26</v>
+        <v>9.74</v>
       </c>
       <c r="D4">
-        <v>13.5</v>
+        <v>12.94</v>
       </c>
       <c r="E4">
+        <v>11.81</v>
+      </c>
+      <c r="F4">
+        <v>7.9</v>
+      </c>
+      <c r="G4">
+        <v>14.74</v>
+      </c>
+      <c r="H4">
         <v>11.14</v>
       </c>
-      <c r="F4">
-        <v>14.3</v>
-      </c>
-      <c r="G4">
-        <v>10.6</v>
-      </c>
-      <c r="H4">
-        <v>8.51</v>
-      </c>
       <c r="I4">
-        <v>8.540000000000001</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="J4">
-        <v>5.16</v>
+        <v>9.08</v>
       </c>
       <c r="K4">
-        <v>1.28</v>
+        <v>2.58</v>
       </c>
       <c r="L4">
-        <v>76.50999999999999</v>
+        <v>68.09</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1470,189 +1479,189 @@
         <v>5</v>
       </c>
       <c r="B5">
+        <v>10.52</v>
+      </c>
+      <c r="C5">
+        <v>9.5</v>
+      </c>
+      <c r="D5">
+        <v>11.46</v>
+      </c>
+      <c r="E5">
+        <v>13.94</v>
+      </c>
+      <c r="F5">
+        <v>7.960000000000001</v>
+      </c>
+      <c r="G5">
+        <v>12.54</v>
+      </c>
+      <c r="H5">
+        <v>13.58</v>
+      </c>
+      <c r="I5">
         <v>9.610000000000001</v>
       </c>
-      <c r="C5">
-        <v>11.85</v>
-      </c>
-      <c r="D5">
-        <v>11.94</v>
-      </c>
-      <c r="E5">
-        <v>11.05</v>
-      </c>
-      <c r="F5">
-        <v>14.39</v>
-      </c>
-      <c r="G5">
-        <v>9.93</v>
-      </c>
-      <c r="H5">
-        <v>11.67</v>
-      </c>
-      <c r="I5">
-        <v>10</v>
-      </c>
       <c r="J5">
-        <v>7.27</v>
+        <v>8.59</v>
       </c>
       <c r="K5">
-        <v>2.29</v>
+        <v>2.3</v>
       </c>
       <c r="L5">
-        <v>68.77000000000001</v>
+        <v>65.92</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>6.370000000000001</v>
+        <v>10.01</v>
       </c>
       <c r="C6">
-        <v>8.58</v>
+        <v>9.719999999999999</v>
       </c>
       <c r="D6">
-        <v>8.870000000000001</v>
+        <v>12.16</v>
       </c>
       <c r="E6">
-        <v>12.34</v>
+        <v>9.08</v>
       </c>
       <c r="F6">
-        <v>11.46</v>
+        <v>10.25</v>
       </c>
       <c r="G6">
-        <v>11.75</v>
+        <v>15.67</v>
       </c>
       <c r="H6">
-        <v>14.79</v>
+        <v>9.950000000000001</v>
       </c>
       <c r="I6">
-        <v>11.03</v>
+        <v>10.3</v>
       </c>
       <c r="J6">
-        <v>10.27</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="K6">
-        <v>4.54</v>
+        <v>3.58</v>
       </c>
       <c r="L6">
-        <v>59.37</v>
+        <v>66.89</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>6.279999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="C7">
-        <v>7.93</v>
+        <v>10.16</v>
       </c>
       <c r="D7">
-        <v>8.17</v>
+        <v>10.65</v>
       </c>
       <c r="E7">
-        <v>12.06</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F7">
-        <v>12.49</v>
+        <v>15.32</v>
       </c>
       <c r="G7">
-        <v>10.36</v>
+        <v>11.23</v>
       </c>
       <c r="H7">
-        <v>14.14</v>
+        <v>9.98</v>
       </c>
       <c r="I7">
-        <v>12.81</v>
+        <v>12.2</v>
       </c>
       <c r="J7">
-        <v>10.63</v>
+        <v>9.030000000000001</v>
       </c>
       <c r="K7">
-        <v>5.13</v>
+        <v>5.029999999999999</v>
       </c>
       <c r="L7">
-        <v>57.29</v>
+        <v>63.75999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>5.34</v>
+        <v>7.59</v>
       </c>
       <c r="C8">
-        <v>7.69</v>
+        <v>9.58</v>
       </c>
       <c r="D8">
-        <v>8.82</v>
+        <v>11.76</v>
       </c>
       <c r="E8">
-        <v>12.7</v>
+        <v>8.5</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>13.18</v>
       </c>
       <c r="G8">
-        <v>13.67</v>
+        <v>14.07</v>
       </c>
       <c r="H8">
-        <v>13.2</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="I8">
-        <v>11.85</v>
+        <v>12.25</v>
       </c>
       <c r="J8">
-        <v>10.69</v>
+        <v>9.69</v>
       </c>
       <c r="K8">
-        <v>6.04</v>
+        <v>3.99</v>
       </c>
       <c r="L8">
-        <v>58.22</v>
+        <v>64.67999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>4.66</v>
+        <v>5.11</v>
       </c>
       <c r="C9">
-        <v>6.92</v>
+        <v>7.06</v>
       </c>
       <c r="D9">
-        <v>9.81</v>
+        <v>7.91</v>
       </c>
       <c r="E9">
-        <v>11.46</v>
+        <v>9.66</v>
       </c>
       <c r="F9">
-        <v>10.62</v>
+        <v>14.72</v>
       </c>
       <c r="G9">
-        <v>14.87</v>
+        <v>9.25</v>
       </c>
       <c r="H9">
-        <v>12.51</v>
+        <v>13.24</v>
       </c>
       <c r="I9">
-        <v>12.91</v>
+        <v>14</v>
       </c>
       <c r="J9">
-        <v>10.4</v>
+        <v>11.45</v>
       </c>
       <c r="K9">
-        <v>5.84</v>
+        <v>7.6</v>
       </c>
       <c r="L9">
-        <v>58.34</v>
+        <v>53.70999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1660,37 +1669,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.01</v>
+        <v>2.71</v>
       </c>
       <c r="C10">
-        <v>2.36</v>
+        <v>4.32</v>
       </c>
       <c r="D10">
-        <v>4.34</v>
+        <v>5.19</v>
       </c>
       <c r="E10">
-        <v>6.01</v>
+        <v>9</v>
       </c>
       <c r="F10">
-        <v>8.43</v>
+        <v>10.8</v>
       </c>
       <c r="G10">
-        <v>12.43</v>
+        <v>9.180000000000001</v>
       </c>
       <c r="H10">
-        <v>13.61</v>
+        <v>15.66</v>
       </c>
       <c r="I10">
-        <v>17.45</v>
+        <v>15.61</v>
       </c>
       <c r="J10">
-        <v>18.03</v>
+        <v>15.19</v>
       </c>
       <c r="K10">
-        <v>16.33</v>
+        <v>12.34</v>
       </c>
       <c r="L10">
-        <v>34.58</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1698,37 +1707,37 @@
         <v>0</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
         <v>0.02</v>
       </c>
-      <c r="C11">
-        <v>0.01</v>
-      </c>
       <c r="D11">
-        <v>0.11</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="E11">
-        <v>0.34</v>
+        <v>0.18</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.44</v>
       </c>
       <c r="G11">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="H11">
-        <v>3.97</v>
+        <v>3.77</v>
       </c>
       <c r="I11">
-        <v>10.02</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="J11">
-        <v>24.74</v>
+        <v>23.25</v>
       </c>
       <c r="K11">
-        <v>58.05</v>
+        <v>61.85000000000001</v>
       </c>
       <c r="L11">
-        <v>3.22</v>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
@@ -1746,16 +1755,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1766,13 +1775,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1786,10 +1795,10 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1797,16 +1806,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1814,16 +1823,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1831,16 +1840,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1848,16 +1857,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1868,13 +1877,13 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1885,13 +1894,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1902,13 +1911,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>-13</v>
+        <v>-18</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1919,13 +1928,13 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>-22</v>
+        <v>-29</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1935,39 +1944,42 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1992,11 +2004,14 @@
       <c r="H2">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2021,127 +2036,142 @@
       <c r="H3">
         <v>14</v>
       </c>
-      <c r="I3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>-4</v>
+      </c>
+      <c r="C4">
+        <v>-8</v>
+      </c>
+      <c r="D4">
+        <v>-7</v>
+      </c>
+      <c r="E4">
+        <v>-13</v>
+      </c>
+      <c r="F4">
+        <v>-5</v>
+      </c>
+      <c r="G4">
+        <v>-5</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-5</v>
+      </c>
+      <c r="C6">
+        <v>-7</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B7">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="C7">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D7">
         <v>4</v>
       </c>
-      <c r="E4">
+      <c r="E7">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="F7">
         <v>-1</v>
       </c>
-      <c r="G4">
+      <c r="G7">
         <v>2</v>
       </c>
-      <c r="H4">
+      <c r="H7">
         <v>6</v>
       </c>
-      <c r="I4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>-5</v>
-      </c>
-      <c r="C5">
-        <v>-7</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <v>7</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
-      </c>
-      <c r="F6">
-        <v>7</v>
-      </c>
-      <c r="G6">
-        <v>8</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>-4</v>
-      </c>
-      <c r="C7">
-        <v>-8</v>
-      </c>
-      <c r="D7">
-        <v>-7</v>
-      </c>
-      <c r="E7">
-        <v>-13</v>
-      </c>
-      <c r="F7">
-        <v>-5</v>
-      </c>
-      <c r="G7">
-        <v>-5</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -2166,11 +2196,14 @@
       <c r="H8">
         <v>-1</v>
       </c>
-      <c r="I8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8">
+        <v>-4</v>
+      </c>
+      <c r="J8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2195,11 +2228,14 @@
       <c r="H9">
         <v>-10</v>
       </c>
-      <c r="I9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9">
+        <v>-6</v>
+      </c>
+      <c r="J9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2224,11 +2260,14 @@
       <c r="H10">
         <v>-13</v>
       </c>
-      <c r="I10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="I10">
+        <v>-18</v>
+      </c>
+      <c r="J10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -2253,8 +2292,11 @@
       <c r="H11">
         <v>-22</v>
       </c>
-      <c r="I11" t="s">
-        <v>43</v>
+      <c r="I11">
+        <v>-29</v>
+      </c>
+      <c r="J11" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2264,7 +2306,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2272,25 +2314,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2402,25 +2444,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2428,25 +2470,25 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
       <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
         <v>2</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
       <c r="F7">
+        <v>-8</v>
+      </c>
+      <c r="G7">
         <v>10</v>
       </c>
-      <c r="G7">
-        <v>9</v>
-      </c>
       <c r="H7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2454,25 +2496,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8">
         <v>1</v>
       </c>
-      <c r="E8">
-        <v>-10</v>
-      </c>
       <c r="F8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2480,25 +2522,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>-10</v>
+      </c>
+      <c r="F9">
+        <v>-1</v>
+      </c>
+      <c r="G9">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>7</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>7</v>
-      </c>
       <c r="H9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2506,22 +2548,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
         <v>3</v>
       </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
       <c r="E10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H10" t="s">
         <v>3</v>
@@ -2532,24 +2574,50 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G11">
         <v>5</v>
       </c>
       <c r="H11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12" t="s">
         <v>6</v>
       </c>
     </row>

--- a/0755 Fantasy Football 2024.xlsx
+++ b/0755 Fantasy Football 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="62">
   <si>
     <t>Metcalves of Steele</t>
   </si>
@@ -52,28 +52,31 @@
     <t>It's Britney's Bench</t>
   </si>
   <si>
-    <t>0-8-0</t>
-  </si>
-  <si>
-    <t>3-5-0</t>
-  </si>
-  <si>
-    <t>4-4-0</t>
-  </si>
-  <si>
-    <t>2-6-0</t>
-  </si>
-  <si>
-    <t>1-7-0</t>
-  </si>
-  <si>
-    <t>5-3-0</t>
-  </si>
-  <si>
-    <t>6-2-0</t>
-  </si>
-  <si>
-    <t>7-1-0</t>
+    <t>0-9-0</t>
+  </si>
+  <si>
+    <t>4-5-0</t>
+  </si>
+  <si>
+    <t>5-4-0</t>
+  </si>
+  <si>
+    <t>3-6-0</t>
+  </si>
+  <si>
+    <t>1-8-0</t>
+  </si>
+  <si>
+    <t>6-3-0</t>
+  </si>
+  <si>
+    <t>7-2-0</t>
+  </si>
+  <si>
+    <t>2-7-0</t>
+  </si>
+  <si>
+    <t>8-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -133,19 +136,13 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↓3</t>
+    <t>↑2</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>↑11</t>
-  </si>
-  <si>
-    <t>↑9</t>
-  </si>
-  <si>
-    <t>↑1</t>
+    <t>↑3</t>
   </si>
   <si>
     <t>↓6</t>
@@ -154,10 +151,13 @@
     <t>↑4</t>
   </si>
   <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓7</t>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓8</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
   </si>
   <si>
     <t>Week</t>
@@ -612,7 +615,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -621,7 +624,7 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
@@ -650,7 +653,7 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -682,19 +685,19 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
         <v>15</v>
@@ -743,34 +746,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
         <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -781,7 +784,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -790,22 +793,22 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
         <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -816,31 +819,31 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -848,34 +851,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
         <v>15</v>
       </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" t="s">
-        <v>16</v>
-      </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -895,13 +898,13 @@
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
@@ -921,31 +924,31 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
         <v>11</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
       </c>
       <c r="K11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -963,13 +966,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -980,10 +983,10 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -994,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1005,13 +1008,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1019,10 +1022,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -1033,13 +1036,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1047,13 +1050,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1064,7 +1067,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -1075,13 +1078,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1089,13 +1092,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1103,13 +1106,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1127,16 +1130,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1144,16 +1147,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1161,16 +1164,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="D3">
-        <v>1.3</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1178,16 +1181,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>4.6</v>
+        <v>5.6</v>
       </c>
       <c r="D4">
-        <v>-0.4000000000000004</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1195,13 +1198,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="D5">
-        <v>0.5999999999999996</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1212,16 +1215,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
+        <v>-1.1</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1229,16 +1232,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="D7">
-        <v>-1.9</v>
+        <v>-0.09999999999999964</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1246,16 +1249,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1263,16 +1266,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="D9">
-        <v>0.8999999999999999</v>
+        <v>-1.8</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1283,10 +1286,10 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="D10">
-        <v>-0.3999999999999999</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -1324,40 +1327,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1365,37 +1368,37 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>26.1</v>
+        <v>16.53</v>
       </c>
       <c r="C2">
-        <v>18.96</v>
+        <v>17.51</v>
       </c>
       <c r="D2">
-        <v>13.74</v>
+        <v>20.1</v>
       </c>
       <c r="E2">
-        <v>14.18</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="F2">
-        <v>8.4</v>
+        <v>10.56</v>
       </c>
       <c r="G2">
-        <v>5.66</v>
+        <v>12.79</v>
       </c>
       <c r="H2">
-        <v>6.2</v>
+        <v>5.42</v>
       </c>
       <c r="I2">
-        <v>4.23</v>
+        <v>4.69</v>
       </c>
       <c r="J2">
-        <v>2.18</v>
+        <v>3.2</v>
       </c>
       <c r="K2">
-        <v>0.35</v>
+        <v>0.23</v>
       </c>
       <c r="L2">
-        <v>87.04000000000001</v>
+        <v>86.46000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1403,75 +1406,75 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>19.3</v>
+        <v>15.47</v>
       </c>
       <c r="C3">
-        <v>20.94</v>
+        <v>17.12</v>
       </c>
       <c r="D3">
-        <v>14.12</v>
+        <v>14.31</v>
       </c>
       <c r="E3">
-        <v>14.95</v>
+        <v>7.27</v>
       </c>
       <c r="F3">
-        <v>11.03</v>
+        <v>14.97</v>
       </c>
       <c r="G3">
-        <v>5.87</v>
+        <v>12.3</v>
       </c>
       <c r="H3">
-        <v>7.090000000000001</v>
+        <v>5.31</v>
       </c>
       <c r="I3">
-        <v>4.06</v>
+        <v>7.52</v>
       </c>
       <c r="J3">
-        <v>2.26</v>
+        <v>5.23</v>
       </c>
       <c r="K3">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="L3">
-        <v>86.21000000000001</v>
+        <v>81.44</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>10.96</v>
+        <v>13.2</v>
       </c>
       <c r="C4">
-        <v>9.74</v>
+        <v>15.5</v>
       </c>
       <c r="D4">
-        <v>12.94</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="E4">
-        <v>11.81</v>
+        <v>9.229999999999999</v>
       </c>
       <c r="F4">
-        <v>7.9</v>
+        <v>16.71</v>
       </c>
       <c r="G4">
-        <v>14.74</v>
+        <v>9.1</v>
       </c>
       <c r="H4">
-        <v>11.14</v>
+        <v>7.03</v>
       </c>
       <c r="I4">
-        <v>9.109999999999999</v>
+        <v>11.07</v>
       </c>
       <c r="J4">
-        <v>9.08</v>
+        <v>7.82</v>
       </c>
       <c r="K4">
-        <v>2.58</v>
+        <v>1.06</v>
       </c>
       <c r="L4">
-        <v>68.09</v>
+        <v>73.02</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1479,113 +1482,113 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>10.52</v>
+        <v>11.66</v>
       </c>
       <c r="C5">
-        <v>9.5</v>
+        <v>12.03</v>
       </c>
       <c r="D5">
-        <v>11.46</v>
+        <v>7.03</v>
       </c>
       <c r="E5">
-        <v>13.94</v>
+        <v>11.96</v>
       </c>
       <c r="F5">
-        <v>7.960000000000001</v>
+        <v>16.16</v>
       </c>
       <c r="G5">
-        <v>12.54</v>
+        <v>6.69</v>
       </c>
       <c r="H5">
-        <v>13.58</v>
+        <v>10.88</v>
       </c>
       <c r="I5">
-        <v>9.610000000000001</v>
+        <v>12.44</v>
       </c>
       <c r="J5">
-        <v>8.59</v>
+        <v>9.15</v>
       </c>
       <c r="K5">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>65.92</v>
+        <v>65.53</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>10.01</v>
+        <v>10.65</v>
       </c>
       <c r="C6">
-        <v>9.719999999999999</v>
+        <v>9.610000000000001</v>
       </c>
       <c r="D6">
-        <v>12.16</v>
+        <v>7.48</v>
       </c>
       <c r="E6">
-        <v>9.08</v>
+        <v>15.09</v>
       </c>
       <c r="F6">
-        <v>10.25</v>
+        <v>11.74</v>
       </c>
       <c r="G6">
-        <v>15.67</v>
+        <v>5.86</v>
       </c>
       <c r="H6">
-        <v>9.950000000000001</v>
+        <v>13.7</v>
       </c>
       <c r="I6">
-        <v>10.3</v>
+        <v>12.65</v>
       </c>
       <c r="J6">
-        <v>9.279999999999999</v>
+        <v>10</v>
       </c>
       <c r="K6">
-        <v>3.58</v>
+        <v>3.22</v>
       </c>
       <c r="L6">
-        <v>66.89</v>
+        <v>60.43</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>7.7</v>
+        <v>9.93</v>
       </c>
       <c r="C7">
-        <v>10.16</v>
+        <v>7.359999999999999</v>
       </c>
       <c r="D7">
-        <v>10.65</v>
+        <v>8.540000000000001</v>
       </c>
       <c r="E7">
-        <v>8.699999999999999</v>
+        <v>15.85</v>
       </c>
       <c r="F7">
-        <v>15.32</v>
+        <v>8.469999999999999</v>
       </c>
       <c r="G7">
-        <v>11.23</v>
+        <v>8.42</v>
       </c>
       <c r="H7">
-        <v>9.98</v>
+        <v>15.5</v>
       </c>
       <c r="I7">
-        <v>12.2</v>
+        <v>11.31</v>
       </c>
       <c r="J7">
-        <v>9.030000000000001</v>
+        <v>10.46</v>
       </c>
       <c r="K7">
-        <v>5.029999999999999</v>
+        <v>4.16</v>
       </c>
       <c r="L7">
-        <v>63.75999999999999</v>
+        <v>58.57</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1593,75 +1596,75 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>7.59</v>
+        <v>9.09</v>
       </c>
       <c r="C8">
-        <v>9.58</v>
+        <v>7.13</v>
       </c>
       <c r="D8">
-        <v>11.76</v>
+        <v>10.98</v>
       </c>
       <c r="E8">
-        <v>8.5</v>
+        <v>13.63</v>
       </c>
       <c r="F8">
-        <v>13.18</v>
+        <v>6.04</v>
       </c>
       <c r="G8">
-        <v>14.07</v>
+        <v>11.5</v>
       </c>
       <c r="H8">
-        <v>9.390000000000001</v>
+        <v>15.07</v>
       </c>
       <c r="I8">
-        <v>12.25</v>
+        <v>11.21</v>
       </c>
       <c r="J8">
-        <v>9.69</v>
+        <v>10.13</v>
       </c>
       <c r="K8">
-        <v>3.99</v>
+        <v>5.220000000000001</v>
       </c>
       <c r="L8">
-        <v>64.67999999999999</v>
+        <v>58.37</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>5.11</v>
+        <v>7.779999999999999</v>
       </c>
       <c r="C9">
-        <v>7.06</v>
+        <v>7.340000000000001</v>
       </c>
       <c r="D9">
-        <v>7.91</v>
+        <v>11.61</v>
       </c>
       <c r="E9">
-        <v>9.66</v>
+        <v>10.39</v>
       </c>
       <c r="F9">
-        <v>14.72</v>
+        <v>6.13</v>
       </c>
       <c r="G9">
-        <v>9.25</v>
+        <v>15.7</v>
       </c>
       <c r="H9">
-        <v>13.24</v>
+        <v>14.27</v>
       </c>
       <c r="I9">
-        <v>14</v>
+        <v>10.53</v>
       </c>
       <c r="J9">
-        <v>11.45</v>
+        <v>10.3</v>
       </c>
       <c r="K9">
-        <v>7.6</v>
+        <v>5.949999999999999</v>
       </c>
       <c r="L9">
-        <v>53.70999999999999</v>
+        <v>58.95</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1669,37 +1672,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.71</v>
+        <v>5.69</v>
       </c>
       <c r="C10">
-        <v>4.32</v>
+        <v>6.4</v>
       </c>
       <c r="D10">
-        <v>5.19</v>
+        <v>10.67</v>
       </c>
       <c r="E10">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="F10">
-        <v>10.8</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="G10">
-        <v>9.180000000000001</v>
+        <v>17.39</v>
       </c>
       <c r="H10">
-        <v>15.66</v>
+        <v>11.6</v>
       </c>
       <c r="I10">
-        <v>15.61</v>
+        <v>13.55</v>
       </c>
       <c r="J10">
-        <v>15.19</v>
+        <v>10.03</v>
       </c>
       <c r="K10">
-        <v>12.34</v>
+        <v>7.94</v>
       </c>
       <c r="L10">
-        <v>41.2</v>
+        <v>56.88</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1710,34 +1713,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.06999999999999999</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.18</v>
+        <v>0.01</v>
       </c>
       <c r="F11">
-        <v>0.44</v>
+        <v>0.09</v>
       </c>
       <c r="G11">
-        <v>1.79</v>
+        <v>0.25</v>
       </c>
       <c r="H11">
-        <v>3.77</v>
+        <v>1.22</v>
       </c>
       <c r="I11">
-        <v>8.630000000000001</v>
+        <v>5.029999999999999</v>
       </c>
       <c r="J11">
-        <v>23.25</v>
+        <v>23.68</v>
       </c>
       <c r="K11">
-        <v>61.85000000000001</v>
+        <v>69.72</v>
       </c>
       <c r="L11">
-        <v>2.5</v>
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
@@ -1755,16 +1758,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1775,13 +1778,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1792,10 +1795,10 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>38</v>
@@ -1806,13 +1809,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>39</v>
@@ -1823,13 +1826,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>40</v>
@@ -1840,13 +1843,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>41</v>
@@ -1860,7 +1863,7 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -1877,13 +1880,13 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1894,13 +1897,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1917,7 +1920,7 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1928,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>-29</v>
+        <v>-37</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -1944,13 +1947,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
@@ -1976,10 +1979,13 @@
         <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>54</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2007,11 +2013,14 @@
       <c r="I2">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="J2">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2039,107 +2048,119 @@
       <c r="I3">
         <v>14</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-4</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>-8</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>-7</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>-13</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>-5</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>-5</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>12</v>
-      </c>
-      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
         <v>4</v>
       </c>
-      <c r="E5">
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
         <v>8</v>
       </c>
-      <c r="F5">
-        <v>7</v>
-      </c>
-      <c r="G5">
-        <v>8</v>
-      </c>
-      <c r="H5">
+      <c r="K5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>-4</v>
+      </c>
+      <c r="C6">
+        <v>-8</v>
+      </c>
+      <c r="D6">
+        <v>-7</v>
+      </c>
+      <c r="E6">
+        <v>-13</v>
+      </c>
+      <c r="F6">
+        <v>-5</v>
+      </c>
+      <c r="G6">
+        <v>-5</v>
+      </c>
+      <c r="H6">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>10</v>
-      </c>
-      <c r="J5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>-5</v>
-      </c>
-      <c r="C6">
-        <v>-7</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>7</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>7</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
       <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2167,11 +2188,14 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -2199,11 +2223,14 @@
       <c r="I8">
         <v>-4</v>
       </c>
-      <c r="J8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2231,11 +2258,14 @@
       <c r="I9">
         <v>-6</v>
       </c>
-      <c r="J9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="J9">
+        <v>-8</v>
+      </c>
+      <c r="K9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2263,11 +2293,14 @@
       <c r="I10">
         <v>-18</v>
       </c>
-      <c r="J10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="J10">
+        <v>-18</v>
+      </c>
+      <c r="K10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -2295,7 +2328,10 @@
       <c r="I11">
         <v>-29</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11">
+        <v>-37</v>
+      </c>
+      <c r="K11" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2306,7 +2342,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2314,25 +2350,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2444,25 +2480,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F6">
-        <v>-6</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2470,25 +2506,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2496,25 +2532,25 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
       <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
         <v>2</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
       <c r="F8">
+        <v>-8</v>
+      </c>
+      <c r="G8">
         <v>10</v>
       </c>
-      <c r="G8">
-        <v>9</v>
-      </c>
       <c r="H8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2522,25 +2558,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="F9">
-        <v>-1</v>
+        <v>-18</v>
       </c>
       <c r="G9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2548,25 +2584,25 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
         <v>9</v>
       </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>7</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>7</v>
-      </c>
       <c r="H10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2574,25 +2610,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E11">
+        <v>-10</v>
+      </c>
+      <c r="F11">
         <v>-1</v>
       </c>
-      <c r="F11">
-        <v>4</v>
-      </c>
       <c r="G11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2600,25 +2636,77 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
       </c>
       <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>1</v>
       </c>
-      <c r="F12">
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
         <v>6</v>
       </c>
-      <c r="G12">
+      <c r="H13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
         <v>5</v>
       </c>
-      <c r="H12" t="s">
-        <v>6</v>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>-1</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/0755 Fantasy Football 2024.xlsx
+++ b/0755 Fantasy Football 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="63">
   <si>
     <t>Metcalves of Steele</t>
   </si>
@@ -52,31 +52,34 @@
     <t>It's Britney's Bench</t>
   </si>
   <si>
-    <t>0-9-0</t>
-  </si>
-  <si>
-    <t>4-5-0</t>
-  </si>
-  <si>
-    <t>5-4-0</t>
-  </si>
-  <si>
-    <t>3-6-0</t>
-  </si>
-  <si>
-    <t>1-8-0</t>
-  </si>
-  <si>
-    <t>6-3-0</t>
-  </si>
-  <si>
-    <t>7-2-0</t>
-  </si>
-  <si>
-    <t>2-7-0</t>
-  </si>
-  <si>
-    <t>8-1-0</t>
+    <t>0-10-0</t>
+  </si>
+  <si>
+    <t>4-6-0</t>
+  </si>
+  <si>
+    <t>6-4-0</t>
+  </si>
+  <si>
+    <t>5-5-0</t>
+  </si>
+  <si>
+    <t>3-7-0</t>
+  </si>
+  <si>
+    <t>1-9-0</t>
+  </si>
+  <si>
+    <t>7-3-0</t>
+  </si>
+  <si>
+    <t>9-1-0</t>
+  </si>
+  <si>
+    <t>2-8-0</t>
+  </si>
+  <si>
+    <t>8-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -136,28 +139,25 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↑6</t>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↑10</t>
+  </si>
+  <si>
+    <t>↓7</t>
   </si>
   <si>
     <t>↓2</t>
   </si>
   <si>
-    <t>↓8</t>
+    <t>↓5</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
   </si>
   <si>
     <t>Week</t>
@@ -609,31 +612,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -644,31 +647,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -685,25 +688,25 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -714,28 +717,28 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
         <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K5" t="s">
         <v>12</v>
@@ -746,34 +749,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -781,7 +784,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -790,22 +793,22 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K7" t="s">
         <v>11</v>
@@ -819,31 +822,31 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
       </c>
       <c r="K8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -851,34 +854,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" t="s">
         <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -886,10 +889,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -898,22 +901,22 @@
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -921,19 +924,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
         <v>11</v>
@@ -945,10 +948,10 @@
         <v>11</v>
       </c>
       <c r="J11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -966,13 +969,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -983,10 +986,10 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -997,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1008,13 +1011,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1022,10 +1025,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>5</v>
-      </c>
-      <c r="C5">
-        <v>4.4</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -1036,13 +1039,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1050,13 +1053,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1064,13 +1067,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1078,13 +1081,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1095,10 +1098,10 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>4.9</v>
+        <v>5.8</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1109,7 +1112,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>5.3</v>
+        <v>6.1</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1130,16 +1133,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1150,10 +1153,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -1167,13 +1170,13 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="D3">
-        <v>-0.2999999999999998</v>
+        <v>-0.5999999999999996</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1184,10 +1187,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="D4">
-        <v>0.5999999999999996</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1198,16 +1201,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="D5">
-        <v>0.09999999999999964</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1215,16 +1218,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="D6">
-        <v>-1.1</v>
+        <v>-1.8</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1232,16 +1235,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="D7">
-        <v>-0.09999999999999964</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1249,16 +1252,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1266,16 +1269,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="D9">
-        <v>-1.8</v>
+        <v>1.5</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1286,13 +1289,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D10">
-        <v>-0.6000000000000001</v>
+        <v>-1.1</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1303,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="D11">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -1327,40 +1330,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1368,37 +1371,37 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>16.53</v>
+        <v>14.43</v>
       </c>
       <c r="C2">
-        <v>17.51</v>
+        <v>13.33</v>
       </c>
       <c r="D2">
-        <v>20.1</v>
+        <v>13.48</v>
       </c>
       <c r="E2">
-        <v>8.970000000000001</v>
+        <v>20.84</v>
       </c>
       <c r="F2">
-        <v>10.56</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="G2">
-        <v>12.79</v>
+        <v>5.47</v>
       </c>
       <c r="H2">
-        <v>5.42</v>
+        <v>11.21</v>
       </c>
       <c r="I2">
-        <v>4.69</v>
+        <v>7.13</v>
       </c>
       <c r="J2">
-        <v>3.2</v>
+        <v>4.05</v>
       </c>
       <c r="K2">
-        <v>0.23</v>
+        <v>0.77</v>
       </c>
       <c r="L2">
-        <v>86.46000000000001</v>
+        <v>76.84</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1406,37 +1409,37 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>15.47</v>
+        <v>14.26</v>
       </c>
       <c r="C3">
-        <v>17.12</v>
+        <v>10.81</v>
       </c>
       <c r="D3">
-        <v>14.31</v>
+        <v>16.74</v>
       </c>
       <c r="E3">
-        <v>7.27</v>
+        <v>16.49</v>
       </c>
       <c r="F3">
-        <v>14.97</v>
+        <v>4.87</v>
       </c>
       <c r="G3">
-        <v>12.3</v>
+        <v>8.27</v>
       </c>
       <c r="H3">
-        <v>5.31</v>
+        <v>14.22</v>
       </c>
       <c r="I3">
-        <v>7.52</v>
+        <v>7.08</v>
       </c>
       <c r="J3">
-        <v>5.23</v>
+        <v>5.83</v>
       </c>
       <c r="K3">
-        <v>0.5</v>
+        <v>1.43</v>
       </c>
       <c r="L3">
-        <v>81.44</v>
+        <v>71.44</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1444,227 +1447,227 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>13.2</v>
+        <v>13.31</v>
       </c>
       <c r="C4">
-        <v>15.5</v>
+        <v>11.33</v>
       </c>
       <c r="D4">
-        <v>9.279999999999999</v>
+        <v>18.47</v>
       </c>
       <c r="E4">
-        <v>9.229999999999999</v>
+        <v>10.8</v>
       </c>
       <c r="F4">
-        <v>16.71</v>
+        <v>3.32</v>
       </c>
       <c r="G4">
-        <v>9.1</v>
+        <v>12.77</v>
       </c>
       <c r="H4">
-        <v>7.03</v>
+        <v>14.37</v>
       </c>
       <c r="I4">
-        <v>11.07</v>
+        <v>5.970000000000001</v>
       </c>
       <c r="J4">
-        <v>7.82</v>
+        <v>7.31</v>
       </c>
       <c r="K4">
-        <v>1.06</v>
+        <v>2.35</v>
       </c>
       <c r="L4">
-        <v>73.02</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>11.66</v>
+        <v>11.44</v>
       </c>
       <c r="C5">
-        <v>12.03</v>
+        <v>12.09</v>
       </c>
       <c r="D5">
-        <v>7.03</v>
+        <v>15.56</v>
       </c>
       <c r="E5">
-        <v>11.96</v>
+        <v>5.899999999999999</v>
       </c>
       <c r="F5">
-        <v>16.16</v>
+        <v>6.5</v>
       </c>
       <c r="G5">
-        <v>6.69</v>
+        <v>17.56</v>
       </c>
       <c r="H5">
-        <v>10.88</v>
+        <v>10.83</v>
       </c>
       <c r="I5">
-        <v>12.44</v>
+        <v>7.32</v>
       </c>
       <c r="J5">
-        <v>9.15</v>
+        <v>9.379999999999999</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3.42</v>
       </c>
       <c r="L5">
-        <v>65.53</v>
+        <v>69.05000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>10.65</v>
+        <v>10.15</v>
       </c>
       <c r="C6">
-        <v>9.610000000000001</v>
+        <v>10.44</v>
       </c>
       <c r="D6">
-        <v>7.48</v>
+        <v>5.01</v>
       </c>
       <c r="E6">
-        <v>15.09</v>
+        <v>12.71</v>
       </c>
       <c r="F6">
-        <v>11.74</v>
+        <v>17.51</v>
       </c>
       <c r="G6">
-        <v>5.86</v>
+        <v>5.67</v>
       </c>
       <c r="H6">
-        <v>13.7</v>
+        <v>9.969999999999999</v>
       </c>
       <c r="I6">
-        <v>12.65</v>
+        <v>14.81</v>
       </c>
       <c r="J6">
-        <v>10</v>
+        <v>5.899999999999999</v>
       </c>
       <c r="K6">
-        <v>3.22</v>
+        <v>7.829999999999999</v>
       </c>
       <c r="L6">
-        <v>60.43</v>
+        <v>61.49000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>9.93</v>
+        <v>9.74</v>
       </c>
       <c r="C7">
-        <v>7.359999999999999</v>
+        <v>12.15</v>
       </c>
       <c r="D7">
-        <v>8.540000000000001</v>
+        <v>7.960000000000001</v>
       </c>
       <c r="E7">
-        <v>15.85</v>
+        <v>4.45</v>
       </c>
       <c r="F7">
-        <v>8.469999999999999</v>
+        <v>16.46</v>
       </c>
       <c r="G7">
-        <v>8.42</v>
+        <v>14.99</v>
       </c>
       <c r="H7">
-        <v>15.5</v>
+        <v>6.260000000000001</v>
       </c>
       <c r="I7">
-        <v>11.31</v>
+        <v>12.27</v>
       </c>
       <c r="J7">
-        <v>10.46</v>
+        <v>9.48</v>
       </c>
       <c r="K7">
-        <v>4.16</v>
+        <v>6.239999999999999</v>
       </c>
       <c r="L7">
-        <v>58.57</v>
+        <v>65.75</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>9.09</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="C8">
-        <v>7.13</v>
+        <v>11.45</v>
       </c>
       <c r="D8">
-        <v>10.98</v>
+        <v>10.85</v>
       </c>
       <c r="E8">
-        <v>13.63</v>
+        <v>3.69</v>
       </c>
       <c r="F8">
-        <v>6.04</v>
+        <v>11.12</v>
       </c>
       <c r="G8">
-        <v>11.5</v>
+        <v>19.04</v>
       </c>
       <c r="H8">
-        <v>15.07</v>
+        <v>7.86</v>
       </c>
       <c r="I8">
-        <v>11.21</v>
+        <v>10.36</v>
       </c>
       <c r="J8">
-        <v>10.13</v>
+        <v>10.19</v>
       </c>
       <c r="K8">
-        <v>5.220000000000001</v>
+        <v>5.89</v>
       </c>
       <c r="L8">
-        <v>58.37</v>
+        <v>65.7</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>7.779999999999999</v>
+        <v>9.43</v>
       </c>
       <c r="C9">
-        <v>7.340000000000001</v>
+        <v>11.04</v>
       </c>
       <c r="D9">
-        <v>11.61</v>
+        <v>6.19</v>
       </c>
       <c r="E9">
-        <v>10.39</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F9">
-        <v>6.13</v>
+        <v>19.02</v>
       </c>
       <c r="G9">
-        <v>15.7</v>
+        <v>10</v>
       </c>
       <c r="H9">
-        <v>14.27</v>
+        <v>6.7</v>
       </c>
       <c r="I9">
-        <v>10.53</v>
+        <v>13.88</v>
       </c>
       <c r="J9">
-        <v>10.3</v>
+        <v>7.920000000000001</v>
       </c>
       <c r="K9">
-        <v>5.949999999999999</v>
+        <v>7.52</v>
       </c>
       <c r="L9">
-        <v>58.95</v>
+        <v>63.97999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1672,37 +1675,37 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>7.69</v>
+      </c>
+      <c r="C10">
+        <v>7.35</v>
+      </c>
+      <c r="D10">
         <v>5.69</v>
       </c>
-      <c r="C10">
-        <v>6.4</v>
-      </c>
-      <c r="D10">
-        <v>10.67</v>
-      </c>
       <c r="E10">
-        <v>7.6</v>
+        <v>16.77</v>
       </c>
       <c r="F10">
-        <v>9.130000000000001</v>
+        <v>11.75</v>
       </c>
       <c r="G10">
-        <v>17.39</v>
+        <v>5.21</v>
       </c>
       <c r="H10">
-        <v>11.6</v>
+        <v>15.4</v>
       </c>
       <c r="I10">
-        <v>13.55</v>
+        <v>14.05</v>
       </c>
       <c r="J10">
-        <v>10.03</v>
+        <v>5.24</v>
       </c>
       <c r="K10">
-        <v>7.94</v>
+        <v>10.85</v>
       </c>
       <c r="L10">
-        <v>56.88</v>
+        <v>54.46</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1713,34 +1716,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E11">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="F11">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="G11">
-        <v>0.25</v>
+        <v>1.02</v>
       </c>
       <c r="H11">
-        <v>1.22</v>
+        <v>3.18</v>
       </c>
       <c r="I11">
-        <v>5.029999999999999</v>
+        <v>7.13</v>
       </c>
       <c r="J11">
-        <v>23.68</v>
+        <v>34.7</v>
       </c>
       <c r="K11">
-        <v>69.72</v>
+        <v>53.7</v>
       </c>
       <c r="L11">
-        <v>0.35</v>
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>
@@ -1758,16 +1761,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1784,7 +1787,7 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1798,10 +1801,10 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1809,16 +1812,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1826,16 +1829,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1843,16 +1846,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1860,13 +1863,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
         <v>42</v>
@@ -1877,13 +1880,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
         <v>43</v>
@@ -1894,13 +1897,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
         <v>44</v>
@@ -1914,13 +1917,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>-18</v>
+        <v>-23</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1931,13 +1934,13 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>-37</v>
+        <v>-40</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1947,13 +1950,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
@@ -1982,10 +1985,13 @@
         <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>55</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2016,11 +2022,14 @@
       <c r="J2">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="K2">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2051,191 +2060,209 @@
       <c r="J3">
         <v>16</v>
       </c>
-      <c r="K3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="K3">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>-4</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>-8</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>-7</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>-13</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>-5</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>-5</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>14</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
         <v>10</v>
       </c>
-      <c r="J4">
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
         <v>10</v>
       </c>
-      <c r="K4" t="s">
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>7</v>
+      </c>
+      <c r="L5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>-1</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>-1</v>
+      </c>
+      <c r="C7">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>-7</v>
+      </c>
+      <c r="F7">
+        <v>-6</v>
+      </c>
+      <c r="G7">
+        <v>-14</v>
+      </c>
+      <c r="H7">
+        <v>-10</v>
+      </c>
+      <c r="I7">
+        <v>-6</v>
+      </c>
+      <c r="J7">
+        <v>-8</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
         <v>-5</v>
       </c>
-      <c r="C5">
+      <c r="C8">
         <v>-7</v>
       </c>
-      <c r="D5">
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-      <c r="F5">
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
         <v>4</v>
       </c>
-      <c r="G5">
-        <v>7</v>
-      </c>
-      <c r="H5">
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
         <v>4</v>
       </c>
-      <c r="I5">
+      <c r="I8">
         <v>5</v>
       </c>
-      <c r="J5">
+      <c r="J8">
         <v>8</v>
       </c>
-      <c r="K5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>-4</v>
-      </c>
-      <c r="C6">
-        <v>-8</v>
-      </c>
-      <c r="D6">
-        <v>-7</v>
-      </c>
-      <c r="E6">
-        <v>-13</v>
-      </c>
-      <c r="F6">
-        <v>-5</v>
-      </c>
-      <c r="G6">
-        <v>-5</v>
-      </c>
-      <c r="H6">
+      <c r="K8">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>12</v>
-      </c>
-      <c r="J6">
-        <v>6</v>
-      </c>
-      <c r="K6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>-1</v>
-      </c>
-      <c r="G7">
+      <c r="L8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
         <v>2</v>
-      </c>
-      <c r="H7">
-        <v>6</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>4</v>
-      </c>
-      <c r="K7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>-1</v>
-      </c>
-      <c r="E8">
-        <v>-5</v>
-      </c>
-      <c r="F8">
-        <v>-6</v>
-      </c>
-      <c r="G8">
-        <v>-4</v>
-      </c>
-      <c r="H8">
-        <v>-1</v>
-      </c>
-      <c r="I8">
-        <v>-4</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="K8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>-1</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -2244,28 +2271,31 @@
         <v>-1</v>
       </c>
       <c r="E9">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="F9">
         <v>-6</v>
       </c>
       <c r="G9">
-        <v>-14</v>
+        <v>-4</v>
       </c>
       <c r="H9">
-        <v>-10</v>
+        <v>-1</v>
       </c>
       <c r="I9">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="J9">
-        <v>-8</v>
-      </c>
-      <c r="K9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2296,11 +2326,14 @@
       <c r="J10">
         <v>-18</v>
       </c>
-      <c r="K10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="K10">
+        <v>-23</v>
+      </c>
+      <c r="L10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -2331,8 +2364,11 @@
       <c r="J11">
         <v>-37</v>
       </c>
-      <c r="K11" t="s">
-        <v>45</v>
+      <c r="K11">
+        <v>-40</v>
+      </c>
+      <c r="L11" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2342,7 +2378,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2350,25 +2386,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2376,25 +2412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
       <c r="E2">
-        <v>-5</v>
+        <v>-23</v>
       </c>
       <c r="F2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2402,25 +2438,25 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="F3">
         <v>16</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2428,25 +2464,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E4">
+        <v>-4</v>
+      </c>
+      <c r="F4">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
         <v>1</v>
-      </c>
-      <c r="F4">
-        <v>-13</v>
-      </c>
-      <c r="G4">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2454,25 +2490,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>-6</v>
+        <v>-13</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2480,25 +2516,25 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>-6</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2506,25 +2542,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F7">
-        <v>-6</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2532,25 +2568,25 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8">
+        <v>14</v>
+      </c>
+      <c r="F8">
         <v>2</v>
       </c>
-      <c r="F8">
-        <v>-8</v>
-      </c>
       <c r="G8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2558,25 +2594,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>-8</v>
+        <v>5</v>
       </c>
       <c r="F9">
-        <v>-18</v>
+        <v>-6</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2584,25 +2620,25 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
       <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
         <v>2</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
       <c r="F10">
+        <v>-8</v>
+      </c>
+      <c r="G10">
         <v>10</v>
       </c>
-      <c r="G10">
-        <v>9</v>
-      </c>
       <c r="H10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2610,25 +2646,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E11">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="F11">
-        <v>-1</v>
+        <v>-18</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2636,25 +2672,25 @@
         <v>10</v>
       </c>
       <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
         <v>9</v>
       </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>7</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>7</v>
-      </c>
       <c r="H12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2662,25 +2698,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>8</v>
+        <v>-10</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G13">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H13" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2688,25 +2724,51 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
         <v>3</v>
       </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
       <c r="E14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H14" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/0755 Fantasy Football 2024.xlsx
+++ b/0755 Fantasy Football 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="67">
   <si>
     <t>Metcalves of Steele</t>
   </si>
@@ -52,34 +52,37 @@
     <t>It's Britney's Bench</t>
   </si>
   <si>
-    <t>0-10-0</t>
-  </si>
-  <si>
-    <t>4-6-0</t>
-  </si>
-  <si>
-    <t>6-4-0</t>
-  </si>
-  <si>
-    <t>5-5-0</t>
-  </si>
-  <si>
-    <t>3-7-0</t>
-  </si>
-  <si>
-    <t>1-9-0</t>
-  </si>
-  <si>
-    <t>7-3-0</t>
-  </si>
-  <si>
-    <t>9-1-0</t>
-  </si>
-  <si>
-    <t>2-8-0</t>
-  </si>
-  <si>
-    <t>8-2-0</t>
+    <t>0-11-0</t>
+  </si>
+  <si>
+    <t>5-6-0</t>
+  </si>
+  <si>
+    <t>7-4-0</t>
+  </si>
+  <si>
+    <t>6-5-0</t>
+  </si>
+  <si>
+    <t>3-8-0</t>
+  </si>
+  <si>
+    <t>2-9-0</t>
+  </si>
+  <si>
+    <t>8-3-0</t>
+  </si>
+  <si>
+    <t>1-10-0</t>
+  </si>
+  <si>
+    <t>10-1-0</t>
+  </si>
+  <si>
+    <t>9-2-0</t>
+  </si>
+  <si>
+    <t>4-7-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -139,25 +142,31 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑10</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↑10</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓5</t>
+    <t>↓8</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -188,6 +197,9 @@
   </si>
   <si>
     <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
   </si>
   <si>
     <t>Week</t>
@@ -615,28 +627,28 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -659,7 +671,7 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
@@ -671,7 +683,7 @@
         <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -685,25 +697,25 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K4" t="s">
         <v>12</v>
@@ -720,7 +732,7 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -729,16 +741,16 @@
         <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s">
         <v>12</v>
@@ -755,28 +767,28 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
         <v>16</v>
       </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" t="s">
-        <v>19</v>
-      </c>
       <c r="K6" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -799,16 +811,16 @@
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I7" t="s">
         <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K7" t="s">
         <v>11</v>
@@ -869,16 +881,16 @@
         <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
         <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K9" t="s">
         <v>11</v>
@@ -895,25 +907,25 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
         <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K10" t="s">
         <v>14</v>
@@ -933,22 +945,22 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s">
         <v>11</v>
-      </c>
-      <c r="H11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" t="s">
-        <v>13</v>
       </c>
       <c r="K11" t="s">
         <v>14</v>
@@ -969,13 +981,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -986,7 +998,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -997,13 +1009,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1011,13 +1023,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1025,13 +1037,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1039,13 +1051,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1053,13 +1065,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1067,10 +1079,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -1084,7 +1096,7 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -1098,10 +1110,10 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1112,7 +1124,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1133,16 +1145,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1153,13 +1165,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="D2">
-        <v>0.5999999999999996</v>
+        <v>1.1</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1167,16 +1179,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="D3">
-        <v>-0.5999999999999996</v>
+        <v>-0.09999999999999964</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1184,16 +1196,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="D4">
-        <v>0.4000000000000004</v>
+        <v>-1.3</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1204,7 +1216,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>5.7</v>
+        <v>6.7</v>
       </c>
       <c r="D5">
         <v>0.7000000000000002</v>
@@ -1221,10 +1233,10 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="D6">
-        <v>-1.8</v>
+        <v>-2.1</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -1235,16 +1247,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="D7">
-        <v>0.09999999999999964</v>
+        <v>-1.1</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1252,16 +1264,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1272,10 +1284,10 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="D9">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -1295,7 +1307,7 @@
         <v>-1.1</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1306,10 +1318,10 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="D11">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -1330,344 +1342,344 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>14.43</v>
+        <v>14.7</v>
       </c>
       <c r="C2">
-        <v>13.33</v>
+        <v>11.07</v>
       </c>
       <c r="D2">
-        <v>13.48</v>
+        <v>19.39</v>
       </c>
       <c r="E2">
-        <v>20.84</v>
+        <v>7.86</v>
       </c>
       <c r="F2">
-        <v>9.289999999999999</v>
+        <v>1.33</v>
       </c>
       <c r="G2">
-        <v>5.47</v>
+        <v>9.82</v>
       </c>
       <c r="H2">
-        <v>11.21</v>
+        <v>18.2</v>
       </c>
       <c r="I2">
-        <v>7.13</v>
+        <v>6.43</v>
       </c>
       <c r="J2">
-        <v>4.05</v>
+        <v>2.32</v>
       </c>
       <c r="K2">
-        <v>0.77</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="L2">
-        <v>76.84</v>
+        <v>64.16999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>14.26</v>
+        <v>14.43</v>
       </c>
       <c r="C3">
-        <v>10.81</v>
+        <v>6.959999999999999</v>
       </c>
       <c r="D3">
-        <v>16.74</v>
+        <v>14.68</v>
       </c>
       <c r="E3">
-        <v>16.49</v>
+        <v>19.44</v>
       </c>
       <c r="F3">
-        <v>4.87</v>
+        <v>6.1</v>
       </c>
       <c r="G3">
-        <v>8.27</v>
+        <v>2.48</v>
       </c>
       <c r="H3">
-        <v>14.22</v>
+        <v>12.98</v>
       </c>
       <c r="I3">
-        <v>7.08</v>
+        <v>12.75</v>
       </c>
       <c r="J3">
-        <v>5.83</v>
+        <v>3.330000000000001</v>
       </c>
       <c r="K3">
-        <v>1.43</v>
+        <v>6.850000000000001</v>
       </c>
       <c r="L3">
-        <v>71.44</v>
+        <v>64.09</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>13.31</v>
+        <v>13.49</v>
       </c>
       <c r="C4">
-        <v>11.33</v>
+        <v>8.01</v>
       </c>
       <c r="D4">
-        <v>18.47</v>
+        <v>8.35</v>
       </c>
       <c r="E4">
-        <v>10.8</v>
+        <v>21.54</v>
       </c>
       <c r="F4">
-        <v>3.32</v>
+        <v>12.43</v>
       </c>
       <c r="G4">
-        <v>12.77</v>
+        <v>2.31</v>
       </c>
       <c r="H4">
-        <v>14.37</v>
+        <v>8.9</v>
       </c>
       <c r="I4">
-        <v>5.970000000000001</v>
+        <v>14.01</v>
       </c>
       <c r="J4">
-        <v>7.31</v>
+        <v>4.94</v>
       </c>
       <c r="K4">
-        <v>2.35</v>
+        <v>6.02</v>
       </c>
       <c r="L4">
-        <v>70</v>
+        <v>66.13</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>11.44</v>
+        <v>13.02</v>
       </c>
       <c r="C5">
-        <v>12.09</v>
+        <v>7.46</v>
       </c>
       <c r="D5">
-        <v>15.56</v>
+        <v>18.44</v>
       </c>
       <c r="E5">
-        <v>5.899999999999999</v>
+        <v>14.37</v>
       </c>
       <c r="F5">
-        <v>6.5</v>
+        <v>2.08</v>
       </c>
       <c r="G5">
-        <v>17.56</v>
+        <v>5.779999999999999</v>
       </c>
       <c r="H5">
-        <v>10.83</v>
+        <v>17.05</v>
       </c>
       <c r="I5">
-        <v>7.32</v>
+        <v>10.39</v>
       </c>
       <c r="J5">
-        <v>9.379999999999999</v>
+        <v>2.55</v>
       </c>
       <c r="K5">
-        <v>3.42</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="L5">
-        <v>69.05000000000001</v>
+        <v>61.15</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>10.15</v>
+        <v>12.5</v>
       </c>
       <c r="C6">
-        <v>10.44</v>
+        <v>18.51</v>
       </c>
       <c r="D6">
-        <v>5.01</v>
+        <v>5.91</v>
       </c>
       <c r="E6">
-        <v>12.71</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="F6">
-        <v>17.51</v>
+        <v>23.01</v>
       </c>
       <c r="G6">
-        <v>5.67</v>
+        <v>10.11</v>
       </c>
       <c r="H6">
-        <v>9.969999999999999</v>
+        <v>3.06</v>
       </c>
       <c r="I6">
-        <v>14.81</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="J6">
-        <v>5.899999999999999</v>
+        <v>6.08</v>
       </c>
       <c r="K6">
-        <v>7.829999999999999</v>
+        <v>2.63</v>
       </c>
       <c r="L6">
-        <v>61.49000000000001</v>
+        <v>79.59</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>9.74</v>
+        <v>10.65</v>
       </c>
       <c r="C7">
-        <v>12.15</v>
+        <v>9.98</v>
       </c>
       <c r="D7">
-        <v>7.960000000000001</v>
+        <v>4.279999999999999</v>
       </c>
       <c r="E7">
-        <v>4.45</v>
+        <v>17.97</v>
       </c>
       <c r="F7">
-        <v>16.46</v>
+        <v>19.48</v>
       </c>
       <c r="G7">
-        <v>14.99</v>
+        <v>4.51</v>
       </c>
       <c r="H7">
-        <v>6.260000000000001</v>
+        <v>6.19</v>
       </c>
       <c r="I7">
-        <v>12.27</v>
+        <v>14.34</v>
       </c>
       <c r="J7">
-        <v>9.48</v>
+        <v>6.75</v>
       </c>
       <c r="K7">
-        <v>6.239999999999999</v>
+        <v>5.850000000000001</v>
       </c>
       <c r="L7">
-        <v>65.75</v>
+        <v>66.87</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>9.550000000000001</v>
+        <v>8.870000000000001</v>
       </c>
       <c r="C8">
-        <v>11.45</v>
+        <v>11.54</v>
       </c>
       <c r="D8">
-        <v>10.85</v>
+        <v>12.87</v>
       </c>
       <c r="E8">
-        <v>3.69</v>
+        <v>3.15</v>
       </c>
       <c r="F8">
-        <v>11.12</v>
+        <v>3.62</v>
       </c>
       <c r="G8">
-        <v>19.04</v>
+        <v>19.46</v>
       </c>
       <c r="H8">
-        <v>7.86</v>
+        <v>17.55</v>
       </c>
       <c r="I8">
-        <v>10.36</v>
+        <v>2.67</v>
       </c>
       <c r="J8">
-        <v>10.19</v>
+        <v>5.67</v>
       </c>
       <c r="K8">
-        <v>5.89</v>
+        <v>14.6</v>
       </c>
       <c r="L8">
-        <v>65.7</v>
+        <v>59.51</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>9.43</v>
+        <v>6.76</v>
       </c>
       <c r="C9">
-        <v>11.04</v>
+        <v>17.15</v>
       </c>
       <c r="D9">
-        <v>6.19</v>
+        <v>9.030000000000001</v>
       </c>
       <c r="E9">
-        <v>8.300000000000001</v>
+        <v>4.23</v>
       </c>
       <c r="F9">
-        <v>19.02</v>
+        <v>20.59</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>18.07</v>
       </c>
       <c r="H9">
-        <v>6.7</v>
+        <v>4.43</v>
       </c>
       <c r="I9">
-        <v>13.88</v>
+        <v>9.1</v>
       </c>
       <c r="J9">
-        <v>7.920000000000001</v>
+        <v>7.290000000000001</v>
       </c>
       <c r="K9">
-        <v>7.52</v>
+        <v>3.35</v>
       </c>
       <c r="L9">
-        <v>63.97999999999999</v>
+        <v>75.83000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1675,37 +1687,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.69</v>
+        <v>5.57</v>
       </c>
       <c r="C10">
-        <v>7.35</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="D10">
-        <v>5.69</v>
+        <v>7.03</v>
       </c>
       <c r="E10">
-        <v>16.77</v>
+        <v>1.74</v>
       </c>
       <c r="F10">
-        <v>11.75</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="G10">
-        <v>5.21</v>
+        <v>24.88</v>
       </c>
       <c r="H10">
-        <v>15.4</v>
+        <v>9.43</v>
       </c>
       <c r="I10">
-        <v>14.05</v>
+        <v>1.76</v>
       </c>
       <c r="J10">
-        <v>5.24</v>
+        <v>13.05</v>
       </c>
       <c r="K10">
-        <v>10.85</v>
+        <v>17.78</v>
       </c>
       <c r="L10">
-        <v>54.46</v>
+        <v>57.98</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1713,37 +1725,37 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C11">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="D11">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="E11">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F11">
-        <v>0.16</v>
+        <v>1.89</v>
       </c>
       <c r="G11">
-        <v>1.02</v>
+        <v>2.58</v>
       </c>
       <c r="H11">
-        <v>3.18</v>
+        <v>2.21</v>
       </c>
       <c r="I11">
-        <v>7.13</v>
+        <v>19.91</v>
       </c>
       <c r="J11">
-        <v>34.7</v>
+        <v>48.02</v>
       </c>
       <c r="K11">
-        <v>53.7</v>
+        <v>25.18</v>
       </c>
       <c r="L11">
-        <v>1.29</v>
+        <v>4.68</v>
       </c>
     </row>
   </sheetData>
@@ -1761,16 +1773,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1778,16 +1790,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1795,16 +1807,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1812,16 +1824,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1829,16 +1841,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1846,16 +1858,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1863,16 +1875,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1880,16 +1892,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1906,7 +1918,7 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1917,13 +1929,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>-23</v>
+        <v>-25</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1934,13 +1946,13 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>-40</v>
+        <v>-48</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1950,314 +1962,338 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>-4</v>
+      </c>
+      <c r="C2">
+        <v>-8</v>
+      </c>
+      <c r="D2">
+        <v>-7</v>
+      </c>
+      <c r="E2">
+        <v>-13</v>
+      </c>
+      <c r="F2">
+        <v>-5</v>
+      </c>
+      <c r="G2">
+        <v>-5</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>12</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <v>14</v>
+      </c>
+      <c r="L2">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>19</v>
+      </c>
+      <c r="I3">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <v>18</v>
+      </c>
+      <c r="K3">
+        <v>18</v>
+      </c>
+      <c r="L3">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>13</v>
+      </c>
+      <c r="H4">
+        <v>14</v>
+      </c>
+      <c r="I4">
+        <v>14</v>
+      </c>
+      <c r="J4">
+        <v>16</v>
+      </c>
+      <c r="K4">
+        <v>16</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>-5</v>
+      </c>
+      <c r="C5">
+        <v>-7</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>8</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>8</v>
+      </c>
+      <c r="M5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>-1</v>
+      </c>
+      <c r="E6">
+        <v>-7</v>
+      </c>
+      <c r="F6">
+        <v>-6</v>
+      </c>
+      <c r="G6">
+        <v>-14</v>
+      </c>
+      <c r="H6">
+        <v>-10</v>
+      </c>
+      <c r="I6">
+        <v>-6</v>
+      </c>
+      <c r="J6">
+        <v>-8</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="M6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>7</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>-1</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>16</v>
-      </c>
-      <c r="G2">
-        <v>16</v>
-      </c>
-      <c r="H2">
-        <v>19</v>
-      </c>
-      <c r="I2">
-        <v>16</v>
-      </c>
-      <c r="J2">
-        <v>18</v>
-      </c>
-      <c r="K2">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>11</v>
-      </c>
-      <c r="G3">
-        <v>13</v>
-      </c>
-      <c r="H3">
-        <v>14</v>
-      </c>
-      <c r="I3">
-        <v>14</v>
-      </c>
-      <c r="J3">
-        <v>16</v>
-      </c>
-      <c r="K3">
-        <v>16</v>
-      </c>
-      <c r="L3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>-4</v>
-      </c>
-      <c r="C4">
-        <v>-8</v>
-      </c>
-      <c r="D4">
-        <v>-7</v>
-      </c>
-      <c r="E4">
-        <v>-13</v>
-      </c>
-      <c r="F4">
-        <v>-5</v>
-      </c>
-      <c r="G4">
-        <v>-5</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>12</v>
-      </c>
-      <c r="J4">
-        <v>6</v>
-      </c>
-      <c r="K4">
-        <v>14</v>
-      </c>
-      <c r="L4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>8</v>
-      </c>
-      <c r="F5">
-        <v>7</v>
-      </c>
-      <c r="G5">
-        <v>8</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>10</v>
-      </c>
-      <c r="J5">
-        <v>10</v>
-      </c>
-      <c r="K5">
-        <v>7</v>
-      </c>
-      <c r="L5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>-1</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>6</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>4</v>
-      </c>
-      <c r="K6">
-        <v>4</v>
-      </c>
-      <c r="L6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>-1</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>-1</v>
-      </c>
-      <c r="E7">
-        <v>-7</v>
-      </c>
-      <c r="F7">
-        <v>-6</v>
-      </c>
-      <c r="G7">
-        <v>-14</v>
-      </c>
-      <c r="H7">
-        <v>-10</v>
-      </c>
-      <c r="I7">
-        <v>-6</v>
-      </c>
-      <c r="J7">
-        <v>-8</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>-5</v>
-      </c>
-      <c r="C8">
-        <v>-7</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8">
-        <v>7</v>
-      </c>
-      <c r="H8">
-        <v>4</v>
-      </c>
-      <c r="I8">
-        <v>5</v>
-      </c>
-      <c r="J8">
-        <v>8</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -2291,11 +2327,14 @@
       <c r="K9">
         <v>0</v>
       </c>
-      <c r="L9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2329,11 +2368,14 @@
       <c r="K10">
         <v>-23</v>
       </c>
-      <c r="L10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="L10">
+        <v>-25</v>
+      </c>
+      <c r="M10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -2367,8 +2409,11 @@
       <c r="K11">
         <v>-40</v>
       </c>
-      <c r="L11" t="s">
-        <v>41</v>
+      <c r="L11">
+        <v>-48</v>
+      </c>
+      <c r="M11" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2378,7 +2423,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2386,25 +2431,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2542,25 +2587,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2568,25 +2613,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8">
         <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2594,22 +2639,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F9">
-        <v>-6</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
         <v>7</v>
@@ -2620,25 +2665,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2646,19 +2691,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
       </c>
       <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
         <v>-8</v>
-      </c>
-      <c r="F11">
-        <v>-18</v>
       </c>
       <c r="G11">
         <v>10</v>
@@ -2672,25 +2717,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>-8</v>
       </c>
       <c r="F12">
+        <v>-18</v>
+      </c>
+      <c r="G12">
         <v>10</v>
       </c>
-      <c r="G12">
-        <v>9</v>
-      </c>
       <c r="H12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2698,25 +2743,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13">
         <v>1</v>
       </c>
-      <c r="E13">
-        <v>-10</v>
-      </c>
       <c r="F13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>9</v>
       </c>
       <c r="H13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2724,51 +2769,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>-10</v>
+      </c>
+      <c r="F14">
+        <v>-1</v>
+      </c>
+      <c r="G14">
         <v>9</v>
       </c>
-      <c r="D14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14">
-        <v>7</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>7</v>
-      </c>
       <c r="H14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>8</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>6</v>
-      </c>
-      <c r="H15" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/0755 Fantasy Football 2024.xlsx
+++ b/0755 Fantasy Football 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="69">
   <si>
     <t>Metcalves of Steele</t>
   </si>
@@ -52,37 +52,40 @@
     <t>It's Britney's Bench</t>
   </si>
   <si>
-    <t>0-11-0</t>
-  </si>
-  <si>
-    <t>5-6-0</t>
-  </si>
-  <si>
-    <t>7-4-0</t>
-  </si>
-  <si>
-    <t>6-5-0</t>
-  </si>
-  <si>
-    <t>3-8-0</t>
-  </si>
-  <si>
-    <t>2-9-0</t>
-  </si>
-  <si>
-    <t>8-3-0</t>
-  </si>
-  <si>
-    <t>1-10-0</t>
-  </si>
-  <si>
-    <t>10-1-0</t>
-  </si>
-  <si>
-    <t>9-2-0</t>
-  </si>
-  <si>
-    <t>4-7-0</t>
+    <t>0-12-0</t>
+  </si>
+  <si>
+    <t>5-7-0</t>
+  </si>
+  <si>
+    <t>8-4-0</t>
+  </si>
+  <si>
+    <t>6-6-0</t>
+  </si>
+  <si>
+    <t>7-5-0</t>
+  </si>
+  <si>
+    <t>3-9-0</t>
+  </si>
+  <si>
+    <t>2-10-0</t>
+  </si>
+  <si>
+    <t>9-3-0</t>
+  </si>
+  <si>
+    <t>1-11-0</t>
+  </si>
+  <si>
+    <t>11-1-0</t>
+  </si>
+  <si>
+    <t>10-2-0</t>
+  </si>
+  <si>
+    <t>4-8-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -142,33 +145,33 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑10</t>
+    <t>↑7</t>
   </si>
   <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↑7</t>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑3</t>
   </si>
   <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓2</t>
+    <t>↓11</t>
+  </si>
+  <si>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↓1</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>↓8</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -200,6 +203,9 @@
   </si>
   <si>
     <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
   </si>
   <si>
     <t>Week</t>
@@ -624,13 +630,13 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -639,16 +645,16 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -665,25 +671,25 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
       </c>
       <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
         <v>11</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -694,25 +700,25 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -729,22 +735,22 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
         <v>12</v>
@@ -764,31 +770,31 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -799,25 +805,25 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
         <v>13</v>
@@ -831,28 +837,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
@@ -878,7 +884,7 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -887,7 +893,7 @@
         <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -901,34 +907,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -942,28 +948,28 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>14</v>
       </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
       </c>
       <c r="K11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -981,13 +987,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -998,10 +1004,10 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1009,13 +1015,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1023,13 +1029,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1040,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -1051,13 +1057,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1065,13 +1071,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>5.5</v>
+        <v>6.3</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1082,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -1093,13 +1099,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1107,13 +1113,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1124,7 +1130,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1145,16 +1151,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1165,13 +1171,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>7.1</v>
+        <v>8.1</v>
       </c>
       <c r="D2">
         <v>1.1</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1182,10 +1188,10 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>6.9</v>
+        <v>7.8</v>
       </c>
       <c r="D3">
-        <v>-0.09999999999999964</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -1196,16 +1202,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="D4">
-        <v>-1.3</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1213,16 +1219,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>6.7</v>
       </c>
       <c r="D5">
-        <v>0.7000000000000002</v>
+        <v>-1.3</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1230,16 +1236,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>5.9</v>
+        <v>6.7</v>
       </c>
       <c r="D6">
-        <v>-2.1</v>
+        <v>-1.3</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1247,16 +1253,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="D7">
-        <v>-1.1</v>
+        <v>1.3</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1264,16 +1270,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="D8">
-        <v>0.7999999999999998</v>
+        <v>-2.9</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1284,13 +1290,13 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="D9">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1301,10 +1307,10 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="D10">
-        <v>-1.1</v>
+        <v>-0.7999999999999998</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -1318,10 +1324,10 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="D11">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -1342,40 +1348,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1383,341 +1389,341 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>14.7</v>
+        <v>20.05</v>
       </c>
       <c r="C2">
-        <v>11.07</v>
+        <v>3.52</v>
       </c>
       <c r="D2">
-        <v>19.39</v>
+        <v>1.44</v>
       </c>
       <c r="E2">
-        <v>7.86</v>
+        <v>20.25</v>
       </c>
       <c r="F2">
-        <v>1.33</v>
+        <v>24.25</v>
       </c>
       <c r="G2">
-        <v>9.82</v>
+        <v>3.78</v>
       </c>
       <c r="H2">
-        <v>18.2</v>
+        <v>0.05</v>
       </c>
       <c r="I2">
-        <v>6.43</v>
+        <v>1.83</v>
       </c>
       <c r="J2">
-        <v>2.32</v>
+        <v>12.53</v>
       </c>
       <c r="K2">
-        <v>8.880000000000001</v>
+        <v>12.3</v>
       </c>
       <c r="L2">
-        <v>64.16999999999999</v>
+        <v>73.29000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>14.43</v>
+        <v>18.45</v>
       </c>
       <c r="C3">
-        <v>6.959999999999999</v>
+        <v>8.48</v>
       </c>
       <c r="D3">
-        <v>14.68</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="E3">
-        <v>19.44</v>
+        <v>7.5</v>
       </c>
       <c r="F3">
-        <v>6.1</v>
+        <v>28.78</v>
       </c>
       <c r="G3">
-        <v>2.48</v>
+        <v>12.64</v>
       </c>
       <c r="H3">
-        <v>12.98</v>
+        <v>0.39</v>
       </c>
       <c r="I3">
-        <v>12.75</v>
+        <v>0.7799999999999999</v>
       </c>
       <c r="J3">
-        <v>3.330000000000001</v>
+        <v>8.48</v>
       </c>
       <c r="K3">
-        <v>6.850000000000001</v>
+        <v>13.82</v>
       </c>
       <c r="L3">
-        <v>64.09</v>
+        <v>76.53</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>13.49</v>
+        <v>15.78</v>
       </c>
       <c r="C4">
-        <v>8.01</v>
+        <v>13.92</v>
       </c>
       <c r="D4">
-        <v>8.35</v>
+        <v>2.12</v>
       </c>
       <c r="E4">
-        <v>21.54</v>
+        <v>1.83</v>
       </c>
       <c r="F4">
-        <v>12.43</v>
+        <v>18.13</v>
       </c>
       <c r="G4">
-        <v>2.31</v>
+        <v>25.77</v>
       </c>
       <c r="H4">
-        <v>8.9</v>
+        <v>3.97</v>
       </c>
       <c r="I4">
-        <v>14.01</v>
+        <v>0.22</v>
       </c>
       <c r="J4">
-        <v>4.94</v>
+        <v>4.91</v>
       </c>
       <c r="K4">
-        <v>6.02</v>
+        <v>13.35</v>
       </c>
       <c r="L4">
-        <v>66.13</v>
+        <v>77.55</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>13.02</v>
+        <v>15.35</v>
       </c>
       <c r="C5">
-        <v>7.46</v>
+        <v>0.95</v>
       </c>
       <c r="D5">
-        <v>18.44</v>
+        <v>9.229999999999999</v>
       </c>
       <c r="E5">
-        <v>14.37</v>
+        <v>25.43</v>
       </c>
       <c r="F5">
-        <v>2.08</v>
+        <v>12.64</v>
       </c>
       <c r="G5">
-        <v>5.779999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="H5">
-        <v>17.05</v>
+        <v>0.14</v>
       </c>
       <c r="I5">
-        <v>10.39</v>
+        <v>5.59</v>
       </c>
       <c r="J5">
-        <v>2.55</v>
+        <v>19.8</v>
       </c>
       <c r="K5">
-        <v>8.859999999999999</v>
+        <v>10.36</v>
       </c>
       <c r="L5">
-        <v>61.15</v>
+        <v>64.11000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>12.5</v>
+        <v>10.51</v>
       </c>
       <c r="C6">
-        <v>18.51</v>
+        <v>17.54</v>
       </c>
       <c r="D6">
-        <v>5.91</v>
+        <v>4.68</v>
       </c>
       <c r="E6">
-        <v>9.550000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="F6">
-        <v>23.01</v>
+        <v>7.779999999999999</v>
       </c>
       <c r="G6">
-        <v>10.11</v>
+        <v>26.19</v>
       </c>
       <c r="H6">
-        <v>3.06</v>
+        <v>13.09</v>
       </c>
       <c r="I6">
-        <v>8.640000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="J6">
-        <v>6.08</v>
+        <v>2.92</v>
       </c>
       <c r="K6">
-        <v>2.63</v>
+        <v>16.27</v>
       </c>
       <c r="L6">
-        <v>79.59</v>
+        <v>67.13</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>10.65</v>
+        <v>9.1</v>
       </c>
       <c r="C7">
-        <v>9.98</v>
+        <v>2.31</v>
       </c>
       <c r="D7">
-        <v>4.279999999999999</v>
+        <v>15.33</v>
       </c>
       <c r="E7">
-        <v>17.97</v>
+        <v>20.87</v>
       </c>
       <c r="F7">
-        <v>19.48</v>
+        <v>4.47</v>
       </c>
       <c r="G7">
-        <v>4.51</v>
+        <v>0.02</v>
       </c>
       <c r="H7">
-        <v>6.19</v>
+        <v>1.18</v>
       </c>
       <c r="I7">
-        <v>14.34</v>
+        <v>15.49</v>
       </c>
       <c r="J7">
-        <v>6.75</v>
+        <v>24.25</v>
       </c>
       <c r="K7">
-        <v>5.850000000000001</v>
+        <v>6.98</v>
       </c>
       <c r="L7">
-        <v>66.87</v>
+        <v>52.1</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>8.870000000000001</v>
+        <v>7.08</v>
       </c>
       <c r="C8">
-        <v>11.54</v>
+        <v>22.09</v>
       </c>
       <c r="D8">
-        <v>12.87</v>
+        <v>11.99</v>
       </c>
       <c r="E8">
-        <v>3.15</v>
+        <v>1.09</v>
       </c>
       <c r="F8">
-        <v>3.62</v>
+        <v>2.2</v>
       </c>
       <c r="G8">
-        <v>19.46</v>
+        <v>17.56</v>
       </c>
       <c r="H8">
-        <v>17.55</v>
+        <v>21.55</v>
       </c>
       <c r="I8">
-        <v>2.67</v>
+        <v>4</v>
       </c>
       <c r="J8">
-        <v>5.67</v>
+        <v>0.8699999999999999</v>
       </c>
       <c r="K8">
-        <v>14.6</v>
+        <v>11.57</v>
       </c>
       <c r="L8">
-        <v>59.51</v>
+        <v>62.01000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>6.76</v>
+        <v>3.14</v>
       </c>
       <c r="C9">
-        <v>17.15</v>
+        <v>22.08</v>
       </c>
       <c r="D9">
-        <v>9.030000000000001</v>
+        <v>26.55</v>
       </c>
       <c r="E9">
-        <v>4.23</v>
+        <v>6.34</v>
       </c>
       <c r="F9">
-        <v>20.59</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="G9">
-        <v>18.07</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="H9">
-        <v>4.43</v>
+        <v>18.89</v>
       </c>
       <c r="I9">
-        <v>9.1</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="J9">
-        <v>7.290000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="K9">
-        <v>3.35</v>
+        <v>5.37</v>
       </c>
       <c r="L9">
-        <v>75.83000000000001</v>
+        <v>66.95999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>5.57</v>
+        <v>0.47</v>
       </c>
       <c r="C10">
-        <v>9.289999999999999</v>
+        <v>8.790000000000001</v>
       </c>
       <c r="D10">
-        <v>7.03</v>
+        <v>26.46</v>
       </c>
       <c r="E10">
-        <v>1.74</v>
+        <v>14.78</v>
       </c>
       <c r="F10">
-        <v>9.470000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="G10">
-        <v>24.88</v>
+        <v>4.02</v>
       </c>
       <c r="H10">
-        <v>9.43</v>
+        <v>19.65</v>
       </c>
       <c r="I10">
-        <v>1.76</v>
+        <v>14.99</v>
       </c>
       <c r="J10">
-        <v>13.05</v>
+        <v>2.12</v>
       </c>
       <c r="K10">
-        <v>17.78</v>
+        <v>7.69</v>
       </c>
       <c r="L10">
-        <v>57.98</v>
+        <v>55.55</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1725,37 +1731,37 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>0.01</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="C11">
-        <v>0.03</v>
+        <v>0.32</v>
       </c>
       <c r="D11">
-        <v>0.02</v>
+        <v>1.52</v>
       </c>
       <c r="E11">
+        <v>1.48</v>
+      </c>
+      <c r="F11">
         <v>0.15</v>
       </c>
-      <c r="F11">
-        <v>1.89</v>
-      </c>
       <c r="G11">
-        <v>2.58</v>
+        <v>1.23</v>
       </c>
       <c r="H11">
-        <v>2.21</v>
+        <v>21.09</v>
       </c>
       <c r="I11">
-        <v>19.91</v>
+        <v>48.46</v>
       </c>
       <c r="J11">
-        <v>48.02</v>
+        <v>23.39</v>
       </c>
       <c r="K11">
-        <v>25.18</v>
+        <v>2.29</v>
       </c>
       <c r="L11">
-        <v>4.68</v>
+        <v>4.77</v>
       </c>
     </row>
   </sheetData>
@@ -1773,16 +1779,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1790,16 +1796,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1807,16 +1813,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1824,16 +1830,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1841,16 +1847,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
         <v>5</v>
       </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1858,13 +1864,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>44</v>
@@ -1875,13 +1881,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
@@ -1892,10 +1898,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -1909,13 +1915,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
         <v>47</v>
@@ -1929,13 +1935,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>-25</v>
+        <v>-26</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1952,7 +1958,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1962,343 +1968,367 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>61</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>19</v>
+      </c>
+      <c r="I2">
+        <v>16</v>
+      </c>
+      <c r="J2">
+        <v>18</v>
+      </c>
+      <c r="K2">
+        <v>18</v>
+      </c>
+      <c r="L2">
+        <v>19</v>
+      </c>
+      <c r="M2">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>-4</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>-8</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>-7</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>-13</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>-5</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>-5</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>12</v>
-      </c>
-      <c r="J2">
+      <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="J3">
         <v>6</v>
       </c>
-      <c r="K2">
+      <c r="K3">
         <v>14</v>
       </c>
-      <c r="L2">
+      <c r="L3">
         <v>24</v>
       </c>
-      <c r="M2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
+      <c r="M3">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>-5</v>
+      </c>
+      <c r="C4">
+        <v>-7</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <v>13</v>
+      </c>
+      <c r="N4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>7</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>-1</v>
+      </c>
+      <c r="G6">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="J6">
         <v>4</v>
       </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>16</v>
-      </c>
-      <c r="G3">
-        <v>16</v>
-      </c>
-      <c r="H3">
-        <v>19</v>
-      </c>
-      <c r="I3">
-        <v>16</v>
-      </c>
-      <c r="J3">
-        <v>18</v>
-      </c>
-      <c r="K3">
-        <v>18</v>
-      </c>
-      <c r="L3">
-        <v>19</v>
-      </c>
-      <c r="M3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
+      <c r="K6">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>7</v>
-      </c>
-      <c r="D4">
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>-5</v>
+      </c>
+      <c r="F7">
+        <v>-6</v>
+      </c>
+      <c r="G7">
+        <v>-4</v>
+      </c>
+      <c r="H7">
+        <v>-1</v>
+      </c>
+      <c r="I7">
+        <v>-4</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
         <v>4</v>
       </c>
-      <c r="E4">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <v>13</v>
-      </c>
-      <c r="H4">
-        <v>14</v>
-      </c>
-      <c r="I4">
-        <v>14</v>
-      </c>
-      <c r="J4">
-        <v>16</v>
-      </c>
-      <c r="K4">
-        <v>16</v>
-      </c>
-      <c r="L4">
-        <v>10</v>
-      </c>
-      <c r="M4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>-5</v>
-      </c>
-      <c r="C5">
-        <v>-7</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-      <c r="F5">
+      <c r="N7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5">
-        <v>7</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <v>5</v>
-      </c>
-      <c r="J5">
-        <v>8</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>8</v>
-      </c>
-      <c r="M5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>-1</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>-1</v>
-      </c>
-      <c r="E6">
-        <v>-7</v>
-      </c>
-      <c r="F6">
-        <v>-6</v>
-      </c>
-      <c r="G6">
-        <v>-14</v>
-      </c>
-      <c r="H6">
-        <v>-10</v>
-      </c>
-      <c r="I6">
-        <v>-6</v>
-      </c>
-      <c r="J6">
-        <v>-8</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>6</v>
-      </c>
-      <c r="M6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>8</v>
-      </c>
-      <c r="F7">
-        <v>7</v>
-      </c>
-      <c r="G7">
-        <v>8</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>10</v>
-      </c>
-      <c r="J7">
-        <v>10</v>
-      </c>
-      <c r="K7">
-        <v>7</v>
-      </c>
-      <c r="L7">
-        <v>4</v>
-      </c>
-      <c r="M7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>4</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F8">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>13</v>
+      </c>
+      <c r="H8">
+        <v>14</v>
+      </c>
+      <c r="I8">
+        <v>14</v>
+      </c>
+      <c r="J8">
+        <v>16</v>
+      </c>
+      <c r="K8">
+        <v>16</v>
+      </c>
+      <c r="L8">
+        <v>10</v>
+      </c>
+      <c r="M8">
         <v>-1</v>
       </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>6</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>4</v>
-      </c>
-      <c r="K8">
-        <v>4</v>
-      </c>
-      <c r="L8">
-        <v>2</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -2307,34 +2337,37 @@
         <v>-1</v>
       </c>
       <c r="E9">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="F9">
         <v>-6</v>
       </c>
       <c r="G9">
-        <v>-4</v>
+        <v>-14</v>
       </c>
       <c r="H9">
-        <v>-1</v>
+        <v>-10</v>
       </c>
       <c r="I9">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="J9">
+        <v>-8</v>
+      </c>
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9">
+        <v>-2</v>
+      </c>
+      <c r="N9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2371,11 +2404,14 @@
       <c r="L10">
         <v>-25</v>
       </c>
-      <c r="M10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="M10">
+        <v>-26</v>
+      </c>
+      <c r="N10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -2412,8 +2448,11 @@
       <c r="L11">
         <v>-48</v>
       </c>
-      <c r="M11" t="s">
-        <v>48</v>
+      <c r="M11">
+        <v>-48</v>
+      </c>
+      <c r="N11" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2431,25 +2470,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/0755 Fantasy Football 2024.xlsx
+++ b/0755 Fantasy Football 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="68">
   <si>
     <t>Metcalves of Steele</t>
   </si>
@@ -52,40 +52,37 @@
     <t>It's Britney's Bench</t>
   </si>
   <si>
-    <t>0-12-0</t>
-  </si>
-  <si>
-    <t>5-7-0</t>
-  </si>
-  <si>
-    <t>8-4-0</t>
-  </si>
-  <si>
-    <t>6-6-0</t>
-  </si>
-  <si>
-    <t>7-5-0</t>
-  </si>
-  <si>
-    <t>3-9-0</t>
-  </si>
-  <si>
-    <t>2-10-0</t>
-  </si>
-  <si>
-    <t>9-3-0</t>
-  </si>
-  <si>
-    <t>1-11-0</t>
-  </si>
-  <si>
-    <t>11-1-0</t>
-  </si>
-  <si>
-    <t>10-2-0</t>
-  </si>
-  <si>
-    <t>4-8-0</t>
+    <t>1-12-0</t>
+  </si>
+  <si>
+    <t>6-7-0</t>
+  </si>
+  <si>
+    <t>9-4-0</t>
+  </si>
+  <si>
+    <t>7-6-0</t>
+  </si>
+  <si>
+    <t>8-5-0</t>
+  </si>
+  <si>
+    <t>4-9-0</t>
+  </si>
+  <si>
+    <t>3-10-0</t>
+  </si>
+  <si>
+    <t>10-3-0</t>
+  </si>
+  <si>
+    <t>2-11-0</t>
+  </si>
+  <si>
+    <t>11-2-0</t>
+  </si>
+  <si>
+    <t>5-8-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -145,30 +142,27 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑7</t>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓10</t>
   </si>
   <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓11</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -206,6 +200,9 @@
   </si>
   <si>
     <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
   </si>
   <si>
     <t>Week</t>
@@ -636,7 +633,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -645,7 +642,7 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
         <v>16</v>
@@ -671,7 +668,7 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -686,7 +683,7 @@
         <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s">
         <v>11</v>
@@ -709,13 +706,13 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
         <v>14</v>
@@ -724,7 +721,7 @@
         <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -735,13 +732,13 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -750,16 +747,16 @@
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -767,34 +764,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -805,13 +802,13 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -820,16 +817,16 @@
         <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -840,13 +837,13 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
         <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -855,16 +852,16 @@
         <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
         <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -913,10 +910,10 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -925,16 +922,16 @@
         <v>15</v>
       </c>
       <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s">
         <v>16</v>
-      </c>
-      <c r="I10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -942,34 +939,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -987,13 +984,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1004,10 +1001,10 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1015,13 +1012,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1029,13 +1026,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>5.3</v>
+        <v>6.1</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1046,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.5</v>
+        <v>6.3</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -1060,7 +1057,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -1071,13 +1068,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1088,7 +1085,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -1099,13 +1096,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1113,13 +1110,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1127,13 +1124,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1151,16 +1148,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1171,10 +1168,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>8.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D2">
-        <v>1.1</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -1188,13 +1185,13 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>7.8</v>
+        <v>8.1</v>
       </c>
       <c r="D3">
-        <v>-0.2000000000000002</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1205,13 +1202,13 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="D4">
-        <v>0.4000000000000004</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1222,10 +1219,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>6.7</v>
+        <v>7.6</v>
       </c>
       <c r="D5">
-        <v>-1.3</v>
+        <v>-1.4</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1236,16 +1233,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="D6">
-        <v>-1.3</v>
+        <v>-2.9</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1253,16 +1250,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="D7">
-        <v>1.3</v>
+        <v>-1.3</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1270,16 +1267,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="D8">
-        <v>-2.9</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1290,13 +1287,13 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="D9">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1307,13 +1304,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="D10">
-        <v>-0.7999999999999998</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1324,10 +1321,10 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="D11">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -1348,420 +1345,420 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>20.05</v>
+        <v>30.43</v>
       </c>
       <c r="C2">
-        <v>3.52</v>
+        <v>0.37</v>
       </c>
       <c r="D2">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>20.25</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>24.25</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>3.78</v>
+        <v>1.68</v>
       </c>
       <c r="H2">
-        <v>0.05</v>
+        <v>67.52</v>
       </c>
       <c r="I2">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>12.53</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>12.3</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>73.29000000000001</v>
+        <v>32.48</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>18.45</v>
+        <v>28.72</v>
       </c>
       <c r="C3">
-        <v>8.48</v>
+        <v>8.93</v>
       </c>
       <c r="D3">
-        <v>0.6799999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="E3">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>28.78</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>12.64</v>
+        <v>0.33</v>
       </c>
       <c r="H3">
-        <v>0.39</v>
+        <v>23.18</v>
       </c>
       <c r="I3">
-        <v>0.7799999999999999</v>
+        <v>38.8</v>
       </c>
       <c r="J3">
-        <v>8.48</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>13.82</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>76.53</v>
+        <v>38.02</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>15.78</v>
+        <v>23.61</v>
       </c>
       <c r="C4">
-        <v>13.92</v>
+        <v>22.2</v>
       </c>
       <c r="D4">
-        <v>2.12</v>
+        <v>2.58</v>
       </c>
       <c r="E4">
-        <v>1.83</v>
+        <v>0.01</v>
       </c>
       <c r="F4">
-        <v>18.13</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>25.77</v>
+        <v>0.03</v>
       </c>
       <c r="H4">
-        <v>3.97</v>
+        <v>6.68</v>
       </c>
       <c r="I4">
-        <v>0.22</v>
+        <v>29.7</v>
       </c>
       <c r="J4">
-        <v>4.91</v>
+        <v>15.19</v>
       </c>
       <c r="K4">
-        <v>13.35</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>77.55</v>
+        <v>48.43</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>15.35</v>
+        <v>11.76</v>
       </c>
       <c r="C5">
-        <v>0.95</v>
+        <v>29.2</v>
       </c>
       <c r="D5">
-        <v>9.229999999999999</v>
+        <v>10.09</v>
       </c>
       <c r="E5">
-        <v>25.43</v>
+        <v>0.46</v>
       </c>
       <c r="F5">
-        <v>12.64</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.51</v>
+        <v>0.01</v>
       </c>
       <c r="H5">
-        <v>0.14</v>
+        <v>2.15</v>
       </c>
       <c r="I5">
-        <v>5.59</v>
+        <v>18.79</v>
       </c>
       <c r="J5">
-        <v>19.8</v>
+        <v>24.11</v>
       </c>
       <c r="K5">
-        <v>10.36</v>
+        <v>3.43</v>
       </c>
       <c r="L5">
-        <v>64.11000000000001</v>
+        <v>51.52</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>10.51</v>
+        <v>3.43</v>
       </c>
       <c r="C6">
-        <v>17.54</v>
+        <v>25.86</v>
       </c>
       <c r="D6">
-        <v>4.68</v>
+        <v>22.11</v>
       </c>
       <c r="E6">
-        <v>0.43</v>
+        <v>2.87</v>
       </c>
       <c r="F6">
-        <v>7.779999999999999</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="G6">
-        <v>26.19</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>13.09</v>
+        <v>0.4</v>
       </c>
       <c r="I6">
-        <v>0.59</v>
+        <v>9.370000000000001</v>
       </c>
       <c r="J6">
-        <v>2.92</v>
+        <v>25.88</v>
       </c>
       <c r="K6">
-        <v>16.27</v>
+        <v>10.01</v>
       </c>
       <c r="L6">
-        <v>67.13</v>
+        <v>54.34</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>9.1</v>
+        <v>2.05</v>
       </c>
       <c r="C7">
-        <v>2.31</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>15.33</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>20.87</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>4.47</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.02</v>
+        <v>97.95</v>
       </c>
       <c r="H7">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>15.49</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>24.25</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>6.98</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>52.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>7.08</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>22.09</v>
+        <v>13.44</v>
       </c>
       <c r="D8">
-        <v>11.99</v>
+        <v>34.22</v>
       </c>
       <c r="E8">
-        <v>1.09</v>
+        <v>11.52</v>
       </c>
       <c r="F8">
-        <v>2.2</v>
+        <v>0.42</v>
       </c>
       <c r="G8">
-        <v>17.56</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>21.55</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>2.85</v>
       </c>
       <c r="J8">
-        <v>0.8699999999999999</v>
+        <v>19.96</v>
       </c>
       <c r="K8">
-        <v>11.57</v>
+        <v>17.52</v>
       </c>
       <c r="L8">
-        <v>62.01000000000001</v>
+        <v>59.59999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>3.14</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>22.08</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>26.55</v>
+        <v>30.96</v>
       </c>
       <c r="E9">
-        <v>6.34</v>
+        <v>30.69</v>
       </c>
       <c r="F9">
-        <v>0.5700000000000001</v>
+        <v>3.51</v>
       </c>
       <c r="G9">
-        <v>8.279999999999999</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>18.89</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>8.050000000000001</v>
+        <v>0.49</v>
       </c>
       <c r="J9">
-        <v>0.73</v>
+        <v>10.86</v>
       </c>
       <c r="K9">
-        <v>5.37</v>
+        <v>23.49</v>
       </c>
       <c r="L9">
-        <v>66.95999999999999</v>
+        <v>65.16</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>8.790000000000001</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>26.46</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>14.78</v>
+        <v>54.45</v>
       </c>
       <c r="F10">
-        <v>1.03</v>
+        <v>23.77</v>
       </c>
       <c r="G10">
-        <v>4.02</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>19.65</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>14.99</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>2.12</v>
+        <v>4</v>
       </c>
       <c r="K10">
-        <v>7.69</v>
+        <v>17.78</v>
       </c>
       <c r="L10">
-        <v>55.55</v>
+        <v>78.22</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>0.06999999999999999</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.15</v>
+        <v>72.23</v>
       </c>
       <c r="G11">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>21.09</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>48.46</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>23.39</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>2.29</v>
+        <v>27.77</v>
       </c>
       <c r="L11">
-        <v>4.77</v>
+        <v>72.23</v>
       </c>
     </row>
   </sheetData>
@@ -1779,16 +1776,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1799,13 +1796,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1816,13 +1813,13 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1830,16 +1827,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1847,13 +1844,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
         <v>42</v>
@@ -1864,16 +1861,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1881,16 +1878,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1898,16 +1895,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1915,16 +1912,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>-2</v>
+        <v>-11</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1935,13 +1932,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>-26</v>
+        <v>-25</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1958,7 +1955,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1968,54 +1965,57 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2055,11 +2055,14 @@
       <c r="M2">
         <v>26</v>
       </c>
-      <c r="N2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="N2">
+        <v>30</v>
+      </c>
+      <c r="O2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2099,275 +2102,296 @@
       <c r="M3">
         <v>25</v>
       </c>
-      <c r="N3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="N3">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
         <v>-5</v>
       </c>
-      <c r="C4">
-        <v>-7</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>7</v>
-      </c>
       <c r="F4">
+        <v>-6</v>
+      </c>
+      <c r="G4">
+        <v>-4</v>
+      </c>
+      <c r="H4">
+        <v>-1</v>
+      </c>
+      <c r="I4">
+        <v>-4</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <v>4</v>
       </c>
-      <c r="G4">
-        <v>7</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4">
+      <c r="N4">
         <v>8</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>8</v>
-      </c>
-      <c r="M4">
-        <v>13</v>
-      </c>
-      <c r="N4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M5">
         <v>5</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5">
+        <v>7</v>
+      </c>
+      <c r="O5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
         <v>4</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <v>13</v>
+      </c>
+      <c r="N6">
+        <v>6</v>
+      </c>
+      <c r="O6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>7</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>-1</v>
       </c>
-      <c r="G6">
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8">
+        <v>-7</v>
+      </c>
+      <c r="F8">
+        <v>-6</v>
+      </c>
+      <c r="G8">
+        <v>-14</v>
+      </c>
+      <c r="H8">
+        <v>-10</v>
+      </c>
+      <c r="I8">
+        <v>-6</v>
+      </c>
+      <c r="J8">
+        <v>-8</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="H6">
+      <c r="L8">
         <v>6</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
+      <c r="M8">
+        <v>-2</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K6">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
         <v>4</v>
       </c>
-      <c r="L6">
-        <v>2</v>
-      </c>
-      <c r="M6">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
+      <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>13</v>
+      </c>
+      <c r="H9">
+        <v>14</v>
+      </c>
+      <c r="I9">
+        <v>14</v>
+      </c>
+      <c r="J9">
+        <v>16</v>
+      </c>
+      <c r="K9">
+        <v>16</v>
+      </c>
+      <c r="L9">
+        <v>10</v>
+      </c>
+      <c r="M9">
         <v>-1</v>
       </c>
-      <c r="E7">
-        <v>-5</v>
-      </c>
-      <c r="F7">
-        <v>-6</v>
-      </c>
-      <c r="G7">
-        <v>-4</v>
-      </c>
-      <c r="H7">
-        <v>-1</v>
-      </c>
-      <c r="I7">
-        <v>-4</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="N9">
+        <v>-11</v>
+      </c>
+      <c r="O9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <v>12</v>
-      </c>
-      <c r="F8">
-        <v>11</v>
-      </c>
-      <c r="G8">
-        <v>13</v>
-      </c>
-      <c r="H8">
-        <v>14</v>
-      </c>
-      <c r="I8">
-        <v>14</v>
-      </c>
-      <c r="J8">
-        <v>16</v>
-      </c>
-      <c r="K8">
-        <v>16</v>
-      </c>
-      <c r="L8">
-        <v>10</v>
-      </c>
-      <c r="M8">
-        <v>-1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>-1</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>-1</v>
-      </c>
-      <c r="E9">
-        <v>-7</v>
-      </c>
-      <c r="F9">
-        <v>-6</v>
-      </c>
-      <c r="G9">
-        <v>-14</v>
-      </c>
-      <c r="H9">
-        <v>-10</v>
-      </c>
-      <c r="I9">
-        <v>-6</v>
-      </c>
-      <c r="J9">
-        <v>-8</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>6</v>
-      </c>
-      <c r="M9">
-        <v>-2</v>
-      </c>
-      <c r="N9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2407,11 +2431,14 @@
       <c r="M10">
         <v>-26</v>
       </c>
-      <c r="N10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="N10">
+        <v>-25</v>
+      </c>
+      <c r="O10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -2451,8 +2478,11 @@
       <c r="M11">
         <v>-48</v>
       </c>
-      <c r="N11" t="s">
-        <v>49</v>
+      <c r="N11">
+        <v>-48</v>
+      </c>
+      <c r="O11" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2462,7 +2492,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2470,25 +2500,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2496,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>-23</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>-48</v>
       </c>
       <c r="G2">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2522,25 +2552,25 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
       <c r="E3">
-        <v>-5</v>
+        <v>-23</v>
       </c>
       <c r="F3">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2548,25 +2578,25 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="F4">
         <v>16</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2574,25 +2604,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E5">
+        <v>-4</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
         <v>1</v>
-      </c>
-      <c r="F5">
-        <v>-13</v>
-      </c>
-      <c r="G5">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2600,25 +2630,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="F6">
-        <v>-6</v>
+        <v>8</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2626,25 +2656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>19</v>
+        <v>-13</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2652,25 +2682,25 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>-6</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2678,22 +2708,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>14</v>
-      </c>
       <c r="F9">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
         <v>7</v>
@@ -2704,25 +2734,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F10">
-        <v>-6</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2730,25 +2760,25 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
         <v>6</v>
       </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11">
+        <v>14</v>
+      </c>
+      <c r="F11">
         <v>2</v>
       </c>
-      <c r="F11">
-        <v>-8</v>
-      </c>
       <c r="G11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2756,25 +2786,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12">
-        <v>-8</v>
+        <v>5</v>
       </c>
       <c r="F12">
-        <v>-18</v>
+        <v>-6</v>
       </c>
       <c r="G12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2782,51 +2812,25 @@
         <v>11</v>
       </c>
       <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
         <v>3</v>
       </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
       <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
         <v>2</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
       <c r="F13">
+        <v>-8</v>
+      </c>
+      <c r="G13">
         <v>10</v>
       </c>
-      <c r="G13">
-        <v>9</v>
-      </c>
       <c r="H13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>-10</v>
-      </c>
-      <c r="F14">
-        <v>-1</v>
-      </c>
-      <c r="G14">
-        <v>9</v>
-      </c>
-      <c r="H14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/0755 Fantasy Football 2024.xlsx
+++ b/0755 Fantasy Football 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="71">
   <si>
     <t>Metcalves of Steele</t>
   </si>
@@ -52,37 +52,40 @@
     <t>It's Britney's Bench</t>
   </si>
   <si>
-    <t>1-12-0</t>
-  </si>
-  <si>
-    <t>6-7-0</t>
-  </si>
-  <si>
-    <t>9-4-0</t>
-  </si>
-  <si>
-    <t>7-6-0</t>
-  </si>
-  <si>
-    <t>8-5-0</t>
-  </si>
-  <si>
-    <t>4-9-0</t>
-  </si>
-  <si>
-    <t>3-10-0</t>
-  </si>
-  <si>
-    <t>10-3-0</t>
-  </si>
-  <si>
-    <t>2-11-0</t>
-  </si>
-  <si>
-    <t>11-2-0</t>
-  </si>
-  <si>
-    <t>5-8-0</t>
+    <t>1-13-0</t>
+  </si>
+  <si>
+    <t>7-7-0</t>
+  </si>
+  <si>
+    <t>10-4-0</t>
+  </si>
+  <si>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>6-8-0</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>3-11-0</t>
+  </si>
+  <si>
+    <t>11-3-0</t>
+  </si>
+  <si>
+    <t>2-12-0</t>
+  </si>
+  <si>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>12-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -142,28 +145,31 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↑3</t>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓2</t>
   </si>
   <si>
     <t>↑2</t>
   </si>
   <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓10</t>
+    <t>↓1</t>
   </si>
   <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>0</t>
+    <t>↓6</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -203,6 +209,9 @@
   </si>
   <si>
     <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
   </si>
   <si>
     <t>Week</t>
@@ -627,31 +636,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -665,28 +674,28 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
       </c>
       <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
         <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -697,31 +706,31 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
         <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -729,34 +738,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -764,34 +773,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="I6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" t="s">
-        <v>13</v>
-      </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -799,19 +808,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -820,13 +829,13 @@
         <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -834,31 +843,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
         <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
       </c>
       <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
         <v>13</v>
       </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K8" t="s">
         <v>11</v>
@@ -869,28 +878,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -904,34 +913,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s">
         <v>20</v>
-      </c>
-      <c r="J10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -939,34 +948,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
         <v>16</v>
       </c>
-      <c r="E11" t="s">
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
         <v>14</v>
       </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" t="s">
-        <v>20</v>
-      </c>
       <c r="K11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -984,13 +993,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1001,10 +1010,10 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1015,10 +1024,10 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1026,13 +1035,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1043,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -1054,13 +1063,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1068,13 +1077,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1082,13 +1091,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1096,13 +1105,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>6.9</v>
+        <v>7.7</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1113,10 +1122,10 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1127,10 +1136,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1148,16 +1157,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1168,13 +1177,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>8.800000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D2">
-        <v>0.8000000000000007</v>
+        <v>1.300000000000001</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1182,16 +1191,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>8.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D3">
-        <v>0.09999999999999964</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1199,16 +1208,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>7.8</v>
+        <v>8.1</v>
       </c>
       <c r="D4">
-        <v>0.7999999999999998</v>
+        <v>-1.9</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1216,16 +1225,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>7.6</v>
+        <v>8.1</v>
       </c>
       <c r="D5">
-        <v>-1.4</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1236,13 +1245,13 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
       <c r="D6">
-        <v>-2.9</v>
+        <v>-3.2</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1250,16 +1259,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="D7">
-        <v>-1.3</v>
+        <v>0.5</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1267,16 +1276,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="D8">
-        <v>0.5999999999999996</v>
+        <v>-1.1</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1287,13 +1296,13 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="D9">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1304,13 +1313,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="D10">
-        <v>-0.2999999999999998</v>
+        <v>-0.5</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1321,10 +1330,10 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="D11">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -1345,40 +1354,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1386,10 +1395,10 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>30.43</v>
+        <v>34.39</v>
       </c>
       <c r="C2">
-        <v>0.37</v>
+        <v>0.23</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1401,10 +1410,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.68</v>
+        <v>1.13</v>
       </c>
       <c r="H2">
-        <v>67.52</v>
+        <v>64.25</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1416,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>32.48</v>
+        <v>35.75</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1424,13 +1433,13 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>28.72</v>
+        <v>26.85</v>
       </c>
       <c r="C3">
-        <v>8.93</v>
+        <v>9.15</v>
       </c>
       <c r="D3">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1439,13 +1448,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="H3">
-        <v>23.18</v>
+        <v>26.37</v>
       </c>
       <c r="I3">
-        <v>38.8</v>
+        <v>37.4</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1454,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>38.02</v>
+        <v>36.23</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1462,16 +1471,16 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>23.61</v>
+        <v>22.03</v>
       </c>
       <c r="C4">
-        <v>22.2</v>
+        <v>21.67</v>
       </c>
       <c r="D4">
-        <v>2.58</v>
+        <v>2.33</v>
       </c>
       <c r="E4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1480,19 +1489,19 @@
         <v>0.03</v>
       </c>
       <c r="H4">
-        <v>6.68</v>
+        <v>7.02</v>
       </c>
       <c r="I4">
-        <v>29.7</v>
+        <v>31.55</v>
       </c>
       <c r="J4">
-        <v>15.19</v>
+        <v>15.37</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>48.43</v>
+        <v>46.06</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1500,75 +1509,75 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>11.76</v>
+        <v>11.84</v>
       </c>
       <c r="C5">
-        <v>29.2</v>
+        <v>29.25</v>
       </c>
       <c r="D5">
-        <v>10.09</v>
+        <v>10.02</v>
       </c>
       <c r="E5">
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="I5">
-        <v>18.79</v>
+        <v>18.67</v>
       </c>
       <c r="J5">
-        <v>24.11</v>
+        <v>24.33</v>
       </c>
       <c r="K5">
-        <v>3.43</v>
+        <v>3.53</v>
       </c>
       <c r="L5">
-        <v>51.52</v>
+        <v>51.49</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>3.43</v>
+        <v>3.53</v>
       </c>
       <c r="C6">
-        <v>25.86</v>
+        <v>26.19</v>
       </c>
       <c r="D6">
-        <v>22.11</v>
+        <v>23.21</v>
       </c>
       <c r="E6">
-        <v>2.87</v>
+        <v>3.47</v>
       </c>
       <c r="F6">
-        <v>0.06999999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="I6">
-        <v>9.370000000000001</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="J6">
-        <v>25.88</v>
+        <v>24.71</v>
       </c>
       <c r="K6">
-        <v>10.01</v>
+        <v>9.98</v>
       </c>
       <c r="L6">
-        <v>54.34</v>
+        <v>56.41</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1576,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>2.05</v>
+        <v>1.36</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1591,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>97.95</v>
+        <v>98.64</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1611,45 +1620,45 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>13.44</v>
+        <v>13.51</v>
       </c>
       <c r="D8">
-        <v>34.22</v>
+        <v>32.92</v>
       </c>
       <c r="E8">
-        <v>11.52</v>
+        <v>11.43</v>
       </c>
       <c r="F8">
-        <v>0.42</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.06999999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="I8">
-        <v>2.85</v>
+        <v>3.27</v>
       </c>
       <c r="J8">
-        <v>19.96</v>
+        <v>20.31</v>
       </c>
       <c r="K8">
-        <v>17.52</v>
+        <v>17.98</v>
       </c>
       <c r="L8">
-        <v>59.59999999999999</v>
+        <v>58.43</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1658,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>30.96</v>
+        <v>31.49</v>
       </c>
       <c r="E9">
-        <v>30.69</v>
+        <v>27.7</v>
       </c>
       <c r="F9">
-        <v>3.51</v>
+        <v>3.02</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1673,16 +1682,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.49</v>
+        <v>0.58</v>
       </c>
       <c r="J9">
-        <v>10.86</v>
+        <v>11.68</v>
       </c>
       <c r="K9">
-        <v>23.49</v>
+        <v>25.53</v>
       </c>
       <c r="L9">
-        <v>65.16</v>
+        <v>62.21000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1699,10 +1708,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>54.45</v>
+        <v>57.02</v>
       </c>
       <c r="F10">
-        <v>23.77</v>
+        <v>18.36</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1714,13 +1723,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="K10">
-        <v>17.78</v>
+        <v>21.02</v>
       </c>
       <c r="L10">
-        <v>78.22</v>
+        <v>75.38000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1740,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>72.23</v>
+        <v>78.03999999999999</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1755,10 +1764,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>27.77</v>
+        <v>21.96</v>
       </c>
       <c r="L11">
-        <v>72.23</v>
+        <v>78.03999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1776,16 +1785,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1796,13 +1805,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1813,13 +1822,13 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1827,16 +1836,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1844,16 +1853,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1861,16 +1870,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1878,16 +1887,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1895,16 +1904,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1915,13 +1924,13 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1932,13 +1941,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>-25</v>
+        <v>-24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1949,13 +1958,13 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>-48</v>
+        <v>-54</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1965,57 +1974,60 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+        <v>63</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2058,11 +2070,14 @@
       <c r="N2">
         <v>30</v>
       </c>
-      <c r="O2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="O2">
+        <v>35</v>
+      </c>
+      <c r="P2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2105,246 +2120,264 @@
       <c r="N3">
         <v>28</v>
       </c>
-      <c r="O3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="O3">
+        <v>35</v>
+      </c>
+      <c r="P3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>-5</v>
+      </c>
+      <c r="C4">
+        <v>-7</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <v>13</v>
+      </c>
+      <c r="N4">
+        <v>6</v>
+      </c>
+      <c r="O4">
+        <v>6</v>
+      </c>
+      <c r="P4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>-1</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>-5</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>-6</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>-4</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>-1</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>-4</v>
       </c>
-      <c r="J4">
+      <c r="J5">
         <v>2</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
         <v>4</v>
       </c>
-      <c r="N4">
+      <c r="N5">
         <v>8</v>
       </c>
-      <c r="O4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1" t="s">
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>4</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>-1</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>2</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>6</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>4</v>
       </c>
-      <c r="K5">
+      <c r="K6">
         <v>4</v>
       </c>
-      <c r="L5">
+      <c r="L6">
         <v>2</v>
       </c>
-      <c r="M5">
+      <c r="M6">
         <v>5</v>
       </c>
-      <c r="N5">
-        <v>7</v>
-      </c>
-      <c r="O5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1" t="s">
+      <c r="N6">
+        <v>7</v>
+      </c>
+      <c r="O6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>-5</v>
-      </c>
-      <c r="C6">
+      <c r="P6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>-1</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
         <v>-7</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>7</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>7</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6">
-        <v>8</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>8</v>
-      </c>
-      <c r="M6">
-        <v>13</v>
-      </c>
-      <c r="N6">
+      <c r="F7">
+        <v>-6</v>
+      </c>
+      <c r="G7">
+        <v>-14</v>
+      </c>
+      <c r="H7">
+        <v>-10</v>
+      </c>
+      <c r="I7">
+        <v>-6</v>
+      </c>
+      <c r="J7">
+        <v>-8</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
         <v>6</v>
       </c>
-      <c r="O6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>8</v>
-      </c>
-      <c r="F7">
-        <v>7</v>
-      </c>
-      <c r="G7">
-        <v>8</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>10</v>
-      </c>
-      <c r="J7">
-        <v>10</v>
-      </c>
-      <c r="K7">
-        <v>7</v>
-      </c>
-      <c r="L7">
-        <v>4</v>
-      </c>
       <c r="M7">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="N7">
         <v>2</v>
       </c>
-      <c r="O7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
         <v>5</v>
-      </c>
-      <c r="D8">
-        <v>-1</v>
-      </c>
-      <c r="E8">
-        <v>-7</v>
-      </c>
-      <c r="F8">
-        <v>-6</v>
-      </c>
-      <c r="G8">
-        <v>-14</v>
-      </c>
-      <c r="H8">
-        <v>-10</v>
-      </c>
-      <c r="I8">
-        <v>-6</v>
-      </c>
-      <c r="J8">
-        <v>-8</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>6</v>
-      </c>
-      <c r="M8">
-        <v>-2</v>
       </c>
       <c r="N8">
         <v>2</v>
       </c>
-      <c r="O8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -2387,11 +2420,14 @@
       <c r="N9">
         <v>-11</v>
       </c>
-      <c r="O9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="O9">
+        <v>-12</v>
+      </c>
+      <c r="P9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2434,11 +2470,14 @@
       <c r="N10">
         <v>-25</v>
       </c>
-      <c r="O10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="O10">
+        <v>-24</v>
+      </c>
+      <c r="P10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -2481,8 +2520,11 @@
       <c r="N11">
         <v>-48</v>
       </c>
-      <c r="O11" t="s">
-        <v>47</v>
+      <c r="O11">
+        <v>-54</v>
+      </c>
+      <c r="P11" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2500,25 +2542,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2786,25 +2828,25 @@
         <v>10</v>
       </c>
       <c r="B12">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
       <c r="E12">
-        <v>5</v>
+        <v>-12</v>
       </c>
       <c r="F12">
-        <v>-6</v>
+        <v>-24</v>
       </c>
       <c r="G12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2812,25 +2854,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F13">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/0755 Fantasy Football 2024.xlsx
+++ b/0755 Fantasy Football 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="74">
   <si>
     <t>Metcalves of Steele</t>
   </si>
@@ -52,40 +52,46 @@
     <t>It's Britney's Bench</t>
   </si>
   <si>
-    <t>1-13-0</t>
-  </si>
-  <si>
-    <t>7-7-0</t>
-  </si>
-  <si>
-    <t>10-4-0</t>
-  </si>
-  <si>
-    <t>9-5-0</t>
-  </si>
-  <si>
-    <t>6-8-0</t>
-  </si>
-  <si>
-    <t>8-6-0</t>
-  </si>
-  <si>
-    <t>5-9-0</t>
-  </si>
-  <si>
-    <t>3-11-0</t>
-  </si>
-  <si>
-    <t>11-3-0</t>
-  </si>
-  <si>
-    <t>2-12-0</t>
-  </si>
-  <si>
-    <t>4-10-0</t>
-  </si>
-  <si>
-    <t>12-2-0</t>
+    <t>2-13-0</t>
+  </si>
+  <si>
+    <t>8-7-0</t>
+  </si>
+  <si>
+    <t>11-4-0</t>
+  </si>
+  <si>
+    <t>9-6-0</t>
+  </si>
+  <si>
+    <t>7-8-0</t>
+  </si>
+  <si>
+    <t>5-10-0</t>
+  </si>
+  <si>
+    <t>6-9-0</t>
+  </si>
+  <si>
+    <t>3-12-0</t>
+  </si>
+  <si>
+    <t>10-4-1</t>
+  </si>
+  <si>
+    <t>12-3-0</t>
+  </si>
+  <si>
+    <t>10-5-0</t>
+  </si>
+  <si>
+    <t>4-11-0</t>
+  </si>
+  <si>
+    <t>11-3-1</t>
+  </si>
+  <si>
+    <t>13-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -145,31 +151,31 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↑7</t>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↑3</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>↓3</t>
+    <t>↓5</t>
   </si>
   <si>
     <t>↓2</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↓6</t>
+    <t>↓7</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -212,6 +218,9 @@
   </si>
   <si>
     <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
   </si>
   <si>
     <t>Week</t>
@@ -639,28 +648,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -671,13 +680,13 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -686,13 +695,13 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
         <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
         <v>14</v>
@@ -706,31 +715,31 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -744,28 +753,28 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -776,31 +785,31 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s">
         <v>15</v>
-      </c>
-      <c r="K6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -808,34 +817,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -846,13 +855,13 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -861,7 +870,7 @@
         <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I8" t="s">
         <v>13</v>
@@ -870,7 +879,7 @@
         <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -878,28 +887,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -913,34 +922,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>14</v>
       </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
       <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
         <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
       </c>
       <c r="H10" t="s">
         <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -948,16 +957,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -966,13 +975,13 @@
         <v>14</v>
       </c>
       <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" t="s">
         <v>16</v>
-      </c>
-      <c r="I11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" t="s">
-        <v>14</v>
       </c>
       <c r="K11" t="s">
         <v>17</v>
@@ -993,13 +1002,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1010,7 +1019,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -1024,10 +1033,10 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1038,10 +1047,10 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1052,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -1063,13 +1072,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1077,13 +1086,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1091,13 +1100,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1108,10 +1117,10 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1119,13 +1128,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>7.7</v>
+        <v>8.1</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1136,10 +1145,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>7.9</v>
+        <v>8.6</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1157,16 +1166,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1177,13 +1186,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>9.300000000000001</v>
+        <v>10.3</v>
       </c>
       <c r="D2">
         <v>1.300000000000001</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1194,13 +1203,13 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>0.8000000000000007</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1211,13 +1220,13 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>8.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D4">
-        <v>-1.9</v>
+        <v>-1.300000000000001</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1225,16 +1234,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>8.1</v>
+        <v>8.6</v>
       </c>
       <c r="D5">
-        <v>0.09999999999999964</v>
+        <v>-2.4</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1242,16 +1251,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D6">
-        <v>-3.2</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1262,10 +1271,10 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -1279,13 +1288,13 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>6.9</v>
+        <v>7.7</v>
       </c>
       <c r="D8">
-        <v>-1.1</v>
+        <v>-1.3</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1296,10 +1305,10 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="D9">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
@@ -1319,7 +1328,7 @@
         <v>-0.5</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1330,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -1354,40 +1363,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1395,10 +1404,10 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>34.39</v>
+        <v>34.03</v>
       </c>
       <c r="C2">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1410,10 +1419,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.13</v>
+        <v>1.26</v>
       </c>
       <c r="H2">
-        <v>64.25</v>
+        <v>64.45999999999999</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1425,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>35.75</v>
+        <v>35.54</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1433,13 +1442,13 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>26.85</v>
+        <v>26.41</v>
       </c>
       <c r="C3">
-        <v>9.15</v>
+        <v>9.180000000000001</v>
       </c>
       <c r="D3">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1451,10 +1460,10 @@
         <v>0.2</v>
       </c>
       <c r="H3">
-        <v>26.37</v>
+        <v>26.11</v>
       </c>
       <c r="I3">
-        <v>37.4</v>
+        <v>38.05</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1463,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>36.23</v>
+        <v>35.84</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1471,13 +1480,13 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>22.03</v>
+        <v>22.76</v>
       </c>
       <c r="C4">
-        <v>21.67</v>
+        <v>21.6</v>
       </c>
       <c r="D4">
-        <v>2.33</v>
+        <v>2.53</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1486,22 +1495,22 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="H4">
-        <v>7.02</v>
+        <v>6.850000000000001</v>
       </c>
       <c r="I4">
-        <v>31.55</v>
+        <v>30.92</v>
       </c>
       <c r="J4">
-        <v>15.37</v>
+        <v>15.29</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>46.06</v>
+        <v>46.94</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1509,16 +1518,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>11.84</v>
+        <v>11.62</v>
       </c>
       <c r="C5">
-        <v>29.25</v>
+        <v>28.74</v>
       </c>
       <c r="D5">
-        <v>10.02</v>
+        <v>10.23</v>
       </c>
       <c r="E5">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1527,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.98</v>
+        <v>2.14</v>
       </c>
       <c r="I5">
-        <v>18.67</v>
+        <v>18.22</v>
       </c>
       <c r="J5">
-        <v>24.33</v>
+        <v>24.94</v>
       </c>
       <c r="K5">
-        <v>3.53</v>
+        <v>3.67</v>
       </c>
       <c r="L5">
-        <v>51.49</v>
+        <v>51.03</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1547,19 +1556,19 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>3.53</v>
+        <v>3.67</v>
       </c>
       <c r="C6">
-        <v>26.19</v>
+        <v>27.22</v>
       </c>
       <c r="D6">
-        <v>23.21</v>
+        <v>22.99</v>
       </c>
       <c r="E6">
-        <v>3.47</v>
+        <v>3.07</v>
       </c>
       <c r="F6">
-        <v>0.01</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1568,16 +1577,16 @@
         <v>0.37</v>
       </c>
       <c r="I6">
-        <v>8.529999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J6">
-        <v>24.71</v>
+        <v>23.97</v>
       </c>
       <c r="K6">
-        <v>9.98</v>
+        <v>9.34</v>
       </c>
       <c r="L6">
-        <v>56.41</v>
+        <v>57.02</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1585,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>1.36</v>
+        <v>1.51</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1600,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>98.64</v>
+        <v>98.48999999999999</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1626,34 +1635,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>13.51</v>
+        <v>13.01</v>
       </c>
       <c r="D8">
-        <v>32.92</v>
+        <v>33.09</v>
       </c>
       <c r="E8">
-        <v>11.43</v>
+        <v>11.11</v>
       </c>
       <c r="F8">
-        <v>0.5700000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.01</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="I8">
-        <v>3.27</v>
+        <v>3.04</v>
       </c>
       <c r="J8">
-        <v>20.31</v>
+        <v>21.18</v>
       </c>
       <c r="K8">
-        <v>17.98</v>
+        <v>18.1</v>
       </c>
       <c r="L8">
-        <v>58.43</v>
+        <v>57.61</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1667,13 +1676,13 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>31.49</v>
+        <v>31.11</v>
       </c>
       <c r="E9">
-        <v>27.7</v>
+        <v>28.7</v>
       </c>
       <c r="F9">
-        <v>3.02</v>
+        <v>3.03</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1682,16 +1691,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.58</v>
+        <v>0.47</v>
       </c>
       <c r="J9">
-        <v>11.68</v>
+        <v>11.12</v>
       </c>
       <c r="K9">
-        <v>25.53</v>
+        <v>25.57</v>
       </c>
       <c r="L9">
-        <v>62.21000000000001</v>
+        <v>62.84</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1708,10 +1717,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>57.02</v>
+        <v>56.68</v>
       </c>
       <c r="F10">
-        <v>18.36</v>
+        <v>17.85</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1723,13 +1732,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K10">
-        <v>21.02</v>
+        <v>21.97</v>
       </c>
       <c r="L10">
-        <v>75.38000000000001</v>
+        <v>74.53</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1749,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>78.03999999999999</v>
+        <v>78.64999999999999</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1764,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>21.96</v>
+        <v>21.35</v>
       </c>
       <c r="L11">
-        <v>78.03999999999999</v>
+        <v>78.64999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1785,16 +1794,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1805,13 +1814,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1822,13 +1831,13 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1836,16 +1845,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1856,13 +1865,13 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1876,10 +1885,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1887,16 +1896,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1907,13 +1916,13 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1924,13 +1933,13 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1941,13 +1950,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>-24</v>
+        <v>-31</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1964,7 +1973,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1974,60 +1983,63 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+        <v>66</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2073,11 +2085,14 @@
       <c r="O2">
         <v>35</v>
       </c>
-      <c r="P2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="P2">
+        <v>37</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2123,61 +2138,67 @@
       <c r="O3">
         <v>35</v>
       </c>
-      <c r="P3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="P3">
+        <v>34</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>-5</v>
-      </c>
-      <c r="C4">
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
         <v>-7</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>7</v>
-      </c>
       <c r="F4">
+        <v>-6</v>
+      </c>
+      <c r="G4">
+        <v>-14</v>
+      </c>
+      <c r="H4">
+        <v>-10</v>
+      </c>
+      <c r="I4">
+        <v>-6</v>
+      </c>
+      <c r="J4">
+        <v>-8</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>6</v>
+      </c>
+      <c r="M4">
+        <v>-2</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
         <v>4</v>
       </c>
-      <c r="G4">
-        <v>7</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4">
-        <v>8</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>8</v>
-      </c>
-      <c r="M4">
-        <v>13</v>
-      </c>
-      <c r="N4">
-        <v>6</v>
-      </c>
-      <c r="O4">
-        <v>6</v>
-      </c>
-      <c r="P4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="P4">
+        <v>12</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -2223,11 +2244,14 @@
       <c r="O5">
         <v>5</v>
       </c>
-      <c r="P5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="P5">
+        <v>8</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2273,61 +2297,67 @@
       <c r="O6">
         <v>5</v>
       </c>
-      <c r="P6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>-5</v>
+      </c>
+      <c r="C7">
+        <v>-7</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>-1</v>
-      </c>
-      <c r="C7">
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
         <v>5</v>
       </c>
-      <c r="D7">
-        <v>-1</v>
-      </c>
-      <c r="E7">
-        <v>-7</v>
-      </c>
-      <c r="F7">
-        <v>-6</v>
-      </c>
-      <c r="G7">
-        <v>-14</v>
-      </c>
-      <c r="H7">
-        <v>-10</v>
-      </c>
-      <c r="I7">
-        <v>-6</v>
-      </c>
       <c r="J7">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
+        <v>8</v>
+      </c>
+      <c r="M7">
+        <v>13</v>
+      </c>
+      <c r="N7">
         <v>6</v>
       </c>
-      <c r="M7">
-        <v>-2</v>
-      </c>
-      <c r="N7">
-        <v>2</v>
-      </c>
       <c r="O7">
-        <v>4</v>
-      </c>
-      <c r="P7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>6</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -2373,11 +2403,14 @@
       <c r="O8">
         <v>1</v>
       </c>
-      <c r="P8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="P8">
+        <v>-1</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -2423,11 +2456,14 @@
       <c r="O9">
         <v>-12</v>
       </c>
-      <c r="P9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="P9">
+        <v>-11</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2473,11 +2509,14 @@
       <c r="O10">
         <v>-24</v>
       </c>
-      <c r="P10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="P10">
+        <v>-31</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -2523,8 +2562,11 @@
       <c r="O11">
         <v>-54</v>
       </c>
-      <c r="P11" t="s">
-        <v>49</v>
+      <c r="P11">
+        <v>-54</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2534,7 +2576,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2542,25 +2584,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2568,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -2577,13 +2619,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F2">
-        <v>-48</v>
+        <v>-54</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H2" t="s">
         <v>0</v>
@@ -2594,25 +2636,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>-23</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>-48</v>
       </c>
       <c r="G3">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2620,25 +2662,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>-5</v>
+        <v>34</v>
       </c>
       <c r="F4">
-        <v>16</v>
+        <v>-11</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2646,25 +2688,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>-23</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>-4</v>
-      </c>
-      <c r="F5">
-        <v>16</v>
-      </c>
       <c r="G5">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2672,25 +2714,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>28</v>
+        <v>-5</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2698,25 +2740,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E7">
+        <v>-4</v>
+      </c>
+      <c r="F7">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
         <v>1</v>
-      </c>
-      <c r="F7">
-        <v>-13</v>
-      </c>
-      <c r="G7">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2724,25 +2766,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="F8">
-        <v>-6</v>
+        <v>8</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2750,25 +2792,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>19</v>
+        <v>-13</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2776,25 +2818,25 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>-6</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2802,76 +2844,24 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11">
         <v>6</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <v>14</v>
-      </c>
       <c r="F11">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>-12</v>
-      </c>
-      <c r="F12">
-        <v>-24</v>
-      </c>
-      <c r="G12">
-        <v>12</v>
-      </c>
-      <c r="H12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="F13">
-        <v>-6</v>
-      </c>
-      <c r="G13">
-        <v>11</v>
-      </c>
-      <c r="H13" t="s">
         <v>7</v>
       </c>
     </row>

--- a/0755 Fantasy Football 2024.xlsx
+++ b/0755 Fantasy Football 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="77">
   <si>
     <t>Metcalves of Steele</t>
   </si>
@@ -52,46 +52,46 @@
     <t>It's Britney's Bench</t>
   </si>
   <si>
-    <t>2-13-0</t>
-  </si>
-  <si>
-    <t>8-7-0</t>
-  </si>
-  <si>
-    <t>11-4-0</t>
-  </si>
-  <si>
-    <t>9-6-0</t>
-  </si>
-  <si>
-    <t>7-8-0</t>
-  </si>
-  <si>
-    <t>5-10-0</t>
-  </si>
-  <si>
-    <t>6-9-0</t>
-  </si>
-  <si>
-    <t>3-12-0</t>
-  </si>
-  <si>
-    <t>10-4-1</t>
-  </si>
-  <si>
-    <t>12-3-0</t>
-  </si>
-  <si>
-    <t>10-5-0</t>
-  </si>
-  <si>
-    <t>4-11-0</t>
-  </si>
-  <si>
-    <t>11-3-1</t>
-  </si>
-  <si>
-    <t>13-2-0</t>
+    <t>4-13-0</t>
+  </si>
+  <si>
+    <t>10-7-0</t>
+  </si>
+  <si>
+    <t>12-5-0</t>
+  </si>
+  <si>
+    <t>11-6-0</t>
+  </si>
+  <si>
+    <t>9-8-0</t>
+  </si>
+  <si>
+    <t>6-11-0</t>
+  </si>
+  <si>
+    <t>3-14-0</t>
+  </si>
+  <si>
+    <t>12-4-1</t>
+  </si>
+  <si>
+    <t>13-4-0</t>
+  </si>
+  <si>
+    <t>7-10-0</t>
+  </si>
+  <si>
+    <t>8-9-0</t>
+  </si>
+  <si>
+    <t>5-12-0</t>
+  </si>
+  <si>
+    <t>2-15-0</t>
+  </si>
+  <si>
+    <t>15-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -151,28 +151,31 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑2</t>
+    <t>↑10</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑1</t>
   </si>
   <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↑1</t>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↓9</t>
+  </si>
+  <si>
+    <t>↓4</t>
   </si>
   <si>
     <t>↓7</t>
@@ -221,6 +224,12 @@
   </si>
   <si>
     <t>Week 15</t>
+  </si>
+  <si>
+    <t>Week 16</t>
+  </si>
+  <si>
+    <t>Week 17</t>
   </si>
   <si>
     <t>Week</t>
@@ -645,31 +654,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -680,22 +689,22 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
         <v>13</v>
@@ -715,28 +724,28 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K4" t="s">
         <v>13</v>
@@ -750,22 +759,22 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
         <v>11</v>
@@ -785,22 +794,22 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s">
         <v>14</v>
@@ -809,7 +818,7 @@
         <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -817,34 +826,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -858,22 +867,22 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
         <v>11</v>
-      </c>
-      <c r="I8" t="s">
-        <v>13</v>
       </c>
       <c r="J8" t="s">
         <v>13</v>
@@ -890,25 +899,25 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -928,25 +937,25 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K10" t="s">
         <v>21</v>
@@ -957,34 +966,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
         <v>21</v>
       </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" t="s">
-        <v>15</v>
-      </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1016,13 +1025,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1030,10 +1039,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>6.2</v>
+        <v>7.6</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -1044,13 +1053,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1058,13 +1067,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1075,10 +1084,10 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>7.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1086,13 +1095,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1100,13 +1109,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>7.9</v>
+        <v>8.9</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1114,13 +1123,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1128,13 +1137,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>8.1</v>
+        <v>9.1</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1142,13 +1151,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1186,13 +1195,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>10.3</v>
+        <v>11.5</v>
       </c>
       <c r="D2">
-        <v>1.300000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1200,16 +1209,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>10.4</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>-1.6</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1217,16 +1226,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>8.699999999999999</v>
+        <v>10.3</v>
       </c>
       <c r="D4">
-        <v>-1.300000000000001</v>
+        <v>1.300000000000001</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1237,13 +1246,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D5">
-        <v>-2.4</v>
+        <v>-2.199999999999999</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1254,13 +1263,13 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>8.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="D6">
-        <v>0.1999999999999993</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1268,16 +1277,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1285,16 +1294,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>7.7</v>
+        <v>8.4</v>
       </c>
       <c r="D8">
-        <v>-1.3</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1305,13 +1314,13 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="D9">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1322,13 +1331,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1339,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -1401,13 +1410,13 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>34.03</v>
+        <v>100</v>
       </c>
       <c r="C2">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1419,10 +1428,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>64.45999999999999</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1434,21 +1443,21 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>35.54</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>26.41</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>9.180000000000001</v>
+        <v>100</v>
       </c>
       <c r="D3">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1457,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>26.11</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>38.05</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1472,21 +1481,21 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>35.84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>22.76</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>2.53</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1495,39 +1504,39 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>6.850000000000001</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>30.92</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>15.29</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>46.94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>11.62</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>28.74</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>10.23</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.44</v>
+        <v>100</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1536,65 +1545,65 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>18.22</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>24.94</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>3.67</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>51.03</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>3.67</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>27.22</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>22.99</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>3.07</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06999999999999999</v>
+        <v>100</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>9.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>23.97</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>9.34</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>57.02</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1609,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>98.48999999999999</v>
+        <v>100</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1635,34 +1644,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>13.01</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>33.09</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>11.11</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.06999999999999999</v>
+        <v>100</v>
       </c>
       <c r="I8">
-        <v>3.04</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>21.18</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>18.1</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>57.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1676,13 +1685,13 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>31.11</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>28.7</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>3.03</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1691,16 +1700,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.47</v>
+        <v>100</v>
       </c>
       <c r="J9">
-        <v>11.12</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>25.57</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>62.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1717,10 +1726,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>56.68</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>17.85</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1732,13 +1741,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>3.5</v>
+        <v>100</v>
       </c>
       <c r="K10">
-        <v>21.97</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>74.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1758,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>78.64999999999999</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1773,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>21.35</v>
+        <v>100</v>
       </c>
       <c r="L11">
-        <v>78.64999999999999</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1814,10 +1823,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>43</v>
@@ -1831,10 +1840,10 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
         <v>44</v>
@@ -1845,13 +1854,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
         <v>45</v>
@@ -1862,13 +1871,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
         <v>46</v>
@@ -1882,10 +1891,10 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
         <v>47</v>
@@ -1896,13 +1905,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
         <v>48</v>
@@ -1913,13 +1922,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>-8</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
         <v>49</v>
@@ -1930,13 +1939,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>-11</v>
+        <v>-19</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
         <v>50</v>
@@ -1950,10 +1959,10 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>-31</v>
+        <v>-46</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
         <v>51</v>
@@ -1967,13 +1976,13 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>-54</v>
+        <v>-62</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1983,63 +1992,69 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2088,11 +2103,17 @@
       <c r="P2">
         <v>37</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2">
+        <v>37</v>
+      </c>
+      <c r="R2">
+        <v>47</v>
+      </c>
+      <c r="S2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2141,16 +2162,22 @@
       <c r="P3">
         <v>34</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3">
+        <v>38</v>
+      </c>
+      <c r="R3">
+        <v>42</v>
+      </c>
+      <c r="S3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -2159,51 +2186,57 @@
         <v>-1</v>
       </c>
       <c r="E4">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="F4">
         <v>-6</v>
       </c>
       <c r="G4">
-        <v>-14</v>
+        <v>-4</v>
       </c>
       <c r="H4">
-        <v>-10</v>
+        <v>-1</v>
       </c>
       <c r="I4">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="J4">
-        <v>-8</v>
+        <v>2</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="N4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P4">
-        <v>12</v>
-      </c>
-      <c r="Q4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4">
+        <v>17</v>
+      </c>
+      <c r="R4">
+        <v>18</v>
+      </c>
+      <c r="S4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -2212,46 +2245,52 @@
         <v>-1</v>
       </c>
       <c r="E5">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="F5">
         <v>-6</v>
       </c>
       <c r="G5">
-        <v>-4</v>
+        <v>-14</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>-10</v>
       </c>
       <c r="I5">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="J5">
+        <v>-8</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
       <c r="L5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M5">
+        <v>-2</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
         <v>4</v>
       </c>
-      <c r="N5">
-        <v>8</v>
-      </c>
-      <c r="O5">
-        <v>5</v>
-      </c>
       <c r="P5">
-        <v>8</v>
-      </c>
-      <c r="Q5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5">
+        <v>14</v>
+      </c>
+      <c r="R5">
+        <v>13</v>
+      </c>
+      <c r="S5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2300,122 +2339,140 @@
       <c r="P6">
         <v>5</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6">
+        <v>7</v>
+      </c>
+      <c r="R6">
+        <v>13</v>
+      </c>
+      <c r="S6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>13</v>
+      </c>
+      <c r="H7">
+        <v>14</v>
+      </c>
+      <c r="I7">
+        <v>14</v>
+      </c>
+      <c r="J7">
+        <v>16</v>
+      </c>
+      <c r="K7">
+        <v>16</v>
+      </c>
+      <c r="L7">
+        <v>10</v>
+      </c>
+      <c r="M7">
+        <v>-1</v>
+      </c>
+      <c r="N7">
+        <v>-11</v>
+      </c>
+      <c r="O7">
+        <v>-12</v>
+      </c>
+      <c r="P7">
+        <v>-11</v>
+      </c>
+      <c r="Q7">
+        <v>-5</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>-5</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>-7</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>7</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>4</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>7</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>4</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>5</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <v>8</v>
       </c>
-      <c r="K7">
+      <c r="K8">
         <v>1</v>
       </c>
-      <c r="L7">
+      <c r="L8">
         <v>8</v>
       </c>
-      <c r="M7">
+      <c r="M8">
         <v>13</v>
       </c>
-      <c r="N7">
+      <c r="N8">
         <v>6</v>
       </c>
-      <c r="O7">
+      <c r="O8">
         <v>6</v>
       </c>
-      <c r="P7">
+      <c r="P8">
         <v>1</v>
       </c>
-      <c r="Q7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
+      <c r="Q8">
+        <v>-2</v>
+      </c>
+      <c r="R8">
+        <v>-8</v>
+      </c>
+      <c r="S8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>10</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <v>8</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="G8">
-        <v>8</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>10</v>
-      </c>
-      <c r="J8">
-        <v>10</v>
-      </c>
-      <c r="K8">
-        <v>7</v>
-      </c>
-      <c r="L8">
-        <v>4</v>
-      </c>
-      <c r="M8">
-        <v>5</v>
-      </c>
-      <c r="N8">
-        <v>2</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>-1</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -2424,46 +2481,52 @@
         <v>4</v>
       </c>
       <c r="E9">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F9">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H9">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J9">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K9">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="L9">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
         <v>-1</v>
       </c>
-      <c r="N9">
-        <v>-11</v>
-      </c>
-      <c r="O9">
-        <v>-12</v>
-      </c>
-      <c r="P9">
-        <v>-11</v>
-      </c>
-      <c r="Q9" t="s">
+      <c r="Q9">
+        <v>-10</v>
+      </c>
+      <c r="R9">
+        <v>-19</v>
+      </c>
+      <c r="S9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2512,11 +2575,17 @@
       <c r="P10">
         <v>-31</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10">
+        <v>-42</v>
+      </c>
+      <c r="R10">
+        <v>-46</v>
+      </c>
+      <c r="S10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:19">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -2565,8 +2634,14 @@
       <c r="P11">
         <v>-54</v>
       </c>
-      <c r="Q11" t="s">
-        <v>47</v>
+      <c r="Q11">
+        <v>-55</v>
+      </c>
+      <c r="R11">
+        <v>-62</v>
+      </c>
+      <c r="S11" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2576,7 +2651,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2584,25 +2659,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2636,22 +2711,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F3">
-        <v>-48</v>
+        <v>-55</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H3" t="s">
         <v>0</v>
@@ -2662,25 +2737,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>-11</v>
+        <v>-48</v>
       </c>
       <c r="G4">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2688,25 +2763,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>-23</v>
+        <v>34</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="G5">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2714,25 +2789,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>-5</v>
+        <v>-19</v>
       </c>
       <c r="F6">
-        <v>16</v>
+        <v>-62</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2740,25 +2815,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="F7">
-        <v>16</v>
+        <v>-46</v>
       </c>
       <c r="G7">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2766,25 +2841,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G8">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2792,22 +2867,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E9">
+        <v>-23</v>
+      </c>
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="F9">
-        <v>-13</v>
-      </c>
       <c r="G9">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
         <v>8</v>
@@ -2818,22 +2893,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F10">
-        <v>-6</v>
+        <v>37</v>
       </c>
       <c r="G10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H10" t="s">
         <v>7</v>
@@ -2844,25 +2919,77 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
       </c>
       <c r="E11">
+        <v>-5</v>
+      </c>
+      <c r="F11">
+        <v>16</v>
+      </c>
+      <c r="G11">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s">
         <v>6</v>
       </c>
-      <c r="F11">
-        <v>19</v>
-      </c>
-      <c r="G11">
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>-4</v>
+      </c>
+      <c r="F12">
+        <v>16</v>
+      </c>
+      <c r="G12">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
-        <v>7</v>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>28</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
